--- a/Document/Part 2/ChiTiet/NOVELS_TLPT_01_NovelCreate.xlsx
+++ b/Document/Part 2/ChiTiet/NOVELS_TLPT_01_NovelCreate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr saveExternalLinkValues="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TaiLieu\DATN\DA\Nhom28_MTTTN\Document\Part 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TaiLieu\DATN\DA\Nhom28_MTTTN\Document\Part 2\ChiTiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14535" tabRatio="826"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14535" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="19" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="181">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -874,6 +874,24 @@
   </si>
   <si>
     <t>(2) Xử lý đăng tiểu thuyết</t>
+  </si>
+  <si>
+    <t>VALIDATION_NOVEL_TITLE</t>
+  </si>
+  <si>
+    <t>VALIDATION_NOVEL_DESC</t>
+  </si>
+  <si>
+    <t>VALIDATION_NOVEL_GENRE</t>
+  </si>
+  <si>
+    <t>VALIDATION_NOVEL_AUTHOR</t>
+  </si>
+  <si>
+    <t>VALIDATION_NOVEL_COVER</t>
+  </si>
+  <si>
+    <t>VALIDATION_TEXT_ONLY</t>
   </si>
 </sst>
 </file>
@@ -2560,6 +2578,259 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2572,6 +2843,217 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2584,18 +3066,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2608,26 +3078,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2646,432 +3096,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3241,12 +3265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -17302,7 +17320,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AX161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A116" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A131" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AT137" sqref="AT137"/>
     </sheetView>
   </sheetViews>
@@ -17314,187 +17332,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="275" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="275" t="s">
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="267"/>
-      <c r="R1" s="267"/>
-      <c r="S1" s="267"/>
-      <c r="T1" s="267"/>
-      <c r="U1" s="268"/>
-      <c r="V1" s="281" t="s">
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
-      <c r="Z1" s="283"/>
-      <c r="AA1" s="374" t="s">
+      <c r="W1" s="263"/>
+      <c r="X1" s="263"/>
+      <c r="Y1" s="263"/>
+      <c r="Z1" s="264"/>
+      <c r="AA1" s="268" t="s">
         <v>110</v>
       </c>
-      <c r="AB1" s="267"/>
-      <c r="AC1" s="267"/>
-      <c r="AD1" s="267"/>
-      <c r="AE1" s="267"/>
-      <c r="AF1" s="267"/>
-      <c r="AG1" s="267"/>
-      <c r="AH1" s="267"/>
-      <c r="AI1" s="267"/>
-      <c r="AJ1" s="267"/>
-      <c r="AK1" s="267"/>
-      <c r="AL1" s="268"/>
-      <c r="AM1" s="276" t="s">
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="247"/>
+      <c r="AD1" s="247"/>
+      <c r="AE1" s="247"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="247"/>
+      <c r="AH1" s="247"/>
+      <c r="AI1" s="247"/>
+      <c r="AJ1" s="247"/>
+      <c r="AK1" s="247"/>
+      <c r="AL1" s="248"/>
+      <c r="AM1" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AN1" s="277"/>
-      <c r="AO1" s="289" t="s">
+      <c r="AN1" s="283"/>
+      <c r="AO1" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="AP1" s="290"/>
-      <c r="AQ1" s="291"/>
-      <c r="AR1" s="276" t="s">
+      <c r="AP1" s="291"/>
+      <c r="AQ1" s="292"/>
+      <c r="AR1" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="AS1" s="277"/>
-      <c r="AT1" s="278">
+      <c r="AS1" s="283"/>
+      <c r="AT1" s="301">
         <v>45240</v>
       </c>
-      <c r="AU1" s="279"/>
-      <c r="AV1" s="279"/>
-      <c r="AW1" s="280"/>
+      <c r="AU1" s="302"/>
+      <c r="AV1" s="302"/>
+      <c r="AW1" s="303"/>
     </row>
     <row r="2" spans="1:49" s="22" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="269"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="270"/>
-      <c r="U2" s="271"/>
-      <c r="V2" s="284"/>
-      <c r="W2" s="285"/>
-      <c r="X2" s="285"/>
-      <c r="Y2" s="285"/>
-      <c r="Z2" s="286"/>
-      <c r="AA2" s="288"/>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="270"/>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="270"/>
-      <c r="AH2" s="270"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="270"/>
-      <c r="AK2" s="270"/>
-      <c r="AL2" s="271"/>
-      <c r="AM2" s="304" t="s">
+      <c r="A2" s="249"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="266"/>
+      <c r="X2" s="266"/>
+      <c r="Y2" s="266"/>
+      <c r="Z2" s="267"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="250"/>
+      <c r="AC2" s="250"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="250"/>
+      <c r="AH2" s="250"/>
+      <c r="AI2" s="250"/>
+      <c r="AJ2" s="250"/>
+      <c r="AK2" s="250"/>
+      <c r="AL2" s="251"/>
+      <c r="AM2" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="305"/>
-      <c r="AO2" s="306"/>
-      <c r="AP2" s="307"/>
-      <c r="AQ2" s="308"/>
-      <c r="AR2" s="304" t="s">
+      <c r="AN2" s="294"/>
+      <c r="AO2" s="295"/>
+      <c r="AP2" s="296"/>
+      <c r="AQ2" s="297"/>
+      <c r="AR2" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="305"/>
-      <c r="AT2" s="309"/>
-      <c r="AU2" s="310"/>
-      <c r="AV2" s="310"/>
-      <c r="AW2" s="311"/>
+      <c r="AS2" s="294"/>
+      <c r="AT2" s="298"/>
+      <c r="AU2" s="299"/>
+      <c r="AV2" s="299"/>
+      <c r="AW2" s="300"/>
     </row>
     <row r="3" spans="1:49" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="274"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="292" t="s">
+      <c r="A3" s="252"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="253"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="293"/>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="293"/>
-      <c r="Z3" s="294"/>
-      <c r="AA3" s="295" t="s">
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="256" t="s">
         <v>114</v>
       </c>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="296"/>
-      <c r="AG3" s="297"/>
-      <c r="AH3" s="298" t="s">
+      <c r="AB3" s="257"/>
+      <c r="AC3" s="257"/>
+      <c r="AD3" s="257"/>
+      <c r="AE3" s="257"/>
+      <c r="AF3" s="257"/>
+      <c r="AG3" s="258"/>
+      <c r="AH3" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="299"/>
-      <c r="AJ3" s="299"/>
-      <c r="AK3" s="299"/>
-      <c r="AL3" s="300"/>
-      <c r="AM3" s="301" t="s">
+      <c r="AI3" s="285"/>
+      <c r="AJ3" s="285"/>
+      <c r="AK3" s="285"/>
+      <c r="AL3" s="286"/>
+      <c r="AM3" s="287" t="s">
         <v>108</v>
       </c>
-      <c r="AN3" s="302"/>
-      <c r="AO3" s="302"/>
-      <c r="AP3" s="302"/>
-      <c r="AQ3" s="302"/>
-      <c r="AR3" s="302"/>
-      <c r="AS3" s="302"/>
-      <c r="AT3" s="302"/>
-      <c r="AU3" s="302"/>
-      <c r="AV3" s="302"/>
-      <c r="AW3" s="303"/>
+      <c r="AN3" s="288"/>
+      <c r="AO3" s="288"/>
+      <c r="AP3" s="288"/>
+      <c r="AQ3" s="288"/>
+      <c r="AR3" s="288"/>
+      <c r="AS3" s="288"/>
+      <c r="AT3" s="288"/>
+      <c r="AU3" s="288"/>
+      <c r="AV3" s="288"/>
+      <c r="AW3" s="289"/>
     </row>
     <row r="4" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="24"/>
@@ -17957,259 +17975,259 @@
     </row>
     <row r="13" spans="1:49" ht="13.5" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="375" t="s">
+      <c r="B13" s="304" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="376"/>
-      <c r="D13" s="376"/>
-      <c r="E13" s="376"/>
-      <c r="F13" s="376"/>
-      <c r="G13" s="376"/>
-      <c r="H13" s="376"/>
-      <c r="I13" s="376"/>
-      <c r="J13" s="376"/>
-      <c r="K13" s="376"/>
-      <c r="L13" s="376"/>
-      <c r="M13" s="376"/>
-      <c r="N13" s="376"/>
-      <c r="O13" s="376"/>
-      <c r="P13" s="376"/>
-      <c r="Q13" s="376"/>
-      <c r="R13" s="376"/>
-      <c r="S13" s="376"/>
-      <c r="T13" s="376"/>
-      <c r="U13" s="376"/>
-      <c r="V13" s="376"/>
-      <c r="W13" s="376"/>
-      <c r="X13" s="376"/>
-      <c r="Y13" s="376"/>
-      <c r="Z13" s="376"/>
-      <c r="AA13" s="376"/>
-      <c r="AB13" s="376"/>
-      <c r="AC13" s="376"/>
-      <c r="AD13" s="376"/>
-      <c r="AE13" s="376"/>
-      <c r="AF13" s="376"/>
-      <c r="AG13" s="376"/>
-      <c r="AH13" s="376"/>
-      <c r="AI13" s="376"/>
-      <c r="AJ13" s="376"/>
-      <c r="AK13" s="376"/>
-      <c r="AL13" s="376"/>
-      <c r="AM13" s="376"/>
-      <c r="AN13" s="376"/>
-      <c r="AO13" s="376"/>
-      <c r="AP13" s="376"/>
-      <c r="AQ13" s="376"/>
-      <c r="AR13" s="376"/>
-      <c r="AS13" s="376"/>
-      <c r="AT13" s="376"/>
-      <c r="AU13" s="376"/>
-      <c r="AV13" s="376"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="305"/>
+      <c r="E13" s="305"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="305"/>
+      <c r="H13" s="305"/>
+      <c r="I13" s="305"/>
+      <c r="J13" s="305"/>
+      <c r="K13" s="305"/>
+      <c r="L13" s="305"/>
+      <c r="M13" s="305"/>
+      <c r="N13" s="305"/>
+      <c r="O13" s="305"/>
+      <c r="P13" s="305"/>
+      <c r="Q13" s="305"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="305"/>
+      <c r="U13" s="305"/>
+      <c r="V13" s="305"/>
+      <c r="W13" s="305"/>
+      <c r="X13" s="305"/>
+      <c r="Y13" s="305"/>
+      <c r="Z13" s="305"/>
+      <c r="AA13" s="305"/>
+      <c r="AB13" s="305"/>
+      <c r="AC13" s="305"/>
+      <c r="AD13" s="305"/>
+      <c r="AE13" s="305"/>
+      <c r="AF13" s="305"/>
+      <c r="AG13" s="305"/>
+      <c r="AH13" s="305"/>
+      <c r="AI13" s="305"/>
+      <c r="AJ13" s="305"/>
+      <c r="AK13" s="305"/>
+      <c r="AL13" s="305"/>
+      <c r="AM13" s="305"/>
+      <c r="AN13" s="305"/>
+      <c r="AO13" s="305"/>
+      <c r="AP13" s="305"/>
+      <c r="AQ13" s="305"/>
+      <c r="AR13" s="305"/>
+      <c r="AS13" s="305"/>
+      <c r="AT13" s="305"/>
+      <c r="AU13" s="305"/>
+      <c r="AV13" s="305"/>
       <c r="AW13" s="182"/>
     </row>
     <row r="14" spans="1:49" ht="13.5" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="376"/>
-      <c r="C14" s="376"/>
-      <c r="D14" s="376"/>
-      <c r="E14" s="376"/>
-      <c r="F14" s="376"/>
-      <c r="G14" s="376"/>
-      <c r="H14" s="376"/>
-      <c r="I14" s="376"/>
-      <c r="J14" s="376"/>
-      <c r="K14" s="376"/>
-      <c r="L14" s="376"/>
-      <c r="M14" s="376"/>
-      <c r="N14" s="376"/>
-      <c r="O14" s="376"/>
-      <c r="P14" s="376"/>
-      <c r="Q14" s="376"/>
-      <c r="R14" s="376"/>
-      <c r="S14" s="376"/>
-      <c r="T14" s="376"/>
-      <c r="U14" s="376"/>
-      <c r="V14" s="376"/>
-      <c r="W14" s="376"/>
-      <c r="X14" s="376"/>
-      <c r="Y14" s="376"/>
-      <c r="Z14" s="376"/>
-      <c r="AA14" s="376"/>
-      <c r="AB14" s="376"/>
-      <c r="AC14" s="376"/>
-      <c r="AD14" s="376"/>
-      <c r="AE14" s="376"/>
-      <c r="AF14" s="376"/>
-      <c r="AG14" s="376"/>
-      <c r="AH14" s="376"/>
-      <c r="AI14" s="376"/>
-      <c r="AJ14" s="376"/>
-      <c r="AK14" s="376"/>
-      <c r="AL14" s="376"/>
-      <c r="AM14" s="376"/>
-      <c r="AN14" s="376"/>
-      <c r="AO14" s="376"/>
-      <c r="AP14" s="376"/>
-      <c r="AQ14" s="376"/>
-      <c r="AR14" s="376"/>
-      <c r="AS14" s="376"/>
-      <c r="AT14" s="376"/>
-      <c r="AU14" s="376"/>
-      <c r="AV14" s="376"/>
+      <c r="B14" s="305"/>
+      <c r="C14" s="305"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="305"/>
+      <c r="F14" s="305"/>
+      <c r="G14" s="305"/>
+      <c r="H14" s="305"/>
+      <c r="I14" s="305"/>
+      <c r="J14" s="305"/>
+      <c r="K14" s="305"/>
+      <c r="L14" s="305"/>
+      <c r="M14" s="305"/>
+      <c r="N14" s="305"/>
+      <c r="O14" s="305"/>
+      <c r="P14" s="305"/>
+      <c r="Q14" s="305"/>
+      <c r="R14" s="305"/>
+      <c r="S14" s="305"/>
+      <c r="T14" s="305"/>
+      <c r="U14" s="305"/>
+      <c r="V14" s="305"/>
+      <c r="W14" s="305"/>
+      <c r="X14" s="305"/>
+      <c r="Y14" s="305"/>
+      <c r="Z14" s="305"/>
+      <c r="AA14" s="305"/>
+      <c r="AB14" s="305"/>
+      <c r="AC14" s="305"/>
+      <c r="AD14" s="305"/>
+      <c r="AE14" s="305"/>
+      <c r="AF14" s="305"/>
+      <c r="AG14" s="305"/>
+      <c r="AH14" s="305"/>
+      <c r="AI14" s="305"/>
+      <c r="AJ14" s="305"/>
+      <c r="AK14" s="305"/>
+      <c r="AL14" s="305"/>
+      <c r="AM14" s="305"/>
+      <c r="AN14" s="305"/>
+      <c r="AO14" s="305"/>
+      <c r="AP14" s="305"/>
+      <c r="AQ14" s="305"/>
+      <c r="AR14" s="305"/>
+      <c r="AS14" s="305"/>
+      <c r="AT14" s="305"/>
+      <c r="AU14" s="305"/>
+      <c r="AV14" s="305"/>
       <c r="AW14" s="182"/>
     </row>
     <row r="15" spans="1:49" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="376"/>
-      <c r="C15" s="376"/>
-      <c r="D15" s="376"/>
-      <c r="E15" s="376"/>
-      <c r="F15" s="376"/>
-      <c r="G15" s="376"/>
-      <c r="H15" s="376"/>
-      <c r="I15" s="376"/>
-      <c r="J15" s="376"/>
-      <c r="K15" s="376"/>
-      <c r="L15" s="376"/>
-      <c r="M15" s="376"/>
-      <c r="N15" s="376"/>
-      <c r="O15" s="376"/>
-      <c r="P15" s="376"/>
-      <c r="Q15" s="376"/>
-      <c r="R15" s="376"/>
-      <c r="S15" s="376"/>
-      <c r="T15" s="376"/>
-      <c r="U15" s="376"/>
-      <c r="V15" s="376"/>
-      <c r="W15" s="376"/>
-      <c r="X15" s="376"/>
-      <c r="Y15" s="376"/>
-      <c r="Z15" s="376"/>
-      <c r="AA15" s="376"/>
-      <c r="AB15" s="376"/>
-      <c r="AC15" s="376"/>
-      <c r="AD15" s="376"/>
-      <c r="AE15" s="376"/>
-      <c r="AF15" s="376"/>
-      <c r="AG15" s="376"/>
-      <c r="AH15" s="376"/>
-      <c r="AI15" s="376"/>
-      <c r="AJ15" s="376"/>
-      <c r="AK15" s="376"/>
-      <c r="AL15" s="376"/>
-      <c r="AM15" s="376"/>
-      <c r="AN15" s="376"/>
-      <c r="AO15" s="376"/>
-      <c r="AP15" s="376"/>
-      <c r="AQ15" s="376"/>
-      <c r="AR15" s="376"/>
-      <c r="AS15" s="376"/>
-      <c r="AT15" s="376"/>
-      <c r="AU15" s="376"/>
-      <c r="AV15" s="376"/>
+      <c r="B15" s="305"/>
+      <c r="C15" s="305"/>
+      <c r="D15" s="305"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
+      <c r="G15" s="305"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="305"/>
+      <c r="J15" s="305"/>
+      <c r="K15" s="305"/>
+      <c r="L15" s="305"/>
+      <c r="M15" s="305"/>
+      <c r="N15" s="305"/>
+      <c r="O15" s="305"/>
+      <c r="P15" s="305"/>
+      <c r="Q15" s="305"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="305"/>
+      <c r="T15" s="305"/>
+      <c r="U15" s="305"/>
+      <c r="V15" s="305"/>
+      <c r="W15" s="305"/>
+      <c r="X15" s="305"/>
+      <c r="Y15" s="305"/>
+      <c r="Z15" s="305"/>
+      <c r="AA15" s="305"/>
+      <c r="AB15" s="305"/>
+      <c r="AC15" s="305"/>
+      <c r="AD15" s="305"/>
+      <c r="AE15" s="305"/>
+      <c r="AF15" s="305"/>
+      <c r="AG15" s="305"/>
+      <c r="AH15" s="305"/>
+      <c r="AI15" s="305"/>
+      <c r="AJ15" s="305"/>
+      <c r="AK15" s="305"/>
+      <c r="AL15" s="305"/>
+      <c r="AM15" s="305"/>
+      <c r="AN15" s="305"/>
+      <c r="AO15" s="305"/>
+      <c r="AP15" s="305"/>
+      <c r="AQ15" s="305"/>
+      <c r="AR15" s="305"/>
+      <c r="AS15" s="305"/>
+      <c r="AT15" s="305"/>
+      <c r="AU15" s="305"/>
+      <c r="AV15" s="305"/>
       <c r="AW15" s="189"/>
     </row>
     <row r="16" spans="1:49" ht="13.5" customHeight="1">
       <c r="A16" s="30"/>
-      <c r="B16" s="376"/>
-      <c r="C16" s="376"/>
-      <c r="D16" s="376"/>
-      <c r="E16" s="376"/>
-      <c r="F16" s="376"/>
-      <c r="G16" s="376"/>
-      <c r="H16" s="376"/>
-      <c r="I16" s="376"/>
-      <c r="J16" s="376"/>
-      <c r="K16" s="376"/>
-      <c r="L16" s="376"/>
-      <c r="M16" s="376"/>
-      <c r="N16" s="376"/>
-      <c r="O16" s="376"/>
-      <c r="P16" s="376"/>
-      <c r="Q16" s="376"/>
-      <c r="R16" s="376"/>
-      <c r="S16" s="376"/>
-      <c r="T16" s="376"/>
-      <c r="U16" s="376"/>
-      <c r="V16" s="376"/>
-      <c r="W16" s="376"/>
-      <c r="X16" s="376"/>
-      <c r="Y16" s="376"/>
-      <c r="Z16" s="376"/>
-      <c r="AA16" s="376"/>
-      <c r="AB16" s="376"/>
-      <c r="AC16" s="376"/>
-      <c r="AD16" s="376"/>
-      <c r="AE16" s="376"/>
-      <c r="AF16" s="376"/>
-      <c r="AG16" s="376"/>
-      <c r="AH16" s="376"/>
-      <c r="AI16" s="376"/>
-      <c r="AJ16" s="376"/>
-      <c r="AK16" s="376"/>
-      <c r="AL16" s="376"/>
-      <c r="AM16" s="376"/>
-      <c r="AN16" s="376"/>
-      <c r="AO16" s="376"/>
-      <c r="AP16" s="376"/>
-      <c r="AQ16" s="376"/>
-      <c r="AR16" s="376"/>
-      <c r="AS16" s="376"/>
-      <c r="AT16" s="376"/>
-      <c r="AU16" s="376"/>
-      <c r="AV16" s="376"/>
+      <c r="B16" s="305"/>
+      <c r="C16" s="305"/>
+      <c r="D16" s="305"/>
+      <c r="E16" s="305"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
+      <c r="I16" s="305"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="305"/>
+      <c r="L16" s="305"/>
+      <c r="M16" s="305"/>
+      <c r="N16" s="305"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="305"/>
+      <c r="Q16" s="305"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="305"/>
+      <c r="U16" s="305"/>
+      <c r="V16" s="305"/>
+      <c r="W16" s="305"/>
+      <c r="X16" s="305"/>
+      <c r="Y16" s="305"/>
+      <c r="Z16" s="305"/>
+      <c r="AA16" s="305"/>
+      <c r="AB16" s="305"/>
+      <c r="AC16" s="305"/>
+      <c r="AD16" s="305"/>
+      <c r="AE16" s="305"/>
+      <c r="AF16" s="305"/>
+      <c r="AG16" s="305"/>
+      <c r="AH16" s="305"/>
+      <c r="AI16" s="305"/>
+      <c r="AJ16" s="305"/>
+      <c r="AK16" s="305"/>
+      <c r="AL16" s="305"/>
+      <c r="AM16" s="305"/>
+      <c r="AN16" s="305"/>
+      <c r="AO16" s="305"/>
+      <c r="AP16" s="305"/>
+      <c r="AQ16" s="305"/>
+      <c r="AR16" s="305"/>
+      <c r="AS16" s="305"/>
+      <c r="AT16" s="305"/>
+      <c r="AU16" s="305"/>
+      <c r="AV16" s="305"/>
       <c r="AW16" s="189"/>
     </row>
     <row r="17" spans="1:49" ht="13.5" customHeight="1">
       <c r="A17" s="30"/>
-      <c r="B17" s="376"/>
-      <c r="C17" s="376"/>
-      <c r="D17" s="376"/>
-      <c r="E17" s="376"/>
-      <c r="F17" s="376"/>
-      <c r="G17" s="376"/>
-      <c r="H17" s="376"/>
-      <c r="I17" s="376"/>
-      <c r="J17" s="376"/>
-      <c r="K17" s="376"/>
-      <c r="L17" s="376"/>
-      <c r="M17" s="376"/>
-      <c r="N17" s="376"/>
-      <c r="O17" s="376"/>
-      <c r="P17" s="376"/>
-      <c r="Q17" s="376"/>
-      <c r="R17" s="376"/>
-      <c r="S17" s="376"/>
-      <c r="T17" s="376"/>
-      <c r="U17" s="376"/>
-      <c r="V17" s="376"/>
-      <c r="W17" s="376"/>
-      <c r="X17" s="376"/>
-      <c r="Y17" s="376"/>
-      <c r="Z17" s="376"/>
-      <c r="AA17" s="376"/>
-      <c r="AB17" s="376"/>
-      <c r="AC17" s="376"/>
-      <c r="AD17" s="376"/>
-      <c r="AE17" s="376"/>
-      <c r="AF17" s="376"/>
-      <c r="AG17" s="376"/>
-      <c r="AH17" s="376"/>
-      <c r="AI17" s="376"/>
-      <c r="AJ17" s="376"/>
-      <c r="AK17" s="376"/>
-      <c r="AL17" s="376"/>
-      <c r="AM17" s="376"/>
-      <c r="AN17" s="376"/>
-      <c r="AO17" s="376"/>
-      <c r="AP17" s="376"/>
-      <c r="AQ17" s="376"/>
-      <c r="AR17" s="376"/>
-      <c r="AS17" s="376"/>
-      <c r="AT17" s="376"/>
-      <c r="AU17" s="376"/>
-      <c r="AV17" s="376"/>
+      <c r="B17" s="305"/>
+      <c r="C17" s="305"/>
+      <c r="D17" s="305"/>
+      <c r="E17" s="305"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="305"/>
+      <c r="I17" s="305"/>
+      <c r="J17" s="305"/>
+      <c r="K17" s="305"/>
+      <c r="L17" s="305"/>
+      <c r="M17" s="305"/>
+      <c r="N17" s="305"/>
+      <c r="O17" s="305"/>
+      <c r="P17" s="305"/>
+      <c r="Q17" s="305"/>
+      <c r="R17" s="305"/>
+      <c r="S17" s="305"/>
+      <c r="T17" s="305"/>
+      <c r="U17" s="305"/>
+      <c r="V17" s="305"/>
+      <c r="W17" s="305"/>
+      <c r="X17" s="305"/>
+      <c r="Y17" s="305"/>
+      <c r="Z17" s="305"/>
+      <c r="AA17" s="305"/>
+      <c r="AB17" s="305"/>
+      <c r="AC17" s="305"/>
+      <c r="AD17" s="305"/>
+      <c r="AE17" s="305"/>
+      <c r="AF17" s="305"/>
+      <c r="AG17" s="305"/>
+      <c r="AH17" s="305"/>
+      <c r="AI17" s="305"/>
+      <c r="AJ17" s="305"/>
+      <c r="AK17" s="305"/>
+      <c r="AL17" s="305"/>
+      <c r="AM17" s="305"/>
+      <c r="AN17" s="305"/>
+      <c r="AO17" s="305"/>
+      <c r="AP17" s="305"/>
+      <c r="AQ17" s="305"/>
+      <c r="AR17" s="305"/>
+      <c r="AS17" s="305"/>
+      <c r="AT17" s="305"/>
+      <c r="AU17" s="305"/>
+      <c r="AV17" s="305"/>
       <c r="AW17" s="189"/>
     </row>
     <row r="18" spans="1:49" ht="13.5" customHeight="1">
@@ -18469,208 +18487,208 @@
     </row>
     <row r="23" spans="1:49" ht="13.5" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="377" t="s">
+      <c r="B23" s="306" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="377"/>
-      <c r="D23" s="377"/>
-      <c r="E23" s="377"/>
-      <c r="F23" s="377"/>
-      <c r="G23" s="377"/>
-      <c r="H23" s="377"/>
-      <c r="I23" s="377"/>
-      <c r="J23" s="377"/>
-      <c r="K23" s="377"/>
-      <c r="L23" s="377"/>
-      <c r="M23" s="377"/>
-      <c r="N23" s="377"/>
-      <c r="O23" s="377"/>
-      <c r="P23" s="377"/>
-      <c r="Q23" s="377"/>
-      <c r="R23" s="377"/>
-      <c r="S23" s="377"/>
-      <c r="T23" s="377"/>
-      <c r="U23" s="377"/>
-      <c r="V23" s="377"/>
-      <c r="W23" s="377"/>
-      <c r="X23" s="377"/>
-      <c r="Y23" s="377"/>
-      <c r="Z23" s="377"/>
-      <c r="AA23" s="377"/>
-      <c r="AB23" s="377"/>
-      <c r="AC23" s="377"/>
-      <c r="AD23" s="377"/>
-      <c r="AE23" s="377"/>
-      <c r="AF23" s="377"/>
-      <c r="AG23" s="377"/>
-      <c r="AH23" s="377"/>
-      <c r="AI23" s="377"/>
-      <c r="AJ23" s="377"/>
-      <c r="AK23" s="377"/>
-      <c r="AL23" s="377"/>
-      <c r="AM23" s="377"/>
-      <c r="AN23" s="377"/>
-      <c r="AO23" s="377"/>
-      <c r="AP23" s="377"/>
-      <c r="AQ23" s="377"/>
-      <c r="AR23" s="377"/>
-      <c r="AS23" s="377"/>
-      <c r="AT23" s="377"/>
-      <c r="AU23" s="377"/>
-      <c r="AV23" s="377"/>
+      <c r="C23" s="306"/>
+      <c r="D23" s="306"/>
+      <c r="E23" s="306"/>
+      <c r="F23" s="306"/>
+      <c r="G23" s="306"/>
+      <c r="H23" s="306"/>
+      <c r="I23" s="306"/>
+      <c r="J23" s="306"/>
+      <c r="K23" s="306"/>
+      <c r="L23" s="306"/>
+      <c r="M23" s="306"/>
+      <c r="N23" s="306"/>
+      <c r="O23" s="306"/>
+      <c r="P23" s="306"/>
+      <c r="Q23" s="306"/>
+      <c r="R23" s="306"/>
+      <c r="S23" s="306"/>
+      <c r="T23" s="306"/>
+      <c r="U23" s="306"/>
+      <c r="V23" s="306"/>
+      <c r="W23" s="306"/>
+      <c r="X23" s="306"/>
+      <c r="Y23" s="306"/>
+      <c r="Z23" s="306"/>
+      <c r="AA23" s="306"/>
+      <c r="AB23" s="306"/>
+      <c r="AC23" s="306"/>
+      <c r="AD23" s="306"/>
+      <c r="AE23" s="306"/>
+      <c r="AF23" s="306"/>
+      <c r="AG23" s="306"/>
+      <c r="AH23" s="306"/>
+      <c r="AI23" s="306"/>
+      <c r="AJ23" s="306"/>
+      <c r="AK23" s="306"/>
+      <c r="AL23" s="306"/>
+      <c r="AM23" s="306"/>
+      <c r="AN23" s="306"/>
+      <c r="AO23" s="306"/>
+      <c r="AP23" s="306"/>
+      <c r="AQ23" s="306"/>
+      <c r="AR23" s="306"/>
+      <c r="AS23" s="306"/>
+      <c r="AT23" s="306"/>
+      <c r="AU23" s="306"/>
+      <c r="AV23" s="306"/>
       <c r="AW23" s="189"/>
     </row>
     <row r="24" spans="1:49" ht="13.5" customHeight="1">
       <c r="A24" s="30"/>
-      <c r="B24" s="377"/>
-      <c r="C24" s="377"/>
-      <c r="D24" s="377"/>
-      <c r="E24" s="377"/>
-      <c r="F24" s="377"/>
-      <c r="G24" s="377"/>
-      <c r="H24" s="377"/>
-      <c r="I24" s="377"/>
-      <c r="J24" s="377"/>
-      <c r="K24" s="377"/>
-      <c r="L24" s="377"/>
-      <c r="M24" s="377"/>
-      <c r="N24" s="377"/>
-      <c r="O24" s="377"/>
-      <c r="P24" s="377"/>
-      <c r="Q24" s="377"/>
-      <c r="R24" s="377"/>
-      <c r="S24" s="377"/>
-      <c r="T24" s="377"/>
-      <c r="U24" s="377"/>
-      <c r="V24" s="377"/>
-      <c r="W24" s="377"/>
-      <c r="X24" s="377"/>
-      <c r="Y24" s="377"/>
-      <c r="Z24" s="377"/>
-      <c r="AA24" s="377"/>
-      <c r="AB24" s="377"/>
-      <c r="AC24" s="377"/>
-      <c r="AD24" s="377"/>
-      <c r="AE24" s="377"/>
-      <c r="AF24" s="377"/>
-      <c r="AG24" s="377"/>
-      <c r="AH24" s="377"/>
-      <c r="AI24" s="377"/>
-      <c r="AJ24" s="377"/>
-      <c r="AK24" s="377"/>
-      <c r="AL24" s="377"/>
-      <c r="AM24" s="377"/>
-      <c r="AN24" s="377"/>
-      <c r="AO24" s="377"/>
-      <c r="AP24" s="377"/>
-      <c r="AQ24" s="377"/>
-      <c r="AR24" s="377"/>
-      <c r="AS24" s="377"/>
-      <c r="AT24" s="377"/>
-      <c r="AU24" s="377"/>
-      <c r="AV24" s="377"/>
+      <c r="B24" s="306"/>
+      <c r="C24" s="306"/>
+      <c r="D24" s="306"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="306"/>
+      <c r="G24" s="306"/>
+      <c r="H24" s="306"/>
+      <c r="I24" s="306"/>
+      <c r="J24" s="306"/>
+      <c r="K24" s="306"/>
+      <c r="L24" s="306"/>
+      <c r="M24" s="306"/>
+      <c r="N24" s="306"/>
+      <c r="O24" s="306"/>
+      <c r="P24" s="306"/>
+      <c r="Q24" s="306"/>
+      <c r="R24" s="306"/>
+      <c r="S24" s="306"/>
+      <c r="T24" s="306"/>
+      <c r="U24" s="306"/>
+      <c r="V24" s="306"/>
+      <c r="W24" s="306"/>
+      <c r="X24" s="306"/>
+      <c r="Y24" s="306"/>
+      <c r="Z24" s="306"/>
+      <c r="AA24" s="306"/>
+      <c r="AB24" s="306"/>
+      <c r="AC24" s="306"/>
+      <c r="AD24" s="306"/>
+      <c r="AE24" s="306"/>
+      <c r="AF24" s="306"/>
+      <c r="AG24" s="306"/>
+      <c r="AH24" s="306"/>
+      <c r="AI24" s="306"/>
+      <c r="AJ24" s="306"/>
+      <c r="AK24" s="306"/>
+      <c r="AL24" s="306"/>
+      <c r="AM24" s="306"/>
+      <c r="AN24" s="306"/>
+      <c r="AO24" s="306"/>
+      <c r="AP24" s="306"/>
+      <c r="AQ24" s="306"/>
+      <c r="AR24" s="306"/>
+      <c r="AS24" s="306"/>
+      <c r="AT24" s="306"/>
+      <c r="AU24" s="306"/>
+      <c r="AV24" s="306"/>
       <c r="AW24" s="189"/>
     </row>
     <row r="25" spans="1:49" ht="13.5" customHeight="1">
       <c r="A25" s="30"/>
-      <c r="B25" s="377"/>
-      <c r="C25" s="377"/>
-      <c r="D25" s="377"/>
-      <c r="E25" s="377"/>
-      <c r="F25" s="377"/>
-      <c r="G25" s="377"/>
-      <c r="H25" s="377"/>
-      <c r="I25" s="377"/>
-      <c r="J25" s="377"/>
-      <c r="K25" s="377"/>
-      <c r="L25" s="377"/>
-      <c r="M25" s="377"/>
-      <c r="N25" s="377"/>
-      <c r="O25" s="377"/>
-      <c r="P25" s="377"/>
-      <c r="Q25" s="377"/>
-      <c r="R25" s="377"/>
-      <c r="S25" s="377"/>
-      <c r="T25" s="377"/>
-      <c r="U25" s="377"/>
-      <c r="V25" s="377"/>
-      <c r="W25" s="377"/>
-      <c r="X25" s="377"/>
-      <c r="Y25" s="377"/>
-      <c r="Z25" s="377"/>
-      <c r="AA25" s="377"/>
-      <c r="AB25" s="377"/>
-      <c r="AC25" s="377"/>
-      <c r="AD25" s="377"/>
-      <c r="AE25" s="377"/>
-      <c r="AF25" s="377"/>
-      <c r="AG25" s="377"/>
-      <c r="AH25" s="377"/>
-      <c r="AI25" s="377"/>
-      <c r="AJ25" s="377"/>
-      <c r="AK25" s="377"/>
-      <c r="AL25" s="377"/>
-      <c r="AM25" s="377"/>
-      <c r="AN25" s="377"/>
-      <c r="AO25" s="377"/>
-      <c r="AP25" s="377"/>
-      <c r="AQ25" s="377"/>
-      <c r="AR25" s="377"/>
-      <c r="AS25" s="377"/>
-      <c r="AT25" s="377"/>
-      <c r="AU25" s="377"/>
-      <c r="AV25" s="377"/>
+      <c r="B25" s="306"/>
+      <c r="C25" s="306"/>
+      <c r="D25" s="306"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="306"/>
+      <c r="G25" s="306"/>
+      <c r="H25" s="306"/>
+      <c r="I25" s="306"/>
+      <c r="J25" s="306"/>
+      <c r="K25" s="306"/>
+      <c r="L25" s="306"/>
+      <c r="M25" s="306"/>
+      <c r="N25" s="306"/>
+      <c r="O25" s="306"/>
+      <c r="P25" s="306"/>
+      <c r="Q25" s="306"/>
+      <c r="R25" s="306"/>
+      <c r="S25" s="306"/>
+      <c r="T25" s="306"/>
+      <c r="U25" s="306"/>
+      <c r="V25" s="306"/>
+      <c r="W25" s="306"/>
+      <c r="X25" s="306"/>
+      <c r="Y25" s="306"/>
+      <c r="Z25" s="306"/>
+      <c r="AA25" s="306"/>
+      <c r="AB25" s="306"/>
+      <c r="AC25" s="306"/>
+      <c r="AD25" s="306"/>
+      <c r="AE25" s="306"/>
+      <c r="AF25" s="306"/>
+      <c r="AG25" s="306"/>
+      <c r="AH25" s="306"/>
+      <c r="AI25" s="306"/>
+      <c r="AJ25" s="306"/>
+      <c r="AK25" s="306"/>
+      <c r="AL25" s="306"/>
+      <c r="AM25" s="306"/>
+      <c r="AN25" s="306"/>
+      <c r="AO25" s="306"/>
+      <c r="AP25" s="306"/>
+      <c r="AQ25" s="306"/>
+      <c r="AR25" s="306"/>
+      <c r="AS25" s="306"/>
+      <c r="AT25" s="306"/>
+      <c r="AU25" s="306"/>
+      <c r="AV25" s="306"/>
       <c r="AW25" s="189"/>
     </row>
     <row r="26" spans="1:49" ht="13.5" customHeight="1">
       <c r="A26" s="30"/>
-      <c r="B26" s="377"/>
-      <c r="C26" s="377"/>
-      <c r="D26" s="377"/>
-      <c r="E26" s="377"/>
-      <c r="F26" s="377"/>
-      <c r="G26" s="377"/>
-      <c r="H26" s="377"/>
-      <c r="I26" s="377"/>
-      <c r="J26" s="377"/>
-      <c r="K26" s="377"/>
-      <c r="L26" s="377"/>
-      <c r="M26" s="377"/>
-      <c r="N26" s="377"/>
-      <c r="O26" s="377"/>
-      <c r="P26" s="377"/>
-      <c r="Q26" s="377"/>
-      <c r="R26" s="377"/>
-      <c r="S26" s="377"/>
-      <c r="T26" s="377"/>
-      <c r="U26" s="377"/>
-      <c r="V26" s="377"/>
-      <c r="W26" s="377"/>
-      <c r="X26" s="377"/>
-      <c r="Y26" s="377"/>
-      <c r="Z26" s="377"/>
-      <c r="AA26" s="377"/>
-      <c r="AB26" s="377"/>
-      <c r="AC26" s="377"/>
-      <c r="AD26" s="377"/>
-      <c r="AE26" s="377"/>
-      <c r="AF26" s="377"/>
-      <c r="AG26" s="377"/>
-      <c r="AH26" s="377"/>
-      <c r="AI26" s="377"/>
-      <c r="AJ26" s="377"/>
-      <c r="AK26" s="377"/>
-      <c r="AL26" s="377"/>
-      <c r="AM26" s="377"/>
-      <c r="AN26" s="377"/>
-      <c r="AO26" s="377"/>
-      <c r="AP26" s="377"/>
-      <c r="AQ26" s="377"/>
-      <c r="AR26" s="377"/>
-      <c r="AS26" s="377"/>
-      <c r="AT26" s="377"/>
-      <c r="AU26" s="377"/>
-      <c r="AV26" s="377"/>
+      <c r="B26" s="306"/>
+      <c r="C26" s="306"/>
+      <c r="D26" s="306"/>
+      <c r="E26" s="306"/>
+      <c r="F26" s="306"/>
+      <c r="G26" s="306"/>
+      <c r="H26" s="306"/>
+      <c r="I26" s="306"/>
+      <c r="J26" s="306"/>
+      <c r="K26" s="306"/>
+      <c r="L26" s="306"/>
+      <c r="M26" s="306"/>
+      <c r="N26" s="306"/>
+      <c r="O26" s="306"/>
+      <c r="P26" s="306"/>
+      <c r="Q26" s="306"/>
+      <c r="R26" s="306"/>
+      <c r="S26" s="306"/>
+      <c r="T26" s="306"/>
+      <c r="U26" s="306"/>
+      <c r="V26" s="306"/>
+      <c r="W26" s="306"/>
+      <c r="X26" s="306"/>
+      <c r="Y26" s="306"/>
+      <c r="Z26" s="306"/>
+      <c r="AA26" s="306"/>
+      <c r="AB26" s="306"/>
+      <c r="AC26" s="306"/>
+      <c r="AD26" s="306"/>
+      <c r="AE26" s="306"/>
+      <c r="AF26" s="306"/>
+      <c r="AG26" s="306"/>
+      <c r="AH26" s="306"/>
+      <c r="AI26" s="306"/>
+      <c r="AJ26" s="306"/>
+      <c r="AK26" s="306"/>
+      <c r="AL26" s="306"/>
+      <c r="AM26" s="306"/>
+      <c r="AN26" s="306"/>
+      <c r="AO26" s="306"/>
+      <c r="AP26" s="306"/>
+      <c r="AQ26" s="306"/>
+      <c r="AR26" s="306"/>
+      <c r="AS26" s="306"/>
+      <c r="AT26" s="306"/>
+      <c r="AU26" s="306"/>
+      <c r="AV26" s="306"/>
       <c r="AW26" s="189"/>
     </row>
     <row r="27" spans="1:49" ht="13.5" customHeight="1">
@@ -19408,187 +19426,187 @@
       <c r="AW40" s="190"/>
     </row>
     <row r="41" spans="1:49" s="22" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A41" s="266" t="s">
+      <c r="A41" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="267"/>
-      <c r="C41" s="267"/>
-      <c r="D41" s="267"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="267"/>
-      <c r="G41" s="267"/>
-      <c r="H41" s="267"/>
-      <c r="I41" s="268"/>
-      <c r="J41" s="275" t="s">
+      <c r="B41" s="247"/>
+      <c r="C41" s="247"/>
+      <c r="D41" s="247"/>
+      <c r="E41" s="247"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="247"/>
+      <c r="H41" s="247"/>
+      <c r="I41" s="248"/>
+      <c r="J41" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="267"/>
-      <c r="L41" s="267"/>
-      <c r="M41" s="267"/>
-      <c r="N41" s="267"/>
-      <c r="O41" s="268"/>
-      <c r="P41" s="275" t="s">
+      <c r="K41" s="247"/>
+      <c r="L41" s="247"/>
+      <c r="M41" s="247"/>
+      <c r="N41" s="247"/>
+      <c r="O41" s="248"/>
+      <c r="P41" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="267"/>
-      <c r="R41" s="267"/>
-      <c r="S41" s="267"/>
-      <c r="T41" s="267"/>
-      <c r="U41" s="268"/>
-      <c r="V41" s="281" t="s">
+      <c r="Q41" s="247"/>
+      <c r="R41" s="247"/>
+      <c r="S41" s="247"/>
+      <c r="T41" s="247"/>
+      <c r="U41" s="248"/>
+      <c r="V41" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="282"/>
-      <c r="X41" s="282"/>
-      <c r="Y41" s="282"/>
-      <c r="Z41" s="283"/>
-      <c r="AA41" s="287" t="s">
+      <c r="W41" s="263"/>
+      <c r="X41" s="263"/>
+      <c r="Y41" s="263"/>
+      <c r="Z41" s="264"/>
+      <c r="AA41" s="374" t="s">
         <v>110</v>
       </c>
-      <c r="AB41" s="267"/>
-      <c r="AC41" s="267"/>
-      <c r="AD41" s="267"/>
-      <c r="AE41" s="267"/>
-      <c r="AF41" s="267"/>
-      <c r="AG41" s="267"/>
-      <c r="AH41" s="267"/>
-      <c r="AI41" s="267"/>
-      <c r="AJ41" s="267"/>
-      <c r="AK41" s="267"/>
-      <c r="AL41" s="268"/>
-      <c r="AM41" s="276" t="s">
+      <c r="AB41" s="247"/>
+      <c r="AC41" s="247"/>
+      <c r="AD41" s="247"/>
+      <c r="AE41" s="247"/>
+      <c r="AF41" s="247"/>
+      <c r="AG41" s="247"/>
+      <c r="AH41" s="247"/>
+      <c r="AI41" s="247"/>
+      <c r="AJ41" s="247"/>
+      <c r="AK41" s="247"/>
+      <c r="AL41" s="248"/>
+      <c r="AM41" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AN41" s="277"/>
-      <c r="AO41" s="289" t="s">
+      <c r="AN41" s="283"/>
+      <c r="AO41" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="AP41" s="290"/>
-      <c r="AQ41" s="291"/>
-      <c r="AR41" s="276" t="s">
+      <c r="AP41" s="291"/>
+      <c r="AQ41" s="292"/>
+      <c r="AR41" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="AS41" s="277"/>
-      <c r="AT41" s="278">
+      <c r="AS41" s="283"/>
+      <c r="AT41" s="301">
         <v>45240</v>
       </c>
-      <c r="AU41" s="279"/>
-      <c r="AV41" s="279"/>
-      <c r="AW41" s="280"/>
+      <c r="AU41" s="302"/>
+      <c r="AV41" s="302"/>
+      <c r="AW41" s="303"/>
     </row>
     <row r="42" spans="1:49" s="22" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="269"/>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="270"/>
-      <c r="E42" s="270"/>
-      <c r="F42" s="270"/>
-      <c r="G42" s="270"/>
-      <c r="H42" s="270"/>
-      <c r="I42" s="271"/>
-      <c r="J42" s="269"/>
-      <c r="K42" s="270"/>
-      <c r="L42" s="270"/>
-      <c r="M42" s="270"/>
-      <c r="N42" s="270"/>
-      <c r="O42" s="271"/>
-      <c r="P42" s="269"/>
-      <c r="Q42" s="270"/>
-      <c r="R42" s="270"/>
-      <c r="S42" s="270"/>
-      <c r="T42" s="270"/>
-      <c r="U42" s="271"/>
-      <c r="V42" s="284"/>
-      <c r="W42" s="285"/>
-      <c r="X42" s="285"/>
-      <c r="Y42" s="285"/>
-      <c r="Z42" s="286"/>
-      <c r="AA42" s="288"/>
-      <c r="AB42" s="270"/>
-      <c r="AC42" s="270"/>
-      <c r="AD42" s="270"/>
-      <c r="AE42" s="270"/>
-      <c r="AF42" s="270"/>
-      <c r="AG42" s="270"/>
-      <c r="AH42" s="270"/>
-      <c r="AI42" s="270"/>
-      <c r="AJ42" s="270"/>
-      <c r="AK42" s="270"/>
-      <c r="AL42" s="271"/>
-      <c r="AM42" s="304" t="s">
+      <c r="A42" s="249"/>
+      <c r="B42" s="250"/>
+      <c r="C42" s="250"/>
+      <c r="D42" s="250"/>
+      <c r="E42" s="250"/>
+      <c r="F42" s="250"/>
+      <c r="G42" s="250"/>
+      <c r="H42" s="250"/>
+      <c r="I42" s="251"/>
+      <c r="J42" s="249"/>
+      <c r="K42" s="250"/>
+      <c r="L42" s="250"/>
+      <c r="M42" s="250"/>
+      <c r="N42" s="250"/>
+      <c r="O42" s="251"/>
+      <c r="P42" s="249"/>
+      <c r="Q42" s="250"/>
+      <c r="R42" s="250"/>
+      <c r="S42" s="250"/>
+      <c r="T42" s="250"/>
+      <c r="U42" s="251"/>
+      <c r="V42" s="265"/>
+      <c r="W42" s="266"/>
+      <c r="X42" s="266"/>
+      <c r="Y42" s="266"/>
+      <c r="Z42" s="267"/>
+      <c r="AA42" s="269"/>
+      <c r="AB42" s="250"/>
+      <c r="AC42" s="250"/>
+      <c r="AD42" s="250"/>
+      <c r="AE42" s="250"/>
+      <c r="AF42" s="250"/>
+      <c r="AG42" s="250"/>
+      <c r="AH42" s="250"/>
+      <c r="AI42" s="250"/>
+      <c r="AJ42" s="250"/>
+      <c r="AK42" s="250"/>
+      <c r="AL42" s="251"/>
+      <c r="AM42" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AN42" s="305"/>
-      <c r="AO42" s="306"/>
-      <c r="AP42" s="307"/>
-      <c r="AQ42" s="308"/>
-      <c r="AR42" s="304" t="s">
+      <c r="AN42" s="294"/>
+      <c r="AO42" s="295"/>
+      <c r="AP42" s="296"/>
+      <c r="AQ42" s="297"/>
+      <c r="AR42" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AS42" s="305"/>
-      <c r="AT42" s="309"/>
-      <c r="AU42" s="310"/>
-      <c r="AV42" s="310"/>
-      <c r="AW42" s="311"/>
+      <c r="AS42" s="294"/>
+      <c r="AT42" s="298"/>
+      <c r="AU42" s="299"/>
+      <c r="AV42" s="299"/>
+      <c r="AW42" s="300"/>
     </row>
     <row r="43" spans="1:49" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A43" s="272"/>
-      <c r="B43" s="273"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="273"/>
-      <c r="E43" s="273"/>
-      <c r="F43" s="273"/>
-      <c r="G43" s="273"/>
-      <c r="H43" s="273"/>
-      <c r="I43" s="274"/>
-      <c r="J43" s="272"/>
-      <c r="K43" s="273"/>
-      <c r="L43" s="273"/>
-      <c r="M43" s="273"/>
-      <c r="N43" s="273"/>
-      <c r="O43" s="274"/>
-      <c r="P43" s="272"/>
-      <c r="Q43" s="273"/>
-      <c r="R43" s="273"/>
-      <c r="S43" s="273"/>
-      <c r="T43" s="273"/>
-      <c r="U43" s="274"/>
-      <c r="V43" s="292" t="s">
+      <c r="A43" s="252"/>
+      <c r="B43" s="253"/>
+      <c r="C43" s="253"/>
+      <c r="D43" s="253"/>
+      <c r="E43" s="253"/>
+      <c r="F43" s="253"/>
+      <c r="G43" s="253"/>
+      <c r="H43" s="253"/>
+      <c r="I43" s="254"/>
+      <c r="J43" s="252"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="253"/>
+      <c r="M43" s="253"/>
+      <c r="N43" s="253"/>
+      <c r="O43" s="254"/>
+      <c r="P43" s="252"/>
+      <c r="Q43" s="253"/>
+      <c r="R43" s="253"/>
+      <c r="S43" s="253"/>
+      <c r="T43" s="253"/>
+      <c r="U43" s="254"/>
+      <c r="V43" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="W43" s="293"/>
-      <c r="X43" s="293"/>
-      <c r="Y43" s="293"/>
-      <c r="Z43" s="294"/>
-      <c r="AA43" s="295" t="s">
+      <c r="W43" s="260"/>
+      <c r="X43" s="260"/>
+      <c r="Y43" s="260"/>
+      <c r="Z43" s="261"/>
+      <c r="AA43" s="256" t="s">
         <v>107</v>
       </c>
-      <c r="AB43" s="296"/>
-      <c r="AC43" s="296"/>
-      <c r="AD43" s="296"/>
-      <c r="AE43" s="296"/>
-      <c r="AF43" s="296"/>
-      <c r="AG43" s="297"/>
-      <c r="AH43" s="298" t="s">
+      <c r="AB43" s="257"/>
+      <c r="AC43" s="257"/>
+      <c r="AD43" s="257"/>
+      <c r="AE43" s="257"/>
+      <c r="AF43" s="257"/>
+      <c r="AG43" s="258"/>
+      <c r="AH43" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="AI43" s="299"/>
-      <c r="AJ43" s="299"/>
-      <c r="AK43" s="299"/>
-      <c r="AL43" s="300"/>
-      <c r="AM43" s="301" t="s">
+      <c r="AI43" s="285"/>
+      <c r="AJ43" s="285"/>
+      <c r="AK43" s="285"/>
+      <c r="AL43" s="286"/>
+      <c r="AM43" s="287" t="s">
         <v>108</v>
       </c>
-      <c r="AN43" s="302"/>
-      <c r="AO43" s="302"/>
-      <c r="AP43" s="302"/>
-      <c r="AQ43" s="302"/>
-      <c r="AR43" s="302"/>
-      <c r="AS43" s="302"/>
-      <c r="AT43" s="302"/>
-      <c r="AU43" s="302"/>
-      <c r="AV43" s="302"/>
-      <c r="AW43" s="303"/>
+      <c r="AN43" s="288"/>
+      <c r="AO43" s="288"/>
+      <c r="AP43" s="288"/>
+      <c r="AQ43" s="288"/>
+      <c r="AR43" s="288"/>
+      <c r="AS43" s="288"/>
+      <c r="AT43" s="288"/>
+      <c r="AU43" s="288"/>
+      <c r="AV43" s="288"/>
+      <c r="AW43" s="289"/>
     </row>
     <row r="44" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="24"/>
@@ -19747,1659 +19765,1659 @@
     </row>
     <row r="47" spans="1:49" ht="13.5" customHeight="1">
       <c r="A47" s="30"/>
-      <c r="B47" s="378" t="s">
+      <c r="B47" s="307" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="379"/>
-      <c r="D47" s="335" t="s">
+      <c r="C47" s="308"/>
+      <c r="D47" s="311" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="336"/>
-      <c r="F47" s="336"/>
-      <c r="G47" s="336"/>
-      <c r="H47" s="337"/>
-      <c r="I47" s="378" t="s">
+      <c r="E47" s="312"/>
+      <c r="F47" s="312"/>
+      <c r="G47" s="312"/>
+      <c r="H47" s="313"/>
+      <c r="I47" s="307" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="379"/>
-      <c r="K47" s="379"/>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
-      <c r="P47" s="379"/>
-      <c r="Q47" s="379"/>
-      <c r="R47" s="379"/>
-      <c r="S47" s="379"/>
-      <c r="T47" s="379"/>
-      <c r="U47" s="379"/>
-      <c r="V47" s="379"/>
-      <c r="W47" s="379"/>
-      <c r="X47" s="379"/>
-      <c r="Y47" s="379"/>
-      <c r="Z47" s="382"/>
-      <c r="AA47" s="335" t="s">
+      <c r="J47" s="308"/>
+      <c r="K47" s="308"/>
+      <c r="L47" s="308"/>
+      <c r="M47" s="308"/>
+      <c r="N47" s="308"/>
+      <c r="O47" s="308"/>
+      <c r="P47" s="308"/>
+      <c r="Q47" s="308"/>
+      <c r="R47" s="308"/>
+      <c r="S47" s="308"/>
+      <c r="T47" s="308"/>
+      <c r="U47" s="308"/>
+      <c r="V47" s="308"/>
+      <c r="W47" s="308"/>
+      <c r="X47" s="308"/>
+      <c r="Y47" s="308"/>
+      <c r="Z47" s="317"/>
+      <c r="AA47" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="AB47" s="336"/>
-      <c r="AC47" s="336"/>
-      <c r="AD47" s="337"/>
-      <c r="AE47" s="341"/>
-      <c r="AF47" s="342"/>
-      <c r="AG47" s="342"/>
-      <c r="AH47" s="342"/>
-      <c r="AI47" s="342"/>
-      <c r="AJ47" s="342"/>
-      <c r="AK47" s="342"/>
-      <c r="AL47" s="342"/>
-      <c r="AM47" s="343"/>
-      <c r="AN47" s="344"/>
-      <c r="AO47" s="345"/>
-      <c r="AP47" s="345"/>
-      <c r="AQ47" s="345"/>
-      <c r="AR47" s="345"/>
-      <c r="AS47" s="345"/>
-      <c r="AT47" s="345"/>
-      <c r="AU47" s="345"/>
-      <c r="AV47" s="346"/>
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="312"/>
+      <c r="AD47" s="313"/>
+      <c r="AE47" s="344"/>
+      <c r="AF47" s="345"/>
+      <c r="AG47" s="345"/>
+      <c r="AH47" s="345"/>
+      <c r="AI47" s="345"/>
+      <c r="AJ47" s="345"/>
+      <c r="AK47" s="345"/>
+      <c r="AL47" s="345"/>
+      <c r="AM47" s="346"/>
+      <c r="AN47" s="347"/>
+      <c r="AO47" s="348"/>
+      <c r="AP47" s="348"/>
+      <c r="AQ47" s="348"/>
+      <c r="AR47" s="348"/>
+      <c r="AS47" s="348"/>
+      <c r="AT47" s="348"/>
+      <c r="AU47" s="348"/>
+      <c r="AV47" s="349"/>
       <c r="AW47" s="189"/>
     </row>
     <row r="48" spans="1:49" ht="13.5" customHeight="1">
       <c r="A48" s="30"/>
-      <c r="B48" s="380"/>
-      <c r="C48" s="381"/>
-      <c r="D48" s="338"/>
-      <c r="E48" s="339"/>
-      <c r="F48" s="339"/>
-      <c r="G48" s="339"/>
-      <c r="H48" s="340"/>
-      <c r="I48" s="380"/>
-      <c r="J48" s="381"/>
-      <c r="K48" s="381"/>
-      <c r="L48" s="381"/>
-      <c r="M48" s="381"/>
-      <c r="N48" s="381"/>
-      <c r="O48" s="381"/>
-      <c r="P48" s="381"/>
-      <c r="Q48" s="381"/>
-      <c r="R48" s="381"/>
-      <c r="S48" s="381"/>
-      <c r="T48" s="381"/>
-      <c r="U48" s="381"/>
-      <c r="V48" s="381"/>
-      <c r="W48" s="381"/>
-      <c r="X48" s="381"/>
-      <c r="Y48" s="381"/>
-      <c r="Z48" s="383"/>
-      <c r="AA48" s="338"/>
-      <c r="AB48" s="339"/>
-      <c r="AC48" s="339"/>
-      <c r="AD48" s="340"/>
-      <c r="AE48" s="341" t="s">
+      <c r="B48" s="309"/>
+      <c r="C48" s="310"/>
+      <c r="D48" s="314"/>
+      <c r="E48" s="315"/>
+      <c r="F48" s="315"/>
+      <c r="G48" s="315"/>
+      <c r="H48" s="316"/>
+      <c r="I48" s="309"/>
+      <c r="J48" s="310"/>
+      <c r="K48" s="310"/>
+      <c r="L48" s="310"/>
+      <c r="M48" s="310"/>
+      <c r="N48" s="310"/>
+      <c r="O48" s="310"/>
+      <c r="P48" s="310"/>
+      <c r="Q48" s="310"/>
+      <c r="R48" s="310"/>
+      <c r="S48" s="310"/>
+      <c r="T48" s="310"/>
+      <c r="U48" s="310"/>
+      <c r="V48" s="310"/>
+      <c r="W48" s="310"/>
+      <c r="X48" s="310"/>
+      <c r="Y48" s="310"/>
+      <c r="Z48" s="318"/>
+      <c r="AA48" s="314"/>
+      <c r="AB48" s="315"/>
+      <c r="AC48" s="315"/>
+      <c r="AD48" s="316"/>
+      <c r="AE48" s="344" t="s">
         <v>36</v>
       </c>
-      <c r="AF48" s="342"/>
-      <c r="AG48" s="342"/>
-      <c r="AH48" s="342"/>
-      <c r="AI48" s="343"/>
-      <c r="AJ48" s="341" t="s">
+      <c r="AF48" s="345"/>
+      <c r="AG48" s="345"/>
+      <c r="AH48" s="345"/>
+      <c r="AI48" s="346"/>
+      <c r="AJ48" s="344" t="s">
         <v>37</v>
       </c>
-      <c r="AK48" s="342"/>
-      <c r="AL48" s="342"/>
-      <c r="AM48" s="343"/>
-      <c r="AN48" s="341" t="s">
+      <c r="AK48" s="345"/>
+      <c r="AL48" s="345"/>
+      <c r="AM48" s="346"/>
+      <c r="AN48" s="344" t="s">
         <v>36</v>
       </c>
-      <c r="AO48" s="342"/>
-      <c r="AP48" s="342"/>
-      <c r="AQ48" s="342"/>
-      <c r="AR48" s="343"/>
-      <c r="AS48" s="341" t="s">
+      <c r="AO48" s="345"/>
+      <c r="AP48" s="345"/>
+      <c r="AQ48" s="345"/>
+      <c r="AR48" s="346"/>
+      <c r="AS48" s="344" t="s">
         <v>37</v>
       </c>
-      <c r="AT48" s="342"/>
-      <c r="AU48" s="342"/>
-      <c r="AV48" s="343"/>
+      <c r="AT48" s="345"/>
+      <c r="AU48" s="345"/>
+      <c r="AV48" s="346"/>
       <c r="AW48" s="189"/>
     </row>
     <row r="49" spans="1:49" ht="13.5" customHeight="1">
       <c r="A49" s="30"/>
-      <c r="B49" s="355">
+      <c r="B49" s="353">
         <v>1</v>
       </c>
-      <c r="C49" s="356"/>
-      <c r="D49" s="359">
+      <c r="C49" s="354"/>
+      <c r="D49" s="276">
         <v>45210</v>
       </c>
-      <c r="E49" s="360"/>
-      <c r="F49" s="360"/>
-      <c r="G49" s="360"/>
-      <c r="H49" s="361"/>
-      <c r="I49" s="365" t="s">
+      <c r="E49" s="277"/>
+      <c r="F49" s="277"/>
+      <c r="G49" s="277"/>
+      <c r="H49" s="278"/>
+      <c r="I49" s="357" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="366"/>
-      <c r="K49" s="366"/>
-      <c r="L49" s="366"/>
-      <c r="M49" s="366"/>
-      <c r="N49" s="366"/>
-      <c r="O49" s="366"/>
-      <c r="P49" s="366"/>
-      <c r="Q49" s="366"/>
-      <c r="R49" s="366"/>
-      <c r="S49" s="366"/>
-      <c r="T49" s="366"/>
-      <c r="U49" s="366"/>
-      <c r="V49" s="366"/>
-      <c r="W49" s="366"/>
-      <c r="X49" s="366"/>
-      <c r="Y49" s="366"/>
-      <c r="Z49" s="367"/>
-      <c r="AA49" s="347" t="str">
+      <c r="J49" s="358"/>
+      <c r="K49" s="358"/>
+      <c r="L49" s="358"/>
+      <c r="M49" s="358"/>
+      <c r="N49" s="358"/>
+      <c r="O49" s="358"/>
+      <c r="P49" s="358"/>
+      <c r="Q49" s="358"/>
+      <c r="R49" s="358"/>
+      <c r="S49" s="358"/>
+      <c r="T49" s="358"/>
+      <c r="U49" s="358"/>
+      <c r="V49" s="358"/>
+      <c r="W49" s="358"/>
+      <c r="X49" s="358"/>
+      <c r="Y49" s="358"/>
+      <c r="Z49" s="359"/>
+      <c r="AA49" s="270" t="str">
         <f>AO41</f>
         <v>Bùi Phi Long</v>
       </c>
-      <c r="AB49" s="348"/>
-      <c r="AC49" s="348"/>
-      <c r="AD49" s="349"/>
-      <c r="AE49" s="359"/>
-      <c r="AF49" s="360"/>
-      <c r="AG49" s="360"/>
-      <c r="AH49" s="360"/>
-      <c r="AI49" s="361"/>
-      <c r="AJ49" s="347"/>
-      <c r="AK49" s="348"/>
-      <c r="AL49" s="348"/>
-      <c r="AM49" s="349"/>
-      <c r="AN49" s="359"/>
-      <c r="AO49" s="360"/>
-      <c r="AP49" s="360"/>
-      <c r="AQ49" s="360"/>
-      <c r="AR49" s="361"/>
-      <c r="AS49" s="347"/>
-      <c r="AT49" s="348"/>
-      <c r="AU49" s="348"/>
-      <c r="AV49" s="349"/>
+      <c r="AB49" s="271"/>
+      <c r="AC49" s="271"/>
+      <c r="AD49" s="272"/>
+      <c r="AE49" s="276"/>
+      <c r="AF49" s="277"/>
+      <c r="AG49" s="277"/>
+      <c r="AH49" s="277"/>
+      <c r="AI49" s="278"/>
+      <c r="AJ49" s="270"/>
+      <c r="AK49" s="271"/>
+      <c r="AL49" s="271"/>
+      <c r="AM49" s="272"/>
+      <c r="AN49" s="276"/>
+      <c r="AO49" s="277"/>
+      <c r="AP49" s="277"/>
+      <c r="AQ49" s="277"/>
+      <c r="AR49" s="278"/>
+      <c r="AS49" s="270"/>
+      <c r="AT49" s="271"/>
+      <c r="AU49" s="271"/>
+      <c r="AV49" s="272"/>
       <c r="AW49" s="189"/>
     </row>
     <row r="50" spans="1:49" ht="13.5" customHeight="1">
       <c r="A50" s="30"/>
-      <c r="B50" s="357"/>
-      <c r="C50" s="358"/>
-      <c r="D50" s="362"/>
-      <c r="E50" s="363"/>
-      <c r="F50" s="363"/>
-      <c r="G50" s="363"/>
-      <c r="H50" s="364"/>
-      <c r="I50" s="368"/>
-      <c r="J50" s="369"/>
-      <c r="K50" s="369"/>
-      <c r="L50" s="369"/>
-      <c r="M50" s="369"/>
-      <c r="N50" s="369"/>
-      <c r="O50" s="369"/>
-      <c r="P50" s="369"/>
-      <c r="Q50" s="369"/>
-      <c r="R50" s="369"/>
-      <c r="S50" s="369"/>
-      <c r="T50" s="369"/>
-      <c r="U50" s="369"/>
-      <c r="V50" s="369"/>
-      <c r="W50" s="369"/>
-      <c r="X50" s="369"/>
-      <c r="Y50" s="369"/>
-      <c r="Z50" s="370"/>
-      <c r="AA50" s="350"/>
-      <c r="AB50" s="351"/>
-      <c r="AC50" s="351"/>
-      <c r="AD50" s="352"/>
-      <c r="AE50" s="362"/>
-      <c r="AF50" s="363"/>
-      <c r="AG50" s="363"/>
-      <c r="AH50" s="363"/>
-      <c r="AI50" s="364"/>
-      <c r="AJ50" s="350"/>
-      <c r="AK50" s="351"/>
-      <c r="AL50" s="351"/>
-      <c r="AM50" s="352"/>
-      <c r="AN50" s="362"/>
-      <c r="AO50" s="363"/>
-      <c r="AP50" s="363"/>
-      <c r="AQ50" s="363"/>
-      <c r="AR50" s="364"/>
-      <c r="AS50" s="350"/>
-      <c r="AT50" s="351"/>
-      <c r="AU50" s="351"/>
-      <c r="AV50" s="352"/>
+      <c r="B50" s="355"/>
+      <c r="C50" s="356"/>
+      <c r="D50" s="279"/>
+      <c r="E50" s="280"/>
+      <c r="F50" s="280"/>
+      <c r="G50" s="280"/>
+      <c r="H50" s="281"/>
+      <c r="I50" s="360"/>
+      <c r="J50" s="361"/>
+      <c r="K50" s="361"/>
+      <c r="L50" s="361"/>
+      <c r="M50" s="361"/>
+      <c r="N50" s="361"/>
+      <c r="O50" s="361"/>
+      <c r="P50" s="361"/>
+      <c r="Q50" s="361"/>
+      <c r="R50" s="361"/>
+      <c r="S50" s="361"/>
+      <c r="T50" s="361"/>
+      <c r="U50" s="361"/>
+      <c r="V50" s="361"/>
+      <c r="W50" s="361"/>
+      <c r="X50" s="361"/>
+      <c r="Y50" s="361"/>
+      <c r="Z50" s="362"/>
+      <c r="AA50" s="273"/>
+      <c r="AB50" s="274"/>
+      <c r="AC50" s="274"/>
+      <c r="AD50" s="275"/>
+      <c r="AE50" s="279"/>
+      <c r="AF50" s="280"/>
+      <c r="AG50" s="280"/>
+      <c r="AH50" s="280"/>
+      <c r="AI50" s="281"/>
+      <c r="AJ50" s="273"/>
+      <c r="AK50" s="274"/>
+      <c r="AL50" s="274"/>
+      <c r="AM50" s="275"/>
+      <c r="AN50" s="279"/>
+      <c r="AO50" s="280"/>
+      <c r="AP50" s="280"/>
+      <c r="AQ50" s="280"/>
+      <c r="AR50" s="281"/>
+      <c r="AS50" s="273"/>
+      <c r="AT50" s="274"/>
+      <c r="AU50" s="274"/>
+      <c r="AV50" s="275"/>
       <c r="AW50" s="189"/>
     </row>
     <row r="51" spans="1:49" ht="13.5" customHeight="1">
       <c r="A51" s="30"/>
-      <c r="B51" s="312"/>
-      <c r="C51" s="313"/>
-      <c r="D51" s="314"/>
-      <c r="E51" s="315"/>
-      <c r="F51" s="315"/>
-      <c r="G51" s="315"/>
-      <c r="H51" s="316"/>
-      <c r="I51" s="320"/>
-      <c r="J51" s="321"/>
-      <c r="K51" s="321"/>
-      <c r="L51" s="321"/>
-      <c r="M51" s="321"/>
-      <c r="N51" s="321"/>
-      <c r="O51" s="321"/>
-      <c r="P51" s="321"/>
-      <c r="Q51" s="321"/>
-      <c r="R51" s="321"/>
-      <c r="S51" s="321"/>
-      <c r="T51" s="321"/>
-      <c r="U51" s="321"/>
-      <c r="V51" s="321"/>
-      <c r="W51" s="321"/>
-      <c r="X51" s="321"/>
-      <c r="Y51" s="321"/>
-      <c r="Z51" s="322"/>
-      <c r="AA51" s="323"/>
-      <c r="AB51" s="324"/>
-      <c r="AC51" s="324"/>
-      <c r="AD51" s="325"/>
-      <c r="AE51" s="326"/>
-      <c r="AF51" s="327"/>
-      <c r="AG51" s="327"/>
-      <c r="AH51" s="327"/>
-      <c r="AI51" s="328"/>
-      <c r="AJ51" s="323"/>
-      <c r="AK51" s="324"/>
-      <c r="AL51" s="324"/>
-      <c r="AM51" s="325"/>
-      <c r="AN51" s="326"/>
-      <c r="AO51" s="327"/>
-      <c r="AP51" s="327"/>
-      <c r="AQ51" s="327"/>
-      <c r="AR51" s="328"/>
-      <c r="AS51" s="323"/>
-      <c r="AT51" s="324"/>
-      <c r="AU51" s="324"/>
-      <c r="AV51" s="325"/>
+      <c r="B51" s="363"/>
+      <c r="C51" s="364"/>
+      <c r="D51" s="365"/>
+      <c r="E51" s="366"/>
+      <c r="F51" s="366"/>
+      <c r="G51" s="366"/>
+      <c r="H51" s="367"/>
+      <c r="I51" s="371"/>
+      <c r="J51" s="372"/>
+      <c r="K51" s="372"/>
+      <c r="L51" s="372"/>
+      <c r="M51" s="372"/>
+      <c r="N51" s="372"/>
+      <c r="O51" s="372"/>
+      <c r="P51" s="372"/>
+      <c r="Q51" s="372"/>
+      <c r="R51" s="372"/>
+      <c r="S51" s="372"/>
+      <c r="T51" s="372"/>
+      <c r="U51" s="372"/>
+      <c r="V51" s="372"/>
+      <c r="W51" s="372"/>
+      <c r="X51" s="372"/>
+      <c r="Y51" s="372"/>
+      <c r="Z51" s="373"/>
+      <c r="AA51" s="341"/>
+      <c r="AB51" s="342"/>
+      <c r="AC51" s="342"/>
+      <c r="AD51" s="343"/>
+      <c r="AE51" s="338"/>
+      <c r="AF51" s="339"/>
+      <c r="AG51" s="339"/>
+      <c r="AH51" s="339"/>
+      <c r="AI51" s="340"/>
+      <c r="AJ51" s="341"/>
+      <c r="AK51" s="342"/>
+      <c r="AL51" s="342"/>
+      <c r="AM51" s="343"/>
+      <c r="AN51" s="338"/>
+      <c r="AO51" s="339"/>
+      <c r="AP51" s="339"/>
+      <c r="AQ51" s="339"/>
+      <c r="AR51" s="340"/>
+      <c r="AS51" s="341"/>
+      <c r="AT51" s="342"/>
+      <c r="AU51" s="342"/>
+      <c r="AV51" s="343"/>
       <c r="AW51" s="189"/>
     </row>
     <row r="52" spans="1:49" ht="13.5" customHeight="1">
       <c r="A52" s="30"/>
-      <c r="B52" s="256"/>
-      <c r="C52" s="257"/>
-      <c r="D52" s="317"/>
-      <c r="E52" s="318"/>
-      <c r="F52" s="318"/>
-      <c r="G52" s="318"/>
-      <c r="H52" s="319"/>
-      <c r="I52" s="258"/>
-      <c r="J52" s="259"/>
-      <c r="K52" s="259"/>
-      <c r="L52" s="259"/>
-      <c r="M52" s="259"/>
-      <c r="N52" s="259"/>
-      <c r="O52" s="259"/>
-      <c r="P52" s="259"/>
-      <c r="Q52" s="259"/>
-      <c r="R52" s="259"/>
-      <c r="S52" s="259"/>
-      <c r="T52" s="259"/>
-      <c r="U52" s="259"/>
-      <c r="V52" s="259"/>
-      <c r="W52" s="259"/>
-      <c r="X52" s="259"/>
-      <c r="Y52" s="259"/>
-      <c r="Z52" s="260"/>
-      <c r="AA52" s="250"/>
-      <c r="AB52" s="251"/>
-      <c r="AC52" s="251"/>
-      <c r="AD52" s="252"/>
-      <c r="AE52" s="244"/>
-      <c r="AF52" s="245"/>
-      <c r="AG52" s="245"/>
-      <c r="AH52" s="245"/>
-      <c r="AI52" s="246"/>
-      <c r="AJ52" s="250"/>
-      <c r="AK52" s="251"/>
-      <c r="AL52" s="251"/>
-      <c r="AM52" s="252"/>
-      <c r="AN52" s="244"/>
-      <c r="AO52" s="245"/>
-      <c r="AP52" s="245"/>
-      <c r="AQ52" s="245"/>
-      <c r="AR52" s="246"/>
-      <c r="AS52" s="250"/>
-      <c r="AT52" s="251"/>
-      <c r="AU52" s="251"/>
-      <c r="AV52" s="252"/>
+      <c r="B52" s="331"/>
+      <c r="C52" s="332"/>
+      <c r="D52" s="368"/>
+      <c r="E52" s="369"/>
+      <c r="F52" s="369"/>
+      <c r="G52" s="369"/>
+      <c r="H52" s="370"/>
+      <c r="I52" s="350"/>
+      <c r="J52" s="351"/>
+      <c r="K52" s="351"/>
+      <c r="L52" s="351"/>
+      <c r="M52" s="351"/>
+      <c r="N52" s="351"/>
+      <c r="O52" s="351"/>
+      <c r="P52" s="351"/>
+      <c r="Q52" s="351"/>
+      <c r="R52" s="351"/>
+      <c r="S52" s="351"/>
+      <c r="T52" s="351"/>
+      <c r="U52" s="351"/>
+      <c r="V52" s="351"/>
+      <c r="W52" s="351"/>
+      <c r="X52" s="351"/>
+      <c r="Y52" s="351"/>
+      <c r="Z52" s="352"/>
+      <c r="AA52" s="335"/>
+      <c r="AB52" s="336"/>
+      <c r="AC52" s="336"/>
+      <c r="AD52" s="337"/>
+      <c r="AE52" s="319"/>
+      <c r="AF52" s="320"/>
+      <c r="AG52" s="320"/>
+      <c r="AH52" s="320"/>
+      <c r="AI52" s="321"/>
+      <c r="AJ52" s="335"/>
+      <c r="AK52" s="336"/>
+      <c r="AL52" s="336"/>
+      <c r="AM52" s="337"/>
+      <c r="AN52" s="319"/>
+      <c r="AO52" s="320"/>
+      <c r="AP52" s="320"/>
+      <c r="AQ52" s="320"/>
+      <c r="AR52" s="321"/>
+      <c r="AS52" s="335"/>
+      <c r="AT52" s="336"/>
+      <c r="AU52" s="336"/>
+      <c r="AV52" s="337"/>
       <c r="AW52" s="189"/>
     </row>
     <row r="53" spans="1:49" ht="13.5" customHeight="1">
       <c r="A53" s="30"/>
-      <c r="B53" s="256"/>
-      <c r="C53" s="257"/>
-      <c r="D53" s="244"/>
-      <c r="E53" s="245"/>
-      <c r="F53" s="245"/>
-      <c r="G53" s="245"/>
-      <c r="H53" s="246"/>
-      <c r="I53" s="258"/>
-      <c r="J53" s="259"/>
-      <c r="K53" s="259"/>
-      <c r="L53" s="259"/>
-      <c r="M53" s="259"/>
-      <c r="N53" s="259"/>
-      <c r="O53" s="259"/>
-      <c r="P53" s="259"/>
-      <c r="Q53" s="259"/>
-      <c r="R53" s="259"/>
-      <c r="S53" s="259"/>
-      <c r="T53" s="259"/>
-      <c r="U53" s="259"/>
-      <c r="V53" s="259"/>
-      <c r="W53" s="259"/>
-      <c r="X53" s="259"/>
-      <c r="Y53" s="259"/>
-      <c r="Z53" s="260"/>
-      <c r="AA53" s="250"/>
-      <c r="AB53" s="251"/>
-      <c r="AC53" s="251"/>
-      <c r="AD53" s="252"/>
-      <c r="AE53" s="244"/>
-      <c r="AF53" s="245"/>
-      <c r="AG53" s="245"/>
-      <c r="AH53" s="245"/>
-      <c r="AI53" s="246"/>
-      <c r="AJ53" s="250"/>
-      <c r="AK53" s="251"/>
-      <c r="AL53" s="251"/>
-      <c r="AM53" s="252"/>
-      <c r="AN53" s="244"/>
-      <c r="AO53" s="245"/>
-      <c r="AP53" s="245"/>
-      <c r="AQ53" s="245"/>
-      <c r="AR53" s="246"/>
-      <c r="AS53" s="250"/>
-      <c r="AT53" s="251"/>
-      <c r="AU53" s="251"/>
-      <c r="AV53" s="252"/>
+      <c r="B53" s="331"/>
+      <c r="C53" s="332"/>
+      <c r="D53" s="319"/>
+      <c r="E53" s="320"/>
+      <c r="F53" s="320"/>
+      <c r="G53" s="320"/>
+      <c r="H53" s="321"/>
+      <c r="I53" s="350"/>
+      <c r="J53" s="351"/>
+      <c r="K53" s="351"/>
+      <c r="L53" s="351"/>
+      <c r="M53" s="351"/>
+      <c r="N53" s="351"/>
+      <c r="O53" s="351"/>
+      <c r="P53" s="351"/>
+      <c r="Q53" s="351"/>
+      <c r="R53" s="351"/>
+      <c r="S53" s="351"/>
+      <c r="T53" s="351"/>
+      <c r="U53" s="351"/>
+      <c r="V53" s="351"/>
+      <c r="W53" s="351"/>
+      <c r="X53" s="351"/>
+      <c r="Y53" s="351"/>
+      <c r="Z53" s="352"/>
+      <c r="AA53" s="335"/>
+      <c r="AB53" s="336"/>
+      <c r="AC53" s="336"/>
+      <c r="AD53" s="337"/>
+      <c r="AE53" s="319"/>
+      <c r="AF53" s="320"/>
+      <c r="AG53" s="320"/>
+      <c r="AH53" s="320"/>
+      <c r="AI53" s="321"/>
+      <c r="AJ53" s="335"/>
+      <c r="AK53" s="336"/>
+      <c r="AL53" s="336"/>
+      <c r="AM53" s="337"/>
+      <c r="AN53" s="319"/>
+      <c r="AO53" s="320"/>
+      <c r="AP53" s="320"/>
+      <c r="AQ53" s="320"/>
+      <c r="AR53" s="321"/>
+      <c r="AS53" s="335"/>
+      <c r="AT53" s="336"/>
+      <c r="AU53" s="336"/>
+      <c r="AV53" s="337"/>
       <c r="AW53" s="189"/>
     </row>
     <row r="54" spans="1:49" ht="13.5" customHeight="1">
       <c r="A54" s="30"/>
-      <c r="B54" s="256"/>
-      <c r="C54" s="257"/>
-      <c r="D54" s="244"/>
-      <c r="E54" s="245"/>
-      <c r="F54" s="245"/>
-      <c r="G54" s="245"/>
-      <c r="H54" s="246"/>
-      <c r="I54" s="258"/>
-      <c r="J54" s="259"/>
-      <c r="K54" s="259"/>
-      <c r="L54" s="259"/>
-      <c r="M54" s="259"/>
-      <c r="N54" s="259"/>
-      <c r="O54" s="259"/>
-      <c r="P54" s="259"/>
-      <c r="Q54" s="259"/>
-      <c r="R54" s="259"/>
-      <c r="S54" s="259"/>
-      <c r="T54" s="259"/>
-      <c r="U54" s="259"/>
-      <c r="V54" s="259"/>
-      <c r="W54" s="259"/>
-      <c r="X54" s="259"/>
-      <c r="Y54" s="259"/>
-      <c r="Z54" s="260"/>
-      <c r="AA54" s="250"/>
-      <c r="AB54" s="251"/>
-      <c r="AC54" s="251"/>
-      <c r="AD54" s="252"/>
-      <c r="AE54" s="244"/>
-      <c r="AF54" s="245"/>
-      <c r="AG54" s="245"/>
-      <c r="AH54" s="245"/>
-      <c r="AI54" s="246"/>
-      <c r="AJ54" s="250"/>
-      <c r="AK54" s="251"/>
-      <c r="AL54" s="251"/>
-      <c r="AM54" s="252"/>
-      <c r="AN54" s="244"/>
-      <c r="AO54" s="245"/>
-      <c r="AP54" s="245"/>
-      <c r="AQ54" s="245"/>
-      <c r="AR54" s="246"/>
-      <c r="AS54" s="250"/>
-      <c r="AT54" s="251"/>
-      <c r="AU54" s="251"/>
-      <c r="AV54" s="252"/>
+      <c r="B54" s="331"/>
+      <c r="C54" s="332"/>
+      <c r="D54" s="319"/>
+      <c r="E54" s="320"/>
+      <c r="F54" s="320"/>
+      <c r="G54" s="320"/>
+      <c r="H54" s="321"/>
+      <c r="I54" s="350"/>
+      <c r="J54" s="351"/>
+      <c r="K54" s="351"/>
+      <c r="L54" s="351"/>
+      <c r="M54" s="351"/>
+      <c r="N54" s="351"/>
+      <c r="O54" s="351"/>
+      <c r="P54" s="351"/>
+      <c r="Q54" s="351"/>
+      <c r="R54" s="351"/>
+      <c r="S54" s="351"/>
+      <c r="T54" s="351"/>
+      <c r="U54" s="351"/>
+      <c r="V54" s="351"/>
+      <c r="W54" s="351"/>
+      <c r="X54" s="351"/>
+      <c r="Y54" s="351"/>
+      <c r="Z54" s="352"/>
+      <c r="AA54" s="335"/>
+      <c r="AB54" s="336"/>
+      <c r="AC54" s="336"/>
+      <c r="AD54" s="337"/>
+      <c r="AE54" s="319"/>
+      <c r="AF54" s="320"/>
+      <c r="AG54" s="320"/>
+      <c r="AH54" s="320"/>
+      <c r="AI54" s="321"/>
+      <c r="AJ54" s="335"/>
+      <c r="AK54" s="336"/>
+      <c r="AL54" s="336"/>
+      <c r="AM54" s="337"/>
+      <c r="AN54" s="319"/>
+      <c r="AO54" s="320"/>
+      <c r="AP54" s="320"/>
+      <c r="AQ54" s="320"/>
+      <c r="AR54" s="321"/>
+      <c r="AS54" s="335"/>
+      <c r="AT54" s="336"/>
+      <c r="AU54" s="336"/>
+      <c r="AV54" s="337"/>
       <c r="AW54" s="189"/>
     </row>
     <row r="55" spans="1:49" ht="13.5" customHeight="1">
       <c r="A55" s="34"/>
-      <c r="B55" s="353"/>
-      <c r="C55" s="354"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="333"/>
-      <c r="F55" s="333"/>
-      <c r="G55" s="333"/>
-      <c r="H55" s="334"/>
-      <c r="I55" s="371"/>
-      <c r="J55" s="372"/>
-      <c r="K55" s="372"/>
-      <c r="L55" s="372"/>
-      <c r="M55" s="372"/>
-      <c r="N55" s="372"/>
-      <c r="O55" s="372"/>
-      <c r="P55" s="372"/>
-      <c r="Q55" s="372"/>
-      <c r="R55" s="372"/>
-      <c r="S55" s="372"/>
-      <c r="T55" s="372"/>
-      <c r="U55" s="372"/>
-      <c r="V55" s="372"/>
-      <c r="W55" s="372"/>
-      <c r="X55" s="372"/>
-      <c r="Y55" s="372"/>
-      <c r="Z55" s="373"/>
-      <c r="AA55" s="329"/>
-      <c r="AB55" s="330"/>
-      <c r="AC55" s="330"/>
-      <c r="AD55" s="331"/>
-      <c r="AE55" s="332"/>
-      <c r="AF55" s="333"/>
-      <c r="AG55" s="333"/>
-      <c r="AH55" s="333"/>
-      <c r="AI55" s="334"/>
-      <c r="AJ55" s="329"/>
-      <c r="AK55" s="330"/>
-      <c r="AL55" s="330"/>
-      <c r="AM55" s="331"/>
-      <c r="AN55" s="332"/>
-      <c r="AO55" s="333"/>
-      <c r="AP55" s="333"/>
-      <c r="AQ55" s="333"/>
-      <c r="AR55" s="334"/>
-      <c r="AS55" s="329"/>
-      <c r="AT55" s="330"/>
-      <c r="AU55" s="330"/>
-      <c r="AV55" s="331"/>
+      <c r="B55" s="333"/>
+      <c r="C55" s="334"/>
+      <c r="D55" s="322"/>
+      <c r="E55" s="323"/>
+      <c r="F55" s="323"/>
+      <c r="G55" s="323"/>
+      <c r="H55" s="324"/>
+      <c r="I55" s="328"/>
+      <c r="J55" s="329"/>
+      <c r="K55" s="329"/>
+      <c r="L55" s="329"/>
+      <c r="M55" s="329"/>
+      <c r="N55" s="329"/>
+      <c r="O55" s="329"/>
+      <c r="P55" s="329"/>
+      <c r="Q55" s="329"/>
+      <c r="R55" s="329"/>
+      <c r="S55" s="329"/>
+      <c r="T55" s="329"/>
+      <c r="U55" s="329"/>
+      <c r="V55" s="329"/>
+      <c r="W55" s="329"/>
+      <c r="X55" s="329"/>
+      <c r="Y55" s="329"/>
+      <c r="Z55" s="330"/>
+      <c r="AA55" s="325"/>
+      <c r="AB55" s="326"/>
+      <c r="AC55" s="326"/>
+      <c r="AD55" s="327"/>
+      <c r="AE55" s="322"/>
+      <c r="AF55" s="323"/>
+      <c r="AG55" s="323"/>
+      <c r="AH55" s="323"/>
+      <c r="AI55" s="324"/>
+      <c r="AJ55" s="325"/>
+      <c r="AK55" s="326"/>
+      <c r="AL55" s="326"/>
+      <c r="AM55" s="327"/>
+      <c r="AN55" s="322"/>
+      <c r="AO55" s="323"/>
+      <c r="AP55" s="323"/>
+      <c r="AQ55" s="323"/>
+      <c r="AR55" s="324"/>
+      <c r="AS55" s="325"/>
+      <c r="AT55" s="326"/>
+      <c r="AU55" s="326"/>
+      <c r="AV55" s="327"/>
       <c r="AW55" s="189"/>
     </row>
     <row r="56" spans="1:49" ht="13.5" customHeight="1">
       <c r="A56" s="34"/>
-      <c r="B56" s="353"/>
-      <c r="C56" s="354"/>
-      <c r="D56" s="332"/>
-      <c r="E56" s="333"/>
-      <c r="F56" s="333"/>
-      <c r="G56" s="333"/>
-      <c r="H56" s="334"/>
-      <c r="I56" s="371"/>
-      <c r="J56" s="372"/>
-      <c r="K56" s="372"/>
-      <c r="L56" s="372"/>
-      <c r="M56" s="372"/>
-      <c r="N56" s="372"/>
-      <c r="O56" s="372"/>
-      <c r="P56" s="372"/>
-      <c r="Q56" s="372"/>
-      <c r="R56" s="372"/>
-      <c r="S56" s="372"/>
-      <c r="T56" s="372"/>
-      <c r="U56" s="372"/>
-      <c r="V56" s="372"/>
-      <c r="W56" s="372"/>
-      <c r="X56" s="372"/>
-      <c r="Y56" s="372"/>
-      <c r="Z56" s="373"/>
-      <c r="AA56" s="329"/>
-      <c r="AB56" s="330"/>
-      <c r="AC56" s="330"/>
-      <c r="AD56" s="331"/>
-      <c r="AE56" s="332"/>
-      <c r="AF56" s="333"/>
-      <c r="AG56" s="333"/>
-      <c r="AH56" s="333"/>
-      <c r="AI56" s="334"/>
-      <c r="AJ56" s="329"/>
-      <c r="AK56" s="330"/>
-      <c r="AL56" s="330"/>
-      <c r="AM56" s="331"/>
-      <c r="AN56" s="332"/>
-      <c r="AO56" s="333"/>
-      <c r="AP56" s="333"/>
-      <c r="AQ56" s="333"/>
-      <c r="AR56" s="334"/>
-      <c r="AS56" s="329"/>
-      <c r="AT56" s="330"/>
-      <c r="AU56" s="330"/>
-      <c r="AV56" s="331"/>
+      <c r="B56" s="333"/>
+      <c r="C56" s="334"/>
+      <c r="D56" s="322"/>
+      <c r="E56" s="323"/>
+      <c r="F56" s="323"/>
+      <c r="G56" s="323"/>
+      <c r="H56" s="324"/>
+      <c r="I56" s="328"/>
+      <c r="J56" s="329"/>
+      <c r="K56" s="329"/>
+      <c r="L56" s="329"/>
+      <c r="M56" s="329"/>
+      <c r="N56" s="329"/>
+      <c r="O56" s="329"/>
+      <c r="P56" s="329"/>
+      <c r="Q56" s="329"/>
+      <c r="R56" s="329"/>
+      <c r="S56" s="329"/>
+      <c r="T56" s="329"/>
+      <c r="U56" s="329"/>
+      <c r="V56" s="329"/>
+      <c r="W56" s="329"/>
+      <c r="X56" s="329"/>
+      <c r="Y56" s="329"/>
+      <c r="Z56" s="330"/>
+      <c r="AA56" s="325"/>
+      <c r="AB56" s="326"/>
+      <c r="AC56" s="326"/>
+      <c r="AD56" s="327"/>
+      <c r="AE56" s="322"/>
+      <c r="AF56" s="323"/>
+      <c r="AG56" s="323"/>
+      <c r="AH56" s="323"/>
+      <c r="AI56" s="324"/>
+      <c r="AJ56" s="325"/>
+      <c r="AK56" s="326"/>
+      <c r="AL56" s="326"/>
+      <c r="AM56" s="327"/>
+      <c r="AN56" s="322"/>
+      <c r="AO56" s="323"/>
+      <c r="AP56" s="323"/>
+      <c r="AQ56" s="323"/>
+      <c r="AR56" s="324"/>
+      <c r="AS56" s="325"/>
+      <c r="AT56" s="326"/>
+      <c r="AU56" s="326"/>
+      <c r="AV56" s="327"/>
       <c r="AW56" s="189"/>
     </row>
     <row r="57" spans="1:49" ht="13.5" customHeight="1">
       <c r="A57" s="34"/>
-      <c r="B57" s="353"/>
-      <c r="C57" s="354"/>
-      <c r="D57" s="332"/>
-      <c r="E57" s="333"/>
-      <c r="F57" s="333"/>
-      <c r="G57" s="333"/>
-      <c r="H57" s="334"/>
-      <c r="I57" s="371"/>
-      <c r="J57" s="372"/>
-      <c r="K57" s="372"/>
-      <c r="L57" s="372"/>
-      <c r="M57" s="372"/>
-      <c r="N57" s="372"/>
-      <c r="O57" s="372"/>
-      <c r="P57" s="372"/>
-      <c r="Q57" s="372"/>
-      <c r="R57" s="372"/>
-      <c r="S57" s="372"/>
-      <c r="T57" s="372"/>
-      <c r="U57" s="372"/>
-      <c r="V57" s="372"/>
-      <c r="W57" s="372"/>
-      <c r="X57" s="372"/>
-      <c r="Y57" s="372"/>
-      <c r="Z57" s="373"/>
-      <c r="AA57" s="329"/>
-      <c r="AB57" s="330"/>
-      <c r="AC57" s="330"/>
-      <c r="AD57" s="331"/>
-      <c r="AE57" s="332"/>
-      <c r="AF57" s="333"/>
-      <c r="AG57" s="333"/>
-      <c r="AH57" s="333"/>
-      <c r="AI57" s="334"/>
-      <c r="AJ57" s="329"/>
-      <c r="AK57" s="330"/>
-      <c r="AL57" s="330"/>
-      <c r="AM57" s="331"/>
-      <c r="AN57" s="332"/>
-      <c r="AO57" s="333"/>
-      <c r="AP57" s="333"/>
-      <c r="AQ57" s="333"/>
-      <c r="AR57" s="334"/>
-      <c r="AS57" s="329"/>
-      <c r="AT57" s="330"/>
-      <c r="AU57" s="330"/>
-      <c r="AV57" s="331"/>
+      <c r="B57" s="333"/>
+      <c r="C57" s="334"/>
+      <c r="D57" s="322"/>
+      <c r="E57" s="323"/>
+      <c r="F57" s="323"/>
+      <c r="G57" s="323"/>
+      <c r="H57" s="324"/>
+      <c r="I57" s="328"/>
+      <c r="J57" s="329"/>
+      <c r="K57" s="329"/>
+      <c r="L57" s="329"/>
+      <c r="M57" s="329"/>
+      <c r="N57" s="329"/>
+      <c r="O57" s="329"/>
+      <c r="P57" s="329"/>
+      <c r="Q57" s="329"/>
+      <c r="R57" s="329"/>
+      <c r="S57" s="329"/>
+      <c r="T57" s="329"/>
+      <c r="U57" s="329"/>
+      <c r="V57" s="329"/>
+      <c r="W57" s="329"/>
+      <c r="X57" s="329"/>
+      <c r="Y57" s="329"/>
+      <c r="Z57" s="330"/>
+      <c r="AA57" s="325"/>
+      <c r="AB57" s="326"/>
+      <c r="AC57" s="326"/>
+      <c r="AD57" s="327"/>
+      <c r="AE57" s="322"/>
+      <c r="AF57" s="323"/>
+      <c r="AG57" s="323"/>
+      <c r="AH57" s="323"/>
+      <c r="AI57" s="324"/>
+      <c r="AJ57" s="325"/>
+      <c r="AK57" s="326"/>
+      <c r="AL57" s="326"/>
+      <c r="AM57" s="327"/>
+      <c r="AN57" s="322"/>
+      <c r="AO57" s="323"/>
+      <c r="AP57" s="323"/>
+      <c r="AQ57" s="323"/>
+      <c r="AR57" s="324"/>
+      <c r="AS57" s="325"/>
+      <c r="AT57" s="326"/>
+      <c r="AU57" s="326"/>
+      <c r="AV57" s="327"/>
       <c r="AW57" s="189"/>
     </row>
     <row r="58" spans="1:49" ht="13.5" customHeight="1">
       <c r="A58" s="30"/>
-      <c r="B58" s="353"/>
-      <c r="C58" s="354"/>
-      <c r="D58" s="332"/>
-      <c r="E58" s="333"/>
-      <c r="F58" s="333"/>
-      <c r="G58" s="333"/>
-      <c r="H58" s="334"/>
-      <c r="I58" s="371"/>
-      <c r="J58" s="372"/>
-      <c r="K58" s="372"/>
-      <c r="L58" s="372"/>
-      <c r="M58" s="372"/>
-      <c r="N58" s="372"/>
-      <c r="O58" s="372"/>
-      <c r="P58" s="372"/>
-      <c r="Q58" s="372"/>
-      <c r="R58" s="372"/>
-      <c r="S58" s="372"/>
-      <c r="T58" s="372"/>
-      <c r="U58" s="372"/>
-      <c r="V58" s="372"/>
-      <c r="W58" s="372"/>
-      <c r="X58" s="372"/>
-      <c r="Y58" s="372"/>
-      <c r="Z58" s="373"/>
-      <c r="AA58" s="329"/>
-      <c r="AB58" s="330"/>
-      <c r="AC58" s="330"/>
-      <c r="AD58" s="331"/>
-      <c r="AE58" s="332"/>
-      <c r="AF58" s="333"/>
-      <c r="AG58" s="333"/>
-      <c r="AH58" s="333"/>
-      <c r="AI58" s="334"/>
-      <c r="AJ58" s="329"/>
-      <c r="AK58" s="330"/>
-      <c r="AL58" s="330"/>
-      <c r="AM58" s="331"/>
-      <c r="AN58" s="332"/>
-      <c r="AO58" s="333"/>
-      <c r="AP58" s="333"/>
-      <c r="AQ58" s="333"/>
-      <c r="AR58" s="334"/>
-      <c r="AS58" s="329"/>
-      <c r="AT58" s="330"/>
-      <c r="AU58" s="330"/>
-      <c r="AV58" s="331"/>
+      <c r="B58" s="333"/>
+      <c r="C58" s="334"/>
+      <c r="D58" s="322"/>
+      <c r="E58" s="323"/>
+      <c r="F58" s="323"/>
+      <c r="G58" s="323"/>
+      <c r="H58" s="324"/>
+      <c r="I58" s="328"/>
+      <c r="J58" s="329"/>
+      <c r="K58" s="329"/>
+      <c r="L58" s="329"/>
+      <c r="M58" s="329"/>
+      <c r="N58" s="329"/>
+      <c r="O58" s="329"/>
+      <c r="P58" s="329"/>
+      <c r="Q58" s="329"/>
+      <c r="R58" s="329"/>
+      <c r="S58" s="329"/>
+      <c r="T58" s="329"/>
+      <c r="U58" s="329"/>
+      <c r="V58" s="329"/>
+      <c r="W58" s="329"/>
+      <c r="X58" s="329"/>
+      <c r="Y58" s="329"/>
+      <c r="Z58" s="330"/>
+      <c r="AA58" s="325"/>
+      <c r="AB58" s="326"/>
+      <c r="AC58" s="326"/>
+      <c r="AD58" s="327"/>
+      <c r="AE58" s="322"/>
+      <c r="AF58" s="323"/>
+      <c r="AG58" s="323"/>
+      <c r="AH58" s="323"/>
+      <c r="AI58" s="324"/>
+      <c r="AJ58" s="325"/>
+      <c r="AK58" s="326"/>
+      <c r="AL58" s="326"/>
+      <c r="AM58" s="327"/>
+      <c r="AN58" s="322"/>
+      <c r="AO58" s="323"/>
+      <c r="AP58" s="323"/>
+      <c r="AQ58" s="323"/>
+      <c r="AR58" s="324"/>
+      <c r="AS58" s="325"/>
+      <c r="AT58" s="326"/>
+      <c r="AU58" s="326"/>
+      <c r="AV58" s="327"/>
       <c r="AW58" s="189"/>
     </row>
     <row r="59" spans="1:49" ht="13.5" customHeight="1">
       <c r="A59" s="30"/>
-      <c r="B59" s="256"/>
-      <c r="C59" s="257"/>
-      <c r="D59" s="244"/>
-      <c r="E59" s="245"/>
-      <c r="F59" s="245"/>
-      <c r="G59" s="245"/>
-      <c r="H59" s="246"/>
-      <c r="I59" s="258"/>
-      <c r="J59" s="259"/>
-      <c r="K59" s="259"/>
-      <c r="L59" s="259"/>
-      <c r="M59" s="259"/>
-      <c r="N59" s="259"/>
-      <c r="O59" s="259"/>
-      <c r="P59" s="259"/>
-      <c r="Q59" s="259"/>
-      <c r="R59" s="259"/>
-      <c r="S59" s="259"/>
-      <c r="T59" s="259"/>
-      <c r="U59" s="259"/>
-      <c r="V59" s="259"/>
-      <c r="W59" s="259"/>
-      <c r="X59" s="259"/>
-      <c r="Y59" s="259"/>
-      <c r="Z59" s="260"/>
-      <c r="AA59" s="250"/>
-      <c r="AB59" s="251"/>
-      <c r="AC59" s="251"/>
-      <c r="AD59" s="252"/>
-      <c r="AE59" s="244"/>
-      <c r="AF59" s="245"/>
-      <c r="AG59" s="245"/>
-      <c r="AH59" s="245"/>
-      <c r="AI59" s="246"/>
-      <c r="AJ59" s="250"/>
-      <c r="AK59" s="251"/>
-      <c r="AL59" s="251"/>
-      <c r="AM59" s="252"/>
-      <c r="AN59" s="244"/>
-      <c r="AO59" s="245"/>
-      <c r="AP59" s="245"/>
-      <c r="AQ59" s="245"/>
-      <c r="AR59" s="246"/>
-      <c r="AS59" s="250"/>
-      <c r="AT59" s="251"/>
-      <c r="AU59" s="251"/>
-      <c r="AV59" s="252"/>
+      <c r="B59" s="331"/>
+      <c r="C59" s="332"/>
+      <c r="D59" s="319"/>
+      <c r="E59" s="320"/>
+      <c r="F59" s="320"/>
+      <c r="G59" s="320"/>
+      <c r="H59" s="321"/>
+      <c r="I59" s="350"/>
+      <c r="J59" s="351"/>
+      <c r="K59" s="351"/>
+      <c r="L59" s="351"/>
+      <c r="M59" s="351"/>
+      <c r="N59" s="351"/>
+      <c r="O59" s="351"/>
+      <c r="P59" s="351"/>
+      <c r="Q59" s="351"/>
+      <c r="R59" s="351"/>
+      <c r="S59" s="351"/>
+      <c r="T59" s="351"/>
+      <c r="U59" s="351"/>
+      <c r="V59" s="351"/>
+      <c r="W59" s="351"/>
+      <c r="X59" s="351"/>
+      <c r="Y59" s="351"/>
+      <c r="Z59" s="352"/>
+      <c r="AA59" s="335"/>
+      <c r="AB59" s="336"/>
+      <c r="AC59" s="336"/>
+      <c r="AD59" s="337"/>
+      <c r="AE59" s="319"/>
+      <c r="AF59" s="320"/>
+      <c r="AG59" s="320"/>
+      <c r="AH59" s="320"/>
+      <c r="AI59" s="321"/>
+      <c r="AJ59" s="335"/>
+      <c r="AK59" s="336"/>
+      <c r="AL59" s="336"/>
+      <c r="AM59" s="337"/>
+      <c r="AN59" s="319"/>
+      <c r="AO59" s="320"/>
+      <c r="AP59" s="320"/>
+      <c r="AQ59" s="320"/>
+      <c r="AR59" s="321"/>
+      <c r="AS59" s="335"/>
+      <c r="AT59" s="336"/>
+      <c r="AU59" s="336"/>
+      <c r="AV59" s="337"/>
       <c r="AW59" s="189"/>
     </row>
     <row r="60" spans="1:49" ht="13.5" customHeight="1">
       <c r="A60" s="30"/>
-      <c r="B60" s="256"/>
-      <c r="C60" s="257"/>
-      <c r="D60" s="244"/>
-      <c r="E60" s="245"/>
-      <c r="F60" s="245"/>
-      <c r="G60" s="245"/>
-      <c r="H60" s="246"/>
-      <c r="I60" s="258"/>
-      <c r="J60" s="259"/>
-      <c r="K60" s="259"/>
-      <c r="L60" s="259"/>
-      <c r="M60" s="259"/>
-      <c r="N60" s="259"/>
-      <c r="O60" s="259"/>
-      <c r="P60" s="259"/>
-      <c r="Q60" s="259"/>
-      <c r="R60" s="259"/>
-      <c r="S60" s="259"/>
-      <c r="T60" s="259"/>
-      <c r="U60" s="259"/>
-      <c r="V60" s="259"/>
-      <c r="W60" s="259"/>
-      <c r="X60" s="259"/>
-      <c r="Y60" s="259"/>
-      <c r="Z60" s="260"/>
-      <c r="AA60" s="250"/>
-      <c r="AB60" s="251"/>
-      <c r="AC60" s="251"/>
-      <c r="AD60" s="252"/>
-      <c r="AE60" s="244"/>
-      <c r="AF60" s="245"/>
-      <c r="AG60" s="245"/>
-      <c r="AH60" s="245"/>
-      <c r="AI60" s="246"/>
-      <c r="AJ60" s="250"/>
-      <c r="AK60" s="251"/>
-      <c r="AL60" s="251"/>
-      <c r="AM60" s="252"/>
-      <c r="AN60" s="244"/>
-      <c r="AO60" s="245"/>
-      <c r="AP60" s="245"/>
-      <c r="AQ60" s="245"/>
-      <c r="AR60" s="246"/>
-      <c r="AS60" s="250"/>
-      <c r="AT60" s="251"/>
-      <c r="AU60" s="251"/>
-      <c r="AV60" s="252"/>
+      <c r="B60" s="331"/>
+      <c r="C60" s="332"/>
+      <c r="D60" s="319"/>
+      <c r="E60" s="320"/>
+      <c r="F60" s="320"/>
+      <c r="G60" s="320"/>
+      <c r="H60" s="321"/>
+      <c r="I60" s="350"/>
+      <c r="J60" s="351"/>
+      <c r="K60" s="351"/>
+      <c r="L60" s="351"/>
+      <c r="M60" s="351"/>
+      <c r="N60" s="351"/>
+      <c r="O60" s="351"/>
+      <c r="P60" s="351"/>
+      <c r="Q60" s="351"/>
+      <c r="R60" s="351"/>
+      <c r="S60" s="351"/>
+      <c r="T60" s="351"/>
+      <c r="U60" s="351"/>
+      <c r="V60" s="351"/>
+      <c r="W60" s="351"/>
+      <c r="X60" s="351"/>
+      <c r="Y60" s="351"/>
+      <c r="Z60" s="352"/>
+      <c r="AA60" s="335"/>
+      <c r="AB60" s="336"/>
+      <c r="AC60" s="336"/>
+      <c r="AD60" s="337"/>
+      <c r="AE60" s="319"/>
+      <c r="AF60" s="320"/>
+      <c r="AG60" s="320"/>
+      <c r="AH60" s="320"/>
+      <c r="AI60" s="321"/>
+      <c r="AJ60" s="335"/>
+      <c r="AK60" s="336"/>
+      <c r="AL60" s="336"/>
+      <c r="AM60" s="337"/>
+      <c r="AN60" s="319"/>
+      <c r="AO60" s="320"/>
+      <c r="AP60" s="320"/>
+      <c r="AQ60" s="320"/>
+      <c r="AR60" s="321"/>
+      <c r="AS60" s="335"/>
+      <c r="AT60" s="336"/>
+      <c r="AU60" s="336"/>
+      <c r="AV60" s="337"/>
       <c r="AW60" s="189"/>
     </row>
     <row r="61" spans="1:49" ht="13.5" customHeight="1">
       <c r="A61" s="30"/>
-      <c r="B61" s="256"/>
-      <c r="C61" s="257"/>
-      <c r="D61" s="244"/>
-      <c r="E61" s="245"/>
-      <c r="F61" s="245"/>
-      <c r="G61" s="245"/>
-      <c r="H61" s="246"/>
-      <c r="I61" s="258"/>
-      <c r="J61" s="259"/>
-      <c r="K61" s="259"/>
-      <c r="L61" s="259"/>
-      <c r="M61" s="259"/>
-      <c r="N61" s="259"/>
-      <c r="O61" s="259"/>
-      <c r="P61" s="259"/>
-      <c r="Q61" s="259"/>
-      <c r="R61" s="259"/>
-      <c r="S61" s="259"/>
-      <c r="T61" s="259"/>
-      <c r="U61" s="259"/>
-      <c r="V61" s="259"/>
-      <c r="W61" s="259"/>
-      <c r="X61" s="259"/>
-      <c r="Y61" s="259"/>
-      <c r="Z61" s="260"/>
-      <c r="AA61" s="250"/>
-      <c r="AB61" s="251"/>
-      <c r="AC61" s="251"/>
-      <c r="AD61" s="252"/>
-      <c r="AE61" s="244"/>
-      <c r="AF61" s="245"/>
-      <c r="AG61" s="245"/>
-      <c r="AH61" s="245"/>
-      <c r="AI61" s="246"/>
-      <c r="AJ61" s="250"/>
-      <c r="AK61" s="251"/>
-      <c r="AL61" s="251"/>
-      <c r="AM61" s="252"/>
-      <c r="AN61" s="244"/>
-      <c r="AO61" s="245"/>
-      <c r="AP61" s="245"/>
-      <c r="AQ61" s="245"/>
-      <c r="AR61" s="246"/>
-      <c r="AS61" s="250"/>
-      <c r="AT61" s="251"/>
-      <c r="AU61" s="251"/>
-      <c r="AV61" s="252"/>
+      <c r="B61" s="331"/>
+      <c r="C61" s="332"/>
+      <c r="D61" s="319"/>
+      <c r="E61" s="320"/>
+      <c r="F61" s="320"/>
+      <c r="G61" s="320"/>
+      <c r="H61" s="321"/>
+      <c r="I61" s="350"/>
+      <c r="J61" s="351"/>
+      <c r="K61" s="351"/>
+      <c r="L61" s="351"/>
+      <c r="M61" s="351"/>
+      <c r="N61" s="351"/>
+      <c r="O61" s="351"/>
+      <c r="P61" s="351"/>
+      <c r="Q61" s="351"/>
+      <c r="R61" s="351"/>
+      <c r="S61" s="351"/>
+      <c r="T61" s="351"/>
+      <c r="U61" s="351"/>
+      <c r="V61" s="351"/>
+      <c r="W61" s="351"/>
+      <c r="X61" s="351"/>
+      <c r="Y61" s="351"/>
+      <c r="Z61" s="352"/>
+      <c r="AA61" s="335"/>
+      <c r="AB61" s="336"/>
+      <c r="AC61" s="336"/>
+      <c r="AD61" s="337"/>
+      <c r="AE61" s="319"/>
+      <c r="AF61" s="320"/>
+      <c r="AG61" s="320"/>
+      <c r="AH61" s="320"/>
+      <c r="AI61" s="321"/>
+      <c r="AJ61" s="335"/>
+      <c r="AK61" s="336"/>
+      <c r="AL61" s="336"/>
+      <c r="AM61" s="337"/>
+      <c r="AN61" s="319"/>
+      <c r="AO61" s="320"/>
+      <c r="AP61" s="320"/>
+      <c r="AQ61" s="320"/>
+      <c r="AR61" s="321"/>
+      <c r="AS61" s="335"/>
+      <c r="AT61" s="336"/>
+      <c r="AU61" s="336"/>
+      <c r="AV61" s="337"/>
       <c r="AW61" s="189"/>
     </row>
     <row r="62" spans="1:49" ht="13.5" customHeight="1">
       <c r="A62" s="30"/>
-      <c r="B62" s="256"/>
-      <c r="C62" s="257"/>
-      <c r="D62" s="244"/>
-      <c r="E62" s="245"/>
-      <c r="F62" s="245"/>
-      <c r="G62" s="245"/>
-      <c r="H62" s="246"/>
-      <c r="I62" s="258"/>
-      <c r="J62" s="259"/>
-      <c r="K62" s="259"/>
-      <c r="L62" s="259"/>
-      <c r="M62" s="259"/>
-      <c r="N62" s="259"/>
-      <c r="O62" s="259"/>
-      <c r="P62" s="259"/>
-      <c r="Q62" s="259"/>
-      <c r="R62" s="259"/>
-      <c r="S62" s="259"/>
-      <c r="T62" s="259"/>
-      <c r="U62" s="259"/>
-      <c r="V62" s="259"/>
-      <c r="W62" s="259"/>
-      <c r="X62" s="259"/>
-      <c r="Y62" s="259"/>
-      <c r="Z62" s="260"/>
-      <c r="AA62" s="250"/>
-      <c r="AB62" s="251"/>
-      <c r="AC62" s="251"/>
-      <c r="AD62" s="252"/>
-      <c r="AE62" s="244"/>
-      <c r="AF62" s="245"/>
-      <c r="AG62" s="245"/>
-      <c r="AH62" s="245"/>
-      <c r="AI62" s="246"/>
-      <c r="AJ62" s="250"/>
-      <c r="AK62" s="251"/>
-      <c r="AL62" s="251"/>
-      <c r="AM62" s="252"/>
-      <c r="AN62" s="244"/>
-      <c r="AO62" s="245"/>
-      <c r="AP62" s="245"/>
-      <c r="AQ62" s="245"/>
-      <c r="AR62" s="246"/>
-      <c r="AS62" s="250"/>
-      <c r="AT62" s="251"/>
-      <c r="AU62" s="251"/>
-      <c r="AV62" s="252"/>
+      <c r="B62" s="331"/>
+      <c r="C62" s="332"/>
+      <c r="D62" s="319"/>
+      <c r="E62" s="320"/>
+      <c r="F62" s="320"/>
+      <c r="G62" s="320"/>
+      <c r="H62" s="321"/>
+      <c r="I62" s="350"/>
+      <c r="J62" s="351"/>
+      <c r="K62" s="351"/>
+      <c r="L62" s="351"/>
+      <c r="M62" s="351"/>
+      <c r="N62" s="351"/>
+      <c r="O62" s="351"/>
+      <c r="P62" s="351"/>
+      <c r="Q62" s="351"/>
+      <c r="R62" s="351"/>
+      <c r="S62" s="351"/>
+      <c r="T62" s="351"/>
+      <c r="U62" s="351"/>
+      <c r="V62" s="351"/>
+      <c r="W62" s="351"/>
+      <c r="X62" s="351"/>
+      <c r="Y62" s="351"/>
+      <c r="Z62" s="352"/>
+      <c r="AA62" s="335"/>
+      <c r="AB62" s="336"/>
+      <c r="AC62" s="336"/>
+      <c r="AD62" s="337"/>
+      <c r="AE62" s="319"/>
+      <c r="AF62" s="320"/>
+      <c r="AG62" s="320"/>
+      <c r="AH62" s="320"/>
+      <c r="AI62" s="321"/>
+      <c r="AJ62" s="335"/>
+      <c r="AK62" s="336"/>
+      <c r="AL62" s="336"/>
+      <c r="AM62" s="337"/>
+      <c r="AN62" s="319"/>
+      <c r="AO62" s="320"/>
+      <c r="AP62" s="320"/>
+      <c r="AQ62" s="320"/>
+      <c r="AR62" s="321"/>
+      <c r="AS62" s="335"/>
+      <c r="AT62" s="336"/>
+      <c r="AU62" s="336"/>
+      <c r="AV62" s="337"/>
       <c r="AW62" s="189"/>
     </row>
     <row r="63" spans="1:49" ht="13.5" customHeight="1">
       <c r="A63" s="30"/>
-      <c r="B63" s="256"/>
-      <c r="C63" s="257"/>
-      <c r="D63" s="244"/>
-      <c r="E63" s="245"/>
-      <c r="F63" s="245"/>
-      <c r="G63" s="245"/>
-      <c r="H63" s="246"/>
-      <c r="I63" s="258"/>
-      <c r="J63" s="259"/>
-      <c r="K63" s="259"/>
-      <c r="L63" s="259"/>
-      <c r="M63" s="259"/>
-      <c r="N63" s="259"/>
-      <c r="O63" s="259"/>
-      <c r="P63" s="259"/>
-      <c r="Q63" s="259"/>
-      <c r="R63" s="259"/>
-      <c r="S63" s="259"/>
-      <c r="T63" s="259"/>
-      <c r="U63" s="259"/>
-      <c r="V63" s="259"/>
-      <c r="W63" s="259"/>
-      <c r="X63" s="259"/>
-      <c r="Y63" s="259"/>
-      <c r="Z63" s="260"/>
-      <c r="AA63" s="250"/>
-      <c r="AB63" s="251"/>
-      <c r="AC63" s="251"/>
-      <c r="AD63" s="252"/>
-      <c r="AE63" s="244"/>
-      <c r="AF63" s="245"/>
-      <c r="AG63" s="245"/>
-      <c r="AH63" s="245"/>
-      <c r="AI63" s="246"/>
-      <c r="AJ63" s="250"/>
-      <c r="AK63" s="251"/>
-      <c r="AL63" s="251"/>
-      <c r="AM63" s="252"/>
-      <c r="AN63" s="244"/>
-      <c r="AO63" s="245"/>
-      <c r="AP63" s="245"/>
-      <c r="AQ63" s="245"/>
-      <c r="AR63" s="246"/>
-      <c r="AS63" s="250"/>
-      <c r="AT63" s="251"/>
-      <c r="AU63" s="251"/>
-      <c r="AV63" s="252"/>
+      <c r="B63" s="331"/>
+      <c r="C63" s="332"/>
+      <c r="D63" s="319"/>
+      <c r="E63" s="320"/>
+      <c r="F63" s="320"/>
+      <c r="G63" s="320"/>
+      <c r="H63" s="321"/>
+      <c r="I63" s="350"/>
+      <c r="J63" s="351"/>
+      <c r="K63" s="351"/>
+      <c r="L63" s="351"/>
+      <c r="M63" s="351"/>
+      <c r="N63" s="351"/>
+      <c r="O63" s="351"/>
+      <c r="P63" s="351"/>
+      <c r="Q63" s="351"/>
+      <c r="R63" s="351"/>
+      <c r="S63" s="351"/>
+      <c r="T63" s="351"/>
+      <c r="U63" s="351"/>
+      <c r="V63" s="351"/>
+      <c r="W63" s="351"/>
+      <c r="X63" s="351"/>
+      <c r="Y63" s="351"/>
+      <c r="Z63" s="352"/>
+      <c r="AA63" s="335"/>
+      <c r="AB63" s="336"/>
+      <c r="AC63" s="336"/>
+      <c r="AD63" s="337"/>
+      <c r="AE63" s="319"/>
+      <c r="AF63" s="320"/>
+      <c r="AG63" s="320"/>
+      <c r="AH63" s="320"/>
+      <c r="AI63" s="321"/>
+      <c r="AJ63" s="335"/>
+      <c r="AK63" s="336"/>
+      <c r="AL63" s="336"/>
+      <c r="AM63" s="337"/>
+      <c r="AN63" s="319"/>
+      <c r="AO63" s="320"/>
+      <c r="AP63" s="320"/>
+      <c r="AQ63" s="320"/>
+      <c r="AR63" s="321"/>
+      <c r="AS63" s="335"/>
+      <c r="AT63" s="336"/>
+      <c r="AU63" s="336"/>
+      <c r="AV63" s="337"/>
       <c r="AW63" s="189"/>
     </row>
     <row r="64" spans="1:49" ht="13.5" customHeight="1">
       <c r="A64" s="30"/>
-      <c r="B64" s="256"/>
-      <c r="C64" s="257"/>
-      <c r="D64" s="244"/>
-      <c r="E64" s="245"/>
-      <c r="F64" s="245"/>
-      <c r="G64" s="245"/>
-      <c r="H64" s="246"/>
-      <c r="I64" s="258"/>
-      <c r="J64" s="259"/>
-      <c r="K64" s="259"/>
-      <c r="L64" s="259"/>
-      <c r="M64" s="259"/>
-      <c r="N64" s="259"/>
-      <c r="O64" s="259"/>
-      <c r="P64" s="259"/>
-      <c r="Q64" s="259"/>
-      <c r="R64" s="259"/>
-      <c r="S64" s="259"/>
-      <c r="T64" s="259"/>
-      <c r="U64" s="259"/>
-      <c r="V64" s="259"/>
-      <c r="W64" s="259"/>
-      <c r="X64" s="259"/>
-      <c r="Y64" s="259"/>
-      <c r="Z64" s="260"/>
-      <c r="AA64" s="250"/>
-      <c r="AB64" s="251"/>
-      <c r="AC64" s="251"/>
-      <c r="AD64" s="252"/>
-      <c r="AE64" s="244"/>
-      <c r="AF64" s="245"/>
-      <c r="AG64" s="245"/>
-      <c r="AH64" s="245"/>
-      <c r="AI64" s="246"/>
-      <c r="AJ64" s="250"/>
-      <c r="AK64" s="251"/>
-      <c r="AL64" s="251"/>
-      <c r="AM64" s="252"/>
-      <c r="AN64" s="244"/>
-      <c r="AO64" s="245"/>
-      <c r="AP64" s="245"/>
-      <c r="AQ64" s="245"/>
-      <c r="AR64" s="246"/>
-      <c r="AS64" s="250"/>
-      <c r="AT64" s="251"/>
-      <c r="AU64" s="251"/>
-      <c r="AV64" s="252"/>
+      <c r="B64" s="331"/>
+      <c r="C64" s="332"/>
+      <c r="D64" s="319"/>
+      <c r="E64" s="320"/>
+      <c r="F64" s="320"/>
+      <c r="G64" s="320"/>
+      <c r="H64" s="321"/>
+      <c r="I64" s="350"/>
+      <c r="J64" s="351"/>
+      <c r="K64" s="351"/>
+      <c r="L64" s="351"/>
+      <c r="M64" s="351"/>
+      <c r="N64" s="351"/>
+      <c r="O64" s="351"/>
+      <c r="P64" s="351"/>
+      <c r="Q64" s="351"/>
+      <c r="R64" s="351"/>
+      <c r="S64" s="351"/>
+      <c r="T64" s="351"/>
+      <c r="U64" s="351"/>
+      <c r="V64" s="351"/>
+      <c r="W64" s="351"/>
+      <c r="X64" s="351"/>
+      <c r="Y64" s="351"/>
+      <c r="Z64" s="352"/>
+      <c r="AA64" s="335"/>
+      <c r="AB64" s="336"/>
+      <c r="AC64" s="336"/>
+      <c r="AD64" s="337"/>
+      <c r="AE64" s="319"/>
+      <c r="AF64" s="320"/>
+      <c r="AG64" s="320"/>
+      <c r="AH64" s="320"/>
+      <c r="AI64" s="321"/>
+      <c r="AJ64" s="335"/>
+      <c r="AK64" s="336"/>
+      <c r="AL64" s="336"/>
+      <c r="AM64" s="337"/>
+      <c r="AN64" s="319"/>
+      <c r="AO64" s="320"/>
+      <c r="AP64" s="320"/>
+      <c r="AQ64" s="320"/>
+      <c r="AR64" s="321"/>
+      <c r="AS64" s="335"/>
+      <c r="AT64" s="336"/>
+      <c r="AU64" s="336"/>
+      <c r="AV64" s="337"/>
       <c r="AW64" s="189"/>
     </row>
     <row r="65" spans="1:49" ht="13.5" customHeight="1">
       <c r="A65" s="30"/>
-      <c r="B65" s="256"/>
-      <c r="C65" s="257"/>
-      <c r="D65" s="244"/>
-      <c r="E65" s="245"/>
-      <c r="F65" s="245"/>
-      <c r="G65" s="245"/>
-      <c r="H65" s="246"/>
-      <c r="I65" s="258"/>
-      <c r="J65" s="259"/>
-      <c r="K65" s="259"/>
-      <c r="L65" s="259"/>
-      <c r="M65" s="259"/>
-      <c r="N65" s="259"/>
-      <c r="O65" s="259"/>
-      <c r="P65" s="259"/>
-      <c r="Q65" s="259"/>
-      <c r="R65" s="259"/>
-      <c r="S65" s="259"/>
-      <c r="T65" s="259"/>
-      <c r="U65" s="259"/>
-      <c r="V65" s="259"/>
-      <c r="W65" s="259"/>
-      <c r="X65" s="259"/>
-      <c r="Y65" s="259"/>
-      <c r="Z65" s="260"/>
-      <c r="AA65" s="250"/>
-      <c r="AB65" s="251"/>
-      <c r="AC65" s="251"/>
-      <c r="AD65" s="252"/>
-      <c r="AE65" s="244"/>
-      <c r="AF65" s="245"/>
-      <c r="AG65" s="245"/>
-      <c r="AH65" s="245"/>
-      <c r="AI65" s="246"/>
-      <c r="AJ65" s="250"/>
-      <c r="AK65" s="251"/>
-      <c r="AL65" s="251"/>
-      <c r="AM65" s="252"/>
-      <c r="AN65" s="244"/>
-      <c r="AO65" s="245"/>
-      <c r="AP65" s="245"/>
-      <c r="AQ65" s="245"/>
-      <c r="AR65" s="246"/>
-      <c r="AS65" s="250"/>
-      <c r="AT65" s="251"/>
-      <c r="AU65" s="251"/>
-      <c r="AV65" s="252"/>
+      <c r="B65" s="331"/>
+      <c r="C65" s="332"/>
+      <c r="D65" s="319"/>
+      <c r="E65" s="320"/>
+      <c r="F65" s="320"/>
+      <c r="G65" s="320"/>
+      <c r="H65" s="321"/>
+      <c r="I65" s="350"/>
+      <c r="J65" s="351"/>
+      <c r="K65" s="351"/>
+      <c r="L65" s="351"/>
+      <c r="M65" s="351"/>
+      <c r="N65" s="351"/>
+      <c r="O65" s="351"/>
+      <c r="P65" s="351"/>
+      <c r="Q65" s="351"/>
+      <c r="R65" s="351"/>
+      <c r="S65" s="351"/>
+      <c r="T65" s="351"/>
+      <c r="U65" s="351"/>
+      <c r="V65" s="351"/>
+      <c r="W65" s="351"/>
+      <c r="X65" s="351"/>
+      <c r="Y65" s="351"/>
+      <c r="Z65" s="352"/>
+      <c r="AA65" s="335"/>
+      <c r="AB65" s="336"/>
+      <c r="AC65" s="336"/>
+      <c r="AD65" s="337"/>
+      <c r="AE65" s="319"/>
+      <c r="AF65" s="320"/>
+      <c r="AG65" s="320"/>
+      <c r="AH65" s="320"/>
+      <c r="AI65" s="321"/>
+      <c r="AJ65" s="335"/>
+      <c r="AK65" s="336"/>
+      <c r="AL65" s="336"/>
+      <c r="AM65" s="337"/>
+      <c r="AN65" s="319"/>
+      <c r="AO65" s="320"/>
+      <c r="AP65" s="320"/>
+      <c r="AQ65" s="320"/>
+      <c r="AR65" s="321"/>
+      <c r="AS65" s="335"/>
+      <c r="AT65" s="336"/>
+      <c r="AU65" s="336"/>
+      <c r="AV65" s="337"/>
       <c r="AW65" s="189"/>
     </row>
     <row r="66" spans="1:49" ht="13.5" customHeight="1">
       <c r="A66" s="30"/>
-      <c r="B66" s="256"/>
-      <c r="C66" s="257"/>
-      <c r="D66" s="244"/>
-      <c r="E66" s="245"/>
-      <c r="F66" s="245"/>
-      <c r="G66" s="245"/>
-      <c r="H66" s="246"/>
-      <c r="I66" s="258"/>
-      <c r="J66" s="259"/>
-      <c r="K66" s="259"/>
-      <c r="L66" s="259"/>
-      <c r="M66" s="259"/>
-      <c r="N66" s="259"/>
-      <c r="O66" s="259"/>
-      <c r="P66" s="259"/>
-      <c r="Q66" s="259"/>
-      <c r="R66" s="259"/>
-      <c r="S66" s="259"/>
-      <c r="T66" s="259"/>
-      <c r="U66" s="259"/>
-      <c r="V66" s="259"/>
-      <c r="W66" s="259"/>
-      <c r="X66" s="259"/>
-      <c r="Y66" s="259"/>
-      <c r="Z66" s="260"/>
-      <c r="AA66" s="250"/>
-      <c r="AB66" s="251"/>
-      <c r="AC66" s="251"/>
-      <c r="AD66" s="252"/>
-      <c r="AE66" s="244"/>
-      <c r="AF66" s="245"/>
-      <c r="AG66" s="245"/>
-      <c r="AH66" s="245"/>
-      <c r="AI66" s="246"/>
-      <c r="AJ66" s="250"/>
-      <c r="AK66" s="251"/>
-      <c r="AL66" s="251"/>
-      <c r="AM66" s="252"/>
-      <c r="AN66" s="244"/>
-      <c r="AO66" s="245"/>
-      <c r="AP66" s="245"/>
-      <c r="AQ66" s="245"/>
-      <c r="AR66" s="246"/>
-      <c r="AS66" s="250"/>
-      <c r="AT66" s="251"/>
-      <c r="AU66" s="251"/>
-      <c r="AV66" s="252"/>
+      <c r="B66" s="331"/>
+      <c r="C66" s="332"/>
+      <c r="D66" s="319"/>
+      <c r="E66" s="320"/>
+      <c r="F66" s="320"/>
+      <c r="G66" s="320"/>
+      <c r="H66" s="321"/>
+      <c r="I66" s="350"/>
+      <c r="J66" s="351"/>
+      <c r="K66" s="351"/>
+      <c r="L66" s="351"/>
+      <c r="M66" s="351"/>
+      <c r="N66" s="351"/>
+      <c r="O66" s="351"/>
+      <c r="P66" s="351"/>
+      <c r="Q66" s="351"/>
+      <c r="R66" s="351"/>
+      <c r="S66" s="351"/>
+      <c r="T66" s="351"/>
+      <c r="U66" s="351"/>
+      <c r="V66" s="351"/>
+      <c r="W66" s="351"/>
+      <c r="X66" s="351"/>
+      <c r="Y66" s="351"/>
+      <c r="Z66" s="352"/>
+      <c r="AA66" s="335"/>
+      <c r="AB66" s="336"/>
+      <c r="AC66" s="336"/>
+      <c r="AD66" s="337"/>
+      <c r="AE66" s="319"/>
+      <c r="AF66" s="320"/>
+      <c r="AG66" s="320"/>
+      <c r="AH66" s="320"/>
+      <c r="AI66" s="321"/>
+      <c r="AJ66" s="335"/>
+      <c r="AK66" s="336"/>
+      <c r="AL66" s="336"/>
+      <c r="AM66" s="337"/>
+      <c r="AN66" s="319"/>
+      <c r="AO66" s="320"/>
+      <c r="AP66" s="320"/>
+      <c r="AQ66" s="320"/>
+      <c r="AR66" s="321"/>
+      <c r="AS66" s="335"/>
+      <c r="AT66" s="336"/>
+      <c r="AU66" s="336"/>
+      <c r="AV66" s="337"/>
       <c r="AW66" s="189"/>
     </row>
     <row r="67" spans="1:49" ht="13.5" customHeight="1">
       <c r="A67" s="30"/>
-      <c r="B67" s="256"/>
-      <c r="C67" s="257"/>
-      <c r="D67" s="244"/>
-      <c r="E67" s="245"/>
-      <c r="F67" s="245"/>
-      <c r="G67" s="245"/>
-      <c r="H67" s="246"/>
-      <c r="I67" s="258"/>
-      <c r="J67" s="259"/>
-      <c r="K67" s="259"/>
-      <c r="L67" s="259"/>
-      <c r="M67" s="259"/>
-      <c r="N67" s="259"/>
-      <c r="O67" s="259"/>
-      <c r="P67" s="259"/>
-      <c r="Q67" s="259"/>
-      <c r="R67" s="259"/>
-      <c r="S67" s="259"/>
-      <c r="T67" s="259"/>
-      <c r="U67" s="259"/>
-      <c r="V67" s="259"/>
-      <c r="W67" s="259"/>
-      <c r="X67" s="259"/>
-      <c r="Y67" s="259"/>
-      <c r="Z67" s="260"/>
-      <c r="AA67" s="250"/>
-      <c r="AB67" s="251"/>
-      <c r="AC67" s="251"/>
-      <c r="AD67" s="252"/>
-      <c r="AE67" s="244"/>
-      <c r="AF67" s="245"/>
-      <c r="AG67" s="245"/>
-      <c r="AH67" s="245"/>
-      <c r="AI67" s="246"/>
-      <c r="AJ67" s="250"/>
-      <c r="AK67" s="251"/>
-      <c r="AL67" s="251"/>
-      <c r="AM67" s="252"/>
-      <c r="AN67" s="244"/>
-      <c r="AO67" s="245"/>
-      <c r="AP67" s="245"/>
-      <c r="AQ67" s="245"/>
-      <c r="AR67" s="246"/>
-      <c r="AS67" s="250"/>
-      <c r="AT67" s="251"/>
-      <c r="AU67" s="251"/>
-      <c r="AV67" s="252"/>
+      <c r="B67" s="331"/>
+      <c r="C67" s="332"/>
+      <c r="D67" s="319"/>
+      <c r="E67" s="320"/>
+      <c r="F67" s="320"/>
+      <c r="G67" s="320"/>
+      <c r="H67" s="321"/>
+      <c r="I67" s="350"/>
+      <c r="J67" s="351"/>
+      <c r="K67" s="351"/>
+      <c r="L67" s="351"/>
+      <c r="M67" s="351"/>
+      <c r="N67" s="351"/>
+      <c r="O67" s="351"/>
+      <c r="P67" s="351"/>
+      <c r="Q67" s="351"/>
+      <c r="R67" s="351"/>
+      <c r="S67" s="351"/>
+      <c r="T67" s="351"/>
+      <c r="U67" s="351"/>
+      <c r="V67" s="351"/>
+      <c r="W67" s="351"/>
+      <c r="X67" s="351"/>
+      <c r="Y67" s="351"/>
+      <c r="Z67" s="352"/>
+      <c r="AA67" s="335"/>
+      <c r="AB67" s="336"/>
+      <c r="AC67" s="336"/>
+      <c r="AD67" s="337"/>
+      <c r="AE67" s="319"/>
+      <c r="AF67" s="320"/>
+      <c r="AG67" s="320"/>
+      <c r="AH67" s="320"/>
+      <c r="AI67" s="321"/>
+      <c r="AJ67" s="335"/>
+      <c r="AK67" s="336"/>
+      <c r="AL67" s="336"/>
+      <c r="AM67" s="337"/>
+      <c r="AN67" s="319"/>
+      <c r="AO67" s="320"/>
+      <c r="AP67" s="320"/>
+      <c r="AQ67" s="320"/>
+      <c r="AR67" s="321"/>
+      <c r="AS67" s="335"/>
+      <c r="AT67" s="336"/>
+      <c r="AU67" s="336"/>
+      <c r="AV67" s="337"/>
       <c r="AW67" s="189"/>
     </row>
     <row r="68" spans="1:49" ht="13.5" customHeight="1">
       <c r="A68" s="30"/>
-      <c r="B68" s="256"/>
-      <c r="C68" s="257"/>
-      <c r="D68" s="244"/>
-      <c r="E68" s="245"/>
-      <c r="F68" s="245"/>
-      <c r="G68" s="245"/>
-      <c r="H68" s="246"/>
-      <c r="I68" s="258"/>
-      <c r="J68" s="259"/>
-      <c r="K68" s="259"/>
-      <c r="L68" s="259"/>
-      <c r="M68" s="259"/>
-      <c r="N68" s="259"/>
-      <c r="O68" s="259"/>
-      <c r="P68" s="259"/>
-      <c r="Q68" s="259"/>
-      <c r="R68" s="259"/>
-      <c r="S68" s="259"/>
-      <c r="T68" s="259"/>
-      <c r="U68" s="259"/>
-      <c r="V68" s="259"/>
-      <c r="W68" s="259"/>
-      <c r="X68" s="259"/>
-      <c r="Y68" s="259"/>
-      <c r="Z68" s="260"/>
-      <c r="AA68" s="250"/>
-      <c r="AB68" s="251"/>
-      <c r="AC68" s="251"/>
-      <c r="AD68" s="252"/>
-      <c r="AE68" s="244"/>
-      <c r="AF68" s="245"/>
-      <c r="AG68" s="245"/>
-      <c r="AH68" s="245"/>
-      <c r="AI68" s="246"/>
-      <c r="AJ68" s="250"/>
-      <c r="AK68" s="251"/>
-      <c r="AL68" s="251"/>
-      <c r="AM68" s="252"/>
-      <c r="AN68" s="244"/>
-      <c r="AO68" s="245"/>
-      <c r="AP68" s="245"/>
-      <c r="AQ68" s="245"/>
-      <c r="AR68" s="246"/>
-      <c r="AS68" s="250"/>
-      <c r="AT68" s="251"/>
-      <c r="AU68" s="251"/>
-      <c r="AV68" s="252"/>
+      <c r="B68" s="331"/>
+      <c r="C68" s="332"/>
+      <c r="D68" s="319"/>
+      <c r="E68" s="320"/>
+      <c r="F68" s="320"/>
+      <c r="G68" s="320"/>
+      <c r="H68" s="321"/>
+      <c r="I68" s="350"/>
+      <c r="J68" s="351"/>
+      <c r="K68" s="351"/>
+      <c r="L68" s="351"/>
+      <c r="M68" s="351"/>
+      <c r="N68" s="351"/>
+      <c r="O68" s="351"/>
+      <c r="P68" s="351"/>
+      <c r="Q68" s="351"/>
+      <c r="R68" s="351"/>
+      <c r="S68" s="351"/>
+      <c r="T68" s="351"/>
+      <c r="U68" s="351"/>
+      <c r="V68" s="351"/>
+      <c r="W68" s="351"/>
+      <c r="X68" s="351"/>
+      <c r="Y68" s="351"/>
+      <c r="Z68" s="352"/>
+      <c r="AA68" s="335"/>
+      <c r="AB68" s="336"/>
+      <c r="AC68" s="336"/>
+      <c r="AD68" s="337"/>
+      <c r="AE68" s="319"/>
+      <c r="AF68" s="320"/>
+      <c r="AG68" s="320"/>
+      <c r="AH68" s="320"/>
+      <c r="AI68" s="321"/>
+      <c r="AJ68" s="335"/>
+      <c r="AK68" s="336"/>
+      <c r="AL68" s="336"/>
+      <c r="AM68" s="337"/>
+      <c r="AN68" s="319"/>
+      <c r="AO68" s="320"/>
+      <c r="AP68" s="320"/>
+      <c r="AQ68" s="320"/>
+      <c r="AR68" s="321"/>
+      <c r="AS68" s="335"/>
+      <c r="AT68" s="336"/>
+      <c r="AU68" s="336"/>
+      <c r="AV68" s="337"/>
       <c r="AW68" s="189"/>
     </row>
     <row r="69" spans="1:49" ht="13.5" customHeight="1">
       <c r="A69" s="30"/>
-      <c r="B69" s="256"/>
-      <c r="C69" s="257"/>
-      <c r="D69" s="244"/>
-      <c r="E69" s="245"/>
-      <c r="F69" s="245"/>
-      <c r="G69" s="245"/>
-      <c r="H69" s="246"/>
-      <c r="I69" s="258"/>
-      <c r="J69" s="259"/>
-      <c r="K69" s="259"/>
-      <c r="L69" s="259"/>
-      <c r="M69" s="259"/>
-      <c r="N69" s="259"/>
-      <c r="O69" s="259"/>
-      <c r="P69" s="259"/>
-      <c r="Q69" s="259"/>
-      <c r="R69" s="259"/>
-      <c r="S69" s="259"/>
-      <c r="T69" s="259"/>
-      <c r="U69" s="259"/>
-      <c r="V69" s="259"/>
-      <c r="W69" s="259"/>
-      <c r="X69" s="259"/>
-      <c r="Y69" s="259"/>
-      <c r="Z69" s="260"/>
-      <c r="AA69" s="250"/>
-      <c r="AB69" s="251"/>
-      <c r="AC69" s="251"/>
-      <c r="AD69" s="252"/>
-      <c r="AE69" s="244"/>
-      <c r="AF69" s="245"/>
-      <c r="AG69" s="245"/>
-      <c r="AH69" s="245"/>
-      <c r="AI69" s="246"/>
-      <c r="AJ69" s="250"/>
-      <c r="AK69" s="251"/>
-      <c r="AL69" s="251"/>
-      <c r="AM69" s="252"/>
-      <c r="AN69" s="244"/>
-      <c r="AO69" s="245"/>
-      <c r="AP69" s="245"/>
-      <c r="AQ69" s="245"/>
-      <c r="AR69" s="246"/>
-      <c r="AS69" s="250"/>
-      <c r="AT69" s="251"/>
-      <c r="AU69" s="251"/>
-      <c r="AV69" s="252"/>
+      <c r="B69" s="331"/>
+      <c r="C69" s="332"/>
+      <c r="D69" s="319"/>
+      <c r="E69" s="320"/>
+      <c r="F69" s="320"/>
+      <c r="G69" s="320"/>
+      <c r="H69" s="321"/>
+      <c r="I69" s="350"/>
+      <c r="J69" s="351"/>
+      <c r="K69" s="351"/>
+      <c r="L69" s="351"/>
+      <c r="M69" s="351"/>
+      <c r="N69" s="351"/>
+      <c r="O69" s="351"/>
+      <c r="P69" s="351"/>
+      <c r="Q69" s="351"/>
+      <c r="R69" s="351"/>
+      <c r="S69" s="351"/>
+      <c r="T69" s="351"/>
+      <c r="U69" s="351"/>
+      <c r="V69" s="351"/>
+      <c r="W69" s="351"/>
+      <c r="X69" s="351"/>
+      <c r="Y69" s="351"/>
+      <c r="Z69" s="352"/>
+      <c r="AA69" s="335"/>
+      <c r="AB69" s="336"/>
+      <c r="AC69" s="336"/>
+      <c r="AD69" s="337"/>
+      <c r="AE69" s="319"/>
+      <c r="AF69" s="320"/>
+      <c r="AG69" s="320"/>
+      <c r="AH69" s="320"/>
+      <c r="AI69" s="321"/>
+      <c r="AJ69" s="335"/>
+      <c r="AK69" s="336"/>
+      <c r="AL69" s="336"/>
+      <c r="AM69" s="337"/>
+      <c r="AN69" s="319"/>
+      <c r="AO69" s="320"/>
+      <c r="AP69" s="320"/>
+      <c r="AQ69" s="320"/>
+      <c r="AR69" s="321"/>
+      <c r="AS69" s="335"/>
+      <c r="AT69" s="336"/>
+      <c r="AU69" s="336"/>
+      <c r="AV69" s="337"/>
       <c r="AW69" s="189"/>
     </row>
     <row r="70" spans="1:49" ht="13.5" customHeight="1">
       <c r="A70" s="30"/>
-      <c r="B70" s="256"/>
-      <c r="C70" s="257"/>
-      <c r="D70" s="244"/>
-      <c r="E70" s="245"/>
-      <c r="F70" s="245"/>
-      <c r="G70" s="245"/>
-      <c r="H70" s="246"/>
-      <c r="I70" s="258"/>
-      <c r="J70" s="259"/>
-      <c r="K70" s="259"/>
-      <c r="L70" s="259"/>
-      <c r="M70" s="259"/>
-      <c r="N70" s="259"/>
-      <c r="O70" s="259"/>
-      <c r="P70" s="259"/>
-      <c r="Q70" s="259"/>
-      <c r="R70" s="259"/>
-      <c r="S70" s="259"/>
-      <c r="T70" s="259"/>
-      <c r="U70" s="259"/>
-      <c r="V70" s="259"/>
-      <c r="W70" s="259"/>
-      <c r="X70" s="259"/>
-      <c r="Y70" s="259"/>
-      <c r="Z70" s="260"/>
-      <c r="AA70" s="250"/>
-      <c r="AB70" s="251"/>
-      <c r="AC70" s="251"/>
-      <c r="AD70" s="252"/>
-      <c r="AE70" s="244"/>
-      <c r="AF70" s="245"/>
-      <c r="AG70" s="245"/>
-      <c r="AH70" s="245"/>
-      <c r="AI70" s="246"/>
-      <c r="AJ70" s="250"/>
-      <c r="AK70" s="251"/>
-      <c r="AL70" s="251"/>
-      <c r="AM70" s="252"/>
-      <c r="AN70" s="244"/>
-      <c r="AO70" s="245"/>
-      <c r="AP70" s="245"/>
-      <c r="AQ70" s="245"/>
-      <c r="AR70" s="246"/>
-      <c r="AS70" s="250"/>
-      <c r="AT70" s="251"/>
-      <c r="AU70" s="251"/>
-      <c r="AV70" s="252"/>
+      <c r="B70" s="331"/>
+      <c r="C70" s="332"/>
+      <c r="D70" s="319"/>
+      <c r="E70" s="320"/>
+      <c r="F70" s="320"/>
+      <c r="G70" s="320"/>
+      <c r="H70" s="321"/>
+      <c r="I70" s="350"/>
+      <c r="J70" s="351"/>
+      <c r="K70" s="351"/>
+      <c r="L70" s="351"/>
+      <c r="M70" s="351"/>
+      <c r="N70" s="351"/>
+      <c r="O70" s="351"/>
+      <c r="P70" s="351"/>
+      <c r="Q70" s="351"/>
+      <c r="R70" s="351"/>
+      <c r="S70" s="351"/>
+      <c r="T70" s="351"/>
+      <c r="U70" s="351"/>
+      <c r="V70" s="351"/>
+      <c r="W70" s="351"/>
+      <c r="X70" s="351"/>
+      <c r="Y70" s="351"/>
+      <c r="Z70" s="352"/>
+      <c r="AA70" s="335"/>
+      <c r="AB70" s="336"/>
+      <c r="AC70" s="336"/>
+      <c r="AD70" s="337"/>
+      <c r="AE70" s="319"/>
+      <c r="AF70" s="320"/>
+      <c r="AG70" s="320"/>
+      <c r="AH70" s="320"/>
+      <c r="AI70" s="321"/>
+      <c r="AJ70" s="335"/>
+      <c r="AK70" s="336"/>
+      <c r="AL70" s="336"/>
+      <c r="AM70" s="337"/>
+      <c r="AN70" s="319"/>
+      <c r="AO70" s="320"/>
+      <c r="AP70" s="320"/>
+      <c r="AQ70" s="320"/>
+      <c r="AR70" s="321"/>
+      <c r="AS70" s="335"/>
+      <c r="AT70" s="336"/>
+      <c r="AU70" s="336"/>
+      <c r="AV70" s="337"/>
       <c r="AW70" s="189"/>
     </row>
     <row r="71" spans="1:49" ht="13.5" customHeight="1">
       <c r="A71" s="30"/>
-      <c r="B71" s="256"/>
-      <c r="C71" s="257"/>
-      <c r="D71" s="244"/>
-      <c r="E71" s="245"/>
-      <c r="F71" s="245"/>
-      <c r="G71" s="245"/>
-      <c r="H71" s="246"/>
-      <c r="I71" s="258"/>
-      <c r="J71" s="259"/>
-      <c r="K71" s="259"/>
-      <c r="L71" s="259"/>
-      <c r="M71" s="259"/>
-      <c r="N71" s="259"/>
-      <c r="O71" s="259"/>
-      <c r="P71" s="259"/>
-      <c r="Q71" s="259"/>
-      <c r="R71" s="259"/>
-      <c r="S71" s="259"/>
-      <c r="T71" s="259"/>
-      <c r="U71" s="259"/>
-      <c r="V71" s="259"/>
-      <c r="W71" s="259"/>
-      <c r="X71" s="259"/>
-      <c r="Y71" s="259"/>
-      <c r="Z71" s="260"/>
-      <c r="AA71" s="250"/>
-      <c r="AB71" s="251"/>
-      <c r="AC71" s="251"/>
-      <c r="AD71" s="252"/>
-      <c r="AE71" s="244"/>
-      <c r="AF71" s="245"/>
-      <c r="AG71" s="245"/>
-      <c r="AH71" s="245"/>
-      <c r="AI71" s="246"/>
-      <c r="AJ71" s="250"/>
-      <c r="AK71" s="251"/>
-      <c r="AL71" s="251"/>
-      <c r="AM71" s="252"/>
-      <c r="AN71" s="244"/>
-      <c r="AO71" s="245"/>
-      <c r="AP71" s="245"/>
-      <c r="AQ71" s="245"/>
-      <c r="AR71" s="246"/>
-      <c r="AS71" s="250"/>
-      <c r="AT71" s="251"/>
-      <c r="AU71" s="251"/>
-      <c r="AV71" s="252"/>
+      <c r="B71" s="331"/>
+      <c r="C71" s="332"/>
+      <c r="D71" s="319"/>
+      <c r="E71" s="320"/>
+      <c r="F71" s="320"/>
+      <c r="G71" s="320"/>
+      <c r="H71" s="321"/>
+      <c r="I71" s="350"/>
+      <c r="J71" s="351"/>
+      <c r="K71" s="351"/>
+      <c r="L71" s="351"/>
+      <c r="M71" s="351"/>
+      <c r="N71" s="351"/>
+      <c r="O71" s="351"/>
+      <c r="P71" s="351"/>
+      <c r="Q71" s="351"/>
+      <c r="R71" s="351"/>
+      <c r="S71" s="351"/>
+      <c r="T71" s="351"/>
+      <c r="U71" s="351"/>
+      <c r="V71" s="351"/>
+      <c r="W71" s="351"/>
+      <c r="X71" s="351"/>
+      <c r="Y71" s="351"/>
+      <c r="Z71" s="352"/>
+      <c r="AA71" s="335"/>
+      <c r="AB71" s="336"/>
+      <c r="AC71" s="336"/>
+      <c r="AD71" s="337"/>
+      <c r="AE71" s="319"/>
+      <c r="AF71" s="320"/>
+      <c r="AG71" s="320"/>
+      <c r="AH71" s="320"/>
+      <c r="AI71" s="321"/>
+      <c r="AJ71" s="335"/>
+      <c r="AK71" s="336"/>
+      <c r="AL71" s="336"/>
+      <c r="AM71" s="337"/>
+      <c r="AN71" s="319"/>
+      <c r="AO71" s="320"/>
+      <c r="AP71" s="320"/>
+      <c r="AQ71" s="320"/>
+      <c r="AR71" s="321"/>
+      <c r="AS71" s="335"/>
+      <c r="AT71" s="336"/>
+      <c r="AU71" s="336"/>
+      <c r="AV71" s="337"/>
       <c r="AW71" s="189"/>
     </row>
     <row r="72" spans="1:49" ht="13.5" customHeight="1">
       <c r="A72" s="30"/>
-      <c r="B72" s="256"/>
-      <c r="C72" s="257"/>
-      <c r="D72" s="244"/>
-      <c r="E72" s="245"/>
-      <c r="F72" s="245"/>
-      <c r="G72" s="245"/>
-      <c r="H72" s="246"/>
-      <c r="I72" s="258"/>
-      <c r="J72" s="259"/>
-      <c r="K72" s="259"/>
-      <c r="L72" s="259"/>
-      <c r="M72" s="259"/>
-      <c r="N72" s="259"/>
-      <c r="O72" s="259"/>
-      <c r="P72" s="259"/>
-      <c r="Q72" s="259"/>
-      <c r="R72" s="259"/>
-      <c r="S72" s="259"/>
-      <c r="T72" s="259"/>
-      <c r="U72" s="259"/>
-      <c r="V72" s="259"/>
-      <c r="W72" s="259"/>
-      <c r="X72" s="259"/>
-      <c r="Y72" s="259"/>
-      <c r="Z72" s="260"/>
-      <c r="AA72" s="250"/>
-      <c r="AB72" s="251"/>
-      <c r="AC72" s="251"/>
-      <c r="AD72" s="252"/>
-      <c r="AE72" s="244"/>
-      <c r="AF72" s="245"/>
-      <c r="AG72" s="245"/>
-      <c r="AH72" s="245"/>
-      <c r="AI72" s="246"/>
-      <c r="AJ72" s="250"/>
-      <c r="AK72" s="251"/>
-      <c r="AL72" s="251"/>
-      <c r="AM72" s="252"/>
-      <c r="AN72" s="244"/>
-      <c r="AO72" s="245"/>
-      <c r="AP72" s="245"/>
-      <c r="AQ72" s="245"/>
-      <c r="AR72" s="246"/>
-      <c r="AS72" s="250"/>
-      <c r="AT72" s="251"/>
-      <c r="AU72" s="251"/>
-      <c r="AV72" s="252"/>
+      <c r="B72" s="331"/>
+      <c r="C72" s="332"/>
+      <c r="D72" s="319"/>
+      <c r="E72" s="320"/>
+      <c r="F72" s="320"/>
+      <c r="G72" s="320"/>
+      <c r="H72" s="321"/>
+      <c r="I72" s="350"/>
+      <c r="J72" s="351"/>
+      <c r="K72" s="351"/>
+      <c r="L72" s="351"/>
+      <c r="M72" s="351"/>
+      <c r="N72" s="351"/>
+      <c r="O72" s="351"/>
+      <c r="P72" s="351"/>
+      <c r="Q72" s="351"/>
+      <c r="R72" s="351"/>
+      <c r="S72" s="351"/>
+      <c r="T72" s="351"/>
+      <c r="U72" s="351"/>
+      <c r="V72" s="351"/>
+      <c r="W72" s="351"/>
+      <c r="X72" s="351"/>
+      <c r="Y72" s="351"/>
+      <c r="Z72" s="352"/>
+      <c r="AA72" s="335"/>
+      <c r="AB72" s="336"/>
+      <c r="AC72" s="336"/>
+      <c r="AD72" s="337"/>
+      <c r="AE72" s="319"/>
+      <c r="AF72" s="320"/>
+      <c r="AG72" s="320"/>
+      <c r="AH72" s="320"/>
+      <c r="AI72" s="321"/>
+      <c r="AJ72" s="335"/>
+      <c r="AK72" s="336"/>
+      <c r="AL72" s="336"/>
+      <c r="AM72" s="337"/>
+      <c r="AN72" s="319"/>
+      <c r="AO72" s="320"/>
+      <c r="AP72" s="320"/>
+      <c r="AQ72" s="320"/>
+      <c r="AR72" s="321"/>
+      <c r="AS72" s="335"/>
+      <c r="AT72" s="336"/>
+      <c r="AU72" s="336"/>
+      <c r="AV72" s="337"/>
       <c r="AW72" s="189"/>
     </row>
     <row r="73" spans="1:49" ht="13.5" customHeight="1">
       <c r="A73" s="30"/>
-      <c r="B73" s="256"/>
-      <c r="C73" s="257"/>
-      <c r="D73" s="244"/>
-      <c r="E73" s="245"/>
-      <c r="F73" s="245"/>
-      <c r="G73" s="245"/>
-      <c r="H73" s="246"/>
-      <c r="I73" s="258"/>
-      <c r="J73" s="259"/>
-      <c r="K73" s="259"/>
-      <c r="L73" s="259"/>
-      <c r="M73" s="259"/>
-      <c r="N73" s="259"/>
-      <c r="O73" s="259"/>
-      <c r="P73" s="259"/>
-      <c r="Q73" s="259"/>
-      <c r="R73" s="259"/>
-      <c r="S73" s="259"/>
-      <c r="T73" s="259"/>
-      <c r="U73" s="259"/>
-      <c r="V73" s="259"/>
-      <c r="W73" s="259"/>
-      <c r="X73" s="259"/>
-      <c r="Y73" s="259"/>
-      <c r="Z73" s="260"/>
-      <c r="AA73" s="250"/>
-      <c r="AB73" s="251"/>
-      <c r="AC73" s="251"/>
-      <c r="AD73" s="252"/>
-      <c r="AE73" s="244"/>
-      <c r="AF73" s="245"/>
-      <c r="AG73" s="245"/>
-      <c r="AH73" s="245"/>
-      <c r="AI73" s="246"/>
-      <c r="AJ73" s="250"/>
-      <c r="AK73" s="251"/>
-      <c r="AL73" s="251"/>
-      <c r="AM73" s="252"/>
-      <c r="AN73" s="244"/>
-      <c r="AO73" s="245"/>
-      <c r="AP73" s="245"/>
-      <c r="AQ73" s="245"/>
-      <c r="AR73" s="246"/>
-      <c r="AS73" s="250"/>
-      <c r="AT73" s="251"/>
-      <c r="AU73" s="251"/>
-      <c r="AV73" s="252"/>
+      <c r="B73" s="331"/>
+      <c r="C73" s="332"/>
+      <c r="D73" s="319"/>
+      <c r="E73" s="320"/>
+      <c r="F73" s="320"/>
+      <c r="G73" s="320"/>
+      <c r="H73" s="321"/>
+      <c r="I73" s="350"/>
+      <c r="J73" s="351"/>
+      <c r="K73" s="351"/>
+      <c r="L73" s="351"/>
+      <c r="M73" s="351"/>
+      <c r="N73" s="351"/>
+      <c r="O73" s="351"/>
+      <c r="P73" s="351"/>
+      <c r="Q73" s="351"/>
+      <c r="R73" s="351"/>
+      <c r="S73" s="351"/>
+      <c r="T73" s="351"/>
+      <c r="U73" s="351"/>
+      <c r="V73" s="351"/>
+      <c r="W73" s="351"/>
+      <c r="X73" s="351"/>
+      <c r="Y73" s="351"/>
+      <c r="Z73" s="352"/>
+      <c r="AA73" s="335"/>
+      <c r="AB73" s="336"/>
+      <c r="AC73" s="336"/>
+      <c r="AD73" s="337"/>
+      <c r="AE73" s="319"/>
+      <c r="AF73" s="320"/>
+      <c r="AG73" s="320"/>
+      <c r="AH73" s="320"/>
+      <c r="AI73" s="321"/>
+      <c r="AJ73" s="335"/>
+      <c r="AK73" s="336"/>
+      <c r="AL73" s="336"/>
+      <c r="AM73" s="337"/>
+      <c r="AN73" s="319"/>
+      <c r="AO73" s="320"/>
+      <c r="AP73" s="320"/>
+      <c r="AQ73" s="320"/>
+      <c r="AR73" s="321"/>
+      <c r="AS73" s="335"/>
+      <c r="AT73" s="336"/>
+      <c r="AU73" s="336"/>
+      <c r="AV73" s="337"/>
       <c r="AW73" s="189"/>
     </row>
     <row r="74" spans="1:49" ht="13.5" customHeight="1">
       <c r="A74" s="30"/>
-      <c r="B74" s="256"/>
-      <c r="C74" s="257"/>
-      <c r="D74" s="244"/>
-      <c r="E74" s="245"/>
-      <c r="F74" s="245"/>
-      <c r="G74" s="245"/>
-      <c r="H74" s="246"/>
-      <c r="I74" s="258"/>
-      <c r="J74" s="259"/>
-      <c r="K74" s="259"/>
-      <c r="L74" s="259"/>
-      <c r="M74" s="259"/>
-      <c r="N74" s="259"/>
-      <c r="O74" s="259"/>
-      <c r="P74" s="259"/>
-      <c r="Q74" s="259"/>
-      <c r="R74" s="259"/>
-      <c r="S74" s="259"/>
-      <c r="T74" s="259"/>
-      <c r="U74" s="259"/>
-      <c r="V74" s="259"/>
-      <c r="W74" s="259"/>
-      <c r="X74" s="259"/>
-      <c r="Y74" s="259"/>
-      <c r="Z74" s="260"/>
-      <c r="AA74" s="250"/>
-      <c r="AB74" s="251"/>
-      <c r="AC74" s="251"/>
-      <c r="AD74" s="252"/>
-      <c r="AE74" s="244"/>
-      <c r="AF74" s="245"/>
-      <c r="AG74" s="245"/>
-      <c r="AH74" s="245"/>
-      <c r="AI74" s="246"/>
-      <c r="AJ74" s="250"/>
-      <c r="AK74" s="251"/>
-      <c r="AL74" s="251"/>
-      <c r="AM74" s="252"/>
-      <c r="AN74" s="244"/>
-      <c r="AO74" s="245"/>
-      <c r="AP74" s="245"/>
-      <c r="AQ74" s="245"/>
-      <c r="AR74" s="246"/>
-      <c r="AS74" s="250"/>
-      <c r="AT74" s="251"/>
-      <c r="AU74" s="251"/>
-      <c r="AV74" s="252"/>
+      <c r="B74" s="331"/>
+      <c r="C74" s="332"/>
+      <c r="D74" s="319"/>
+      <c r="E74" s="320"/>
+      <c r="F74" s="320"/>
+      <c r="G74" s="320"/>
+      <c r="H74" s="321"/>
+      <c r="I74" s="350"/>
+      <c r="J74" s="351"/>
+      <c r="K74" s="351"/>
+      <c r="L74" s="351"/>
+      <c r="M74" s="351"/>
+      <c r="N74" s="351"/>
+      <c r="O74" s="351"/>
+      <c r="P74" s="351"/>
+      <c r="Q74" s="351"/>
+      <c r="R74" s="351"/>
+      <c r="S74" s="351"/>
+      <c r="T74" s="351"/>
+      <c r="U74" s="351"/>
+      <c r="V74" s="351"/>
+      <c r="W74" s="351"/>
+      <c r="X74" s="351"/>
+      <c r="Y74" s="351"/>
+      <c r="Z74" s="352"/>
+      <c r="AA74" s="335"/>
+      <c r="AB74" s="336"/>
+      <c r="AC74" s="336"/>
+      <c r="AD74" s="337"/>
+      <c r="AE74" s="319"/>
+      <c r="AF74" s="320"/>
+      <c r="AG74" s="320"/>
+      <c r="AH74" s="320"/>
+      <c r="AI74" s="321"/>
+      <c r="AJ74" s="335"/>
+      <c r="AK74" s="336"/>
+      <c r="AL74" s="336"/>
+      <c r="AM74" s="337"/>
+      <c r="AN74" s="319"/>
+      <c r="AO74" s="320"/>
+      <c r="AP74" s="320"/>
+      <c r="AQ74" s="320"/>
+      <c r="AR74" s="321"/>
+      <c r="AS74" s="335"/>
+      <c r="AT74" s="336"/>
+      <c r="AU74" s="336"/>
+      <c r="AV74" s="337"/>
       <c r="AW74" s="189"/>
     </row>
     <row r="75" spans="1:49" ht="13.5" customHeight="1">
       <c r="A75" s="30"/>
-      <c r="B75" s="256"/>
-      <c r="C75" s="257"/>
-      <c r="D75" s="244"/>
-      <c r="E75" s="245"/>
-      <c r="F75" s="245"/>
-      <c r="G75" s="245"/>
-      <c r="H75" s="246"/>
-      <c r="I75" s="258"/>
-      <c r="J75" s="259"/>
-      <c r="K75" s="259"/>
-      <c r="L75" s="259"/>
-      <c r="M75" s="259"/>
-      <c r="N75" s="259"/>
-      <c r="O75" s="259"/>
-      <c r="P75" s="259"/>
-      <c r="Q75" s="259"/>
-      <c r="R75" s="259"/>
-      <c r="S75" s="259"/>
-      <c r="T75" s="259"/>
-      <c r="U75" s="259"/>
-      <c r="V75" s="259"/>
-      <c r="W75" s="259"/>
-      <c r="X75" s="259"/>
-      <c r="Y75" s="259"/>
-      <c r="Z75" s="260"/>
-      <c r="AA75" s="250"/>
-      <c r="AB75" s="251"/>
-      <c r="AC75" s="251"/>
-      <c r="AD75" s="252"/>
-      <c r="AE75" s="244"/>
-      <c r="AF75" s="245"/>
-      <c r="AG75" s="245"/>
-      <c r="AH75" s="245"/>
-      <c r="AI75" s="246"/>
-      <c r="AJ75" s="250"/>
-      <c r="AK75" s="251"/>
-      <c r="AL75" s="251"/>
-      <c r="AM75" s="252"/>
-      <c r="AN75" s="244"/>
-      <c r="AO75" s="245"/>
-      <c r="AP75" s="245"/>
-      <c r="AQ75" s="245"/>
-      <c r="AR75" s="246"/>
-      <c r="AS75" s="250"/>
-      <c r="AT75" s="251"/>
-      <c r="AU75" s="251"/>
-      <c r="AV75" s="252"/>
+      <c r="B75" s="331"/>
+      <c r="C75" s="332"/>
+      <c r="D75" s="319"/>
+      <c r="E75" s="320"/>
+      <c r="F75" s="320"/>
+      <c r="G75" s="320"/>
+      <c r="H75" s="321"/>
+      <c r="I75" s="350"/>
+      <c r="J75" s="351"/>
+      <c r="K75" s="351"/>
+      <c r="L75" s="351"/>
+      <c r="M75" s="351"/>
+      <c r="N75" s="351"/>
+      <c r="O75" s="351"/>
+      <c r="P75" s="351"/>
+      <c r="Q75" s="351"/>
+      <c r="R75" s="351"/>
+      <c r="S75" s="351"/>
+      <c r="T75" s="351"/>
+      <c r="U75" s="351"/>
+      <c r="V75" s="351"/>
+      <c r="W75" s="351"/>
+      <c r="X75" s="351"/>
+      <c r="Y75" s="351"/>
+      <c r="Z75" s="352"/>
+      <c r="AA75" s="335"/>
+      <c r="AB75" s="336"/>
+      <c r="AC75" s="336"/>
+      <c r="AD75" s="337"/>
+      <c r="AE75" s="319"/>
+      <c r="AF75" s="320"/>
+      <c r="AG75" s="320"/>
+      <c r="AH75" s="320"/>
+      <c r="AI75" s="321"/>
+      <c r="AJ75" s="335"/>
+      <c r="AK75" s="336"/>
+      <c r="AL75" s="336"/>
+      <c r="AM75" s="337"/>
+      <c r="AN75" s="319"/>
+      <c r="AO75" s="320"/>
+      <c r="AP75" s="320"/>
+      <c r="AQ75" s="320"/>
+      <c r="AR75" s="321"/>
+      <c r="AS75" s="335"/>
+      <c r="AT75" s="336"/>
+      <c r="AU75" s="336"/>
+      <c r="AV75" s="337"/>
       <c r="AW75" s="189"/>
     </row>
     <row r="76" spans="1:49" ht="13.5" customHeight="1">
       <c r="A76" s="30"/>
-      <c r="B76" s="256"/>
-      <c r="C76" s="257"/>
-      <c r="D76" s="244"/>
-      <c r="E76" s="245"/>
-      <c r="F76" s="245"/>
-      <c r="G76" s="245"/>
-      <c r="H76" s="246"/>
-      <c r="I76" s="258"/>
-      <c r="J76" s="259"/>
-      <c r="K76" s="259"/>
-      <c r="L76" s="259"/>
-      <c r="M76" s="259"/>
-      <c r="N76" s="259"/>
-      <c r="O76" s="259"/>
-      <c r="P76" s="259"/>
-      <c r="Q76" s="259"/>
-      <c r="R76" s="259"/>
-      <c r="S76" s="259"/>
-      <c r="T76" s="259"/>
-      <c r="U76" s="259"/>
-      <c r="V76" s="259"/>
-      <c r="W76" s="259"/>
-      <c r="X76" s="259"/>
-      <c r="Y76" s="259"/>
-      <c r="Z76" s="260"/>
-      <c r="AA76" s="250"/>
-      <c r="AB76" s="251"/>
-      <c r="AC76" s="251"/>
-      <c r="AD76" s="252"/>
-      <c r="AE76" s="244"/>
-      <c r="AF76" s="245"/>
-      <c r="AG76" s="245"/>
-      <c r="AH76" s="245"/>
-      <c r="AI76" s="246"/>
-      <c r="AJ76" s="250"/>
-      <c r="AK76" s="251"/>
-      <c r="AL76" s="251"/>
-      <c r="AM76" s="252"/>
-      <c r="AN76" s="244"/>
-      <c r="AO76" s="245"/>
-      <c r="AP76" s="245"/>
-      <c r="AQ76" s="245"/>
-      <c r="AR76" s="246"/>
-      <c r="AS76" s="250"/>
-      <c r="AT76" s="251"/>
-      <c r="AU76" s="251"/>
-      <c r="AV76" s="252"/>
+      <c r="B76" s="331"/>
+      <c r="C76" s="332"/>
+      <c r="D76" s="319"/>
+      <c r="E76" s="320"/>
+      <c r="F76" s="320"/>
+      <c r="G76" s="320"/>
+      <c r="H76" s="321"/>
+      <c r="I76" s="350"/>
+      <c r="J76" s="351"/>
+      <c r="K76" s="351"/>
+      <c r="L76" s="351"/>
+      <c r="M76" s="351"/>
+      <c r="N76" s="351"/>
+      <c r="O76" s="351"/>
+      <c r="P76" s="351"/>
+      <c r="Q76" s="351"/>
+      <c r="R76" s="351"/>
+      <c r="S76" s="351"/>
+      <c r="T76" s="351"/>
+      <c r="U76" s="351"/>
+      <c r="V76" s="351"/>
+      <c r="W76" s="351"/>
+      <c r="X76" s="351"/>
+      <c r="Y76" s="351"/>
+      <c r="Z76" s="352"/>
+      <c r="AA76" s="335"/>
+      <c r="AB76" s="336"/>
+      <c r="AC76" s="336"/>
+      <c r="AD76" s="337"/>
+      <c r="AE76" s="319"/>
+      <c r="AF76" s="320"/>
+      <c r="AG76" s="320"/>
+      <c r="AH76" s="320"/>
+      <c r="AI76" s="321"/>
+      <c r="AJ76" s="335"/>
+      <c r="AK76" s="336"/>
+      <c r="AL76" s="336"/>
+      <c r="AM76" s="337"/>
+      <c r="AN76" s="319"/>
+      <c r="AO76" s="320"/>
+      <c r="AP76" s="320"/>
+      <c r="AQ76" s="320"/>
+      <c r="AR76" s="321"/>
+      <c r="AS76" s="335"/>
+      <c r="AT76" s="336"/>
+      <c r="AU76" s="336"/>
+      <c r="AV76" s="337"/>
       <c r="AW76" s="189"/>
     </row>
     <row r="77" spans="1:49" ht="13.5" customHeight="1">
       <c r="A77" s="30"/>
-      <c r="B77" s="256"/>
-      <c r="C77" s="257"/>
-      <c r="D77" s="244"/>
-      <c r="E77" s="245"/>
-      <c r="F77" s="245"/>
-      <c r="G77" s="245"/>
-      <c r="H77" s="246"/>
-      <c r="I77" s="258"/>
-      <c r="J77" s="259"/>
-      <c r="K77" s="259"/>
-      <c r="L77" s="259"/>
-      <c r="M77" s="259"/>
-      <c r="N77" s="259"/>
-      <c r="O77" s="259"/>
-      <c r="P77" s="259"/>
-      <c r="Q77" s="259"/>
-      <c r="R77" s="259"/>
-      <c r="S77" s="259"/>
-      <c r="T77" s="259"/>
-      <c r="U77" s="259"/>
-      <c r="V77" s="259"/>
-      <c r="W77" s="259"/>
-      <c r="X77" s="259"/>
-      <c r="Y77" s="259"/>
-      <c r="Z77" s="260"/>
-      <c r="AA77" s="250"/>
-      <c r="AB77" s="251"/>
-      <c r="AC77" s="251"/>
-      <c r="AD77" s="252"/>
-      <c r="AE77" s="244"/>
-      <c r="AF77" s="245"/>
-      <c r="AG77" s="245"/>
-      <c r="AH77" s="245"/>
-      <c r="AI77" s="246"/>
-      <c r="AJ77" s="250"/>
-      <c r="AK77" s="251"/>
-      <c r="AL77" s="251"/>
-      <c r="AM77" s="252"/>
-      <c r="AN77" s="244"/>
-      <c r="AO77" s="245"/>
-      <c r="AP77" s="245"/>
-      <c r="AQ77" s="245"/>
-      <c r="AR77" s="246"/>
-      <c r="AS77" s="250"/>
-      <c r="AT77" s="251"/>
-      <c r="AU77" s="251"/>
-      <c r="AV77" s="252"/>
+      <c r="B77" s="331"/>
+      <c r="C77" s="332"/>
+      <c r="D77" s="319"/>
+      <c r="E77" s="320"/>
+      <c r="F77" s="320"/>
+      <c r="G77" s="320"/>
+      <c r="H77" s="321"/>
+      <c r="I77" s="350"/>
+      <c r="J77" s="351"/>
+      <c r="K77" s="351"/>
+      <c r="L77" s="351"/>
+      <c r="M77" s="351"/>
+      <c r="N77" s="351"/>
+      <c r="O77" s="351"/>
+      <c r="P77" s="351"/>
+      <c r="Q77" s="351"/>
+      <c r="R77" s="351"/>
+      <c r="S77" s="351"/>
+      <c r="T77" s="351"/>
+      <c r="U77" s="351"/>
+      <c r="V77" s="351"/>
+      <c r="W77" s="351"/>
+      <c r="X77" s="351"/>
+      <c r="Y77" s="351"/>
+      <c r="Z77" s="352"/>
+      <c r="AA77" s="335"/>
+      <c r="AB77" s="336"/>
+      <c r="AC77" s="336"/>
+      <c r="AD77" s="337"/>
+      <c r="AE77" s="319"/>
+      <c r="AF77" s="320"/>
+      <c r="AG77" s="320"/>
+      <c r="AH77" s="320"/>
+      <c r="AI77" s="321"/>
+      <c r="AJ77" s="335"/>
+      <c r="AK77" s="336"/>
+      <c r="AL77" s="336"/>
+      <c r="AM77" s="337"/>
+      <c r="AN77" s="319"/>
+      <c r="AO77" s="320"/>
+      <c r="AP77" s="320"/>
+      <c r="AQ77" s="320"/>
+      <c r="AR77" s="321"/>
+      <c r="AS77" s="335"/>
+      <c r="AT77" s="336"/>
+      <c r="AU77" s="336"/>
+      <c r="AV77" s="337"/>
       <c r="AW77" s="189"/>
     </row>
     <row r="78" spans="1:49" ht="13.5" customHeight="1">
       <c r="A78" s="30"/>
-      <c r="B78" s="261"/>
-      <c r="C78" s="262"/>
-      <c r="D78" s="247"/>
-      <c r="E78" s="248"/>
-      <c r="F78" s="248"/>
-      <c r="G78" s="248"/>
-      <c r="H78" s="249"/>
-      <c r="I78" s="263"/>
-      <c r="J78" s="264"/>
-      <c r="K78" s="264"/>
-      <c r="L78" s="264"/>
-      <c r="M78" s="264"/>
-      <c r="N78" s="264"/>
-      <c r="O78" s="264"/>
-      <c r="P78" s="264"/>
-      <c r="Q78" s="264"/>
-      <c r="R78" s="264"/>
-      <c r="S78" s="264"/>
-      <c r="T78" s="264"/>
-      <c r="U78" s="264"/>
-      <c r="V78" s="264"/>
-      <c r="W78" s="264"/>
-      <c r="X78" s="264"/>
-      <c r="Y78" s="264"/>
-      <c r="Z78" s="265"/>
-      <c r="AA78" s="253"/>
-      <c r="AB78" s="254"/>
-      <c r="AC78" s="254"/>
-      <c r="AD78" s="255"/>
-      <c r="AE78" s="247"/>
-      <c r="AF78" s="248"/>
-      <c r="AG78" s="248"/>
-      <c r="AH78" s="248"/>
-      <c r="AI78" s="249"/>
-      <c r="AJ78" s="253"/>
-      <c r="AK78" s="254"/>
-      <c r="AL78" s="254"/>
-      <c r="AM78" s="255"/>
-      <c r="AN78" s="247"/>
-      <c r="AO78" s="248"/>
-      <c r="AP78" s="248"/>
-      <c r="AQ78" s="248"/>
-      <c r="AR78" s="249"/>
-      <c r="AS78" s="253"/>
-      <c r="AT78" s="254"/>
-      <c r="AU78" s="254"/>
-      <c r="AV78" s="255"/>
+      <c r="B78" s="381"/>
+      <c r="C78" s="382"/>
+      <c r="D78" s="375"/>
+      <c r="E78" s="376"/>
+      <c r="F78" s="376"/>
+      <c r="G78" s="376"/>
+      <c r="H78" s="377"/>
+      <c r="I78" s="383"/>
+      <c r="J78" s="384"/>
+      <c r="K78" s="384"/>
+      <c r="L78" s="384"/>
+      <c r="M78" s="384"/>
+      <c r="N78" s="384"/>
+      <c r="O78" s="384"/>
+      <c r="P78" s="384"/>
+      <c r="Q78" s="384"/>
+      <c r="R78" s="384"/>
+      <c r="S78" s="384"/>
+      <c r="T78" s="384"/>
+      <c r="U78" s="384"/>
+      <c r="V78" s="384"/>
+      <c r="W78" s="384"/>
+      <c r="X78" s="384"/>
+      <c r="Y78" s="384"/>
+      <c r="Z78" s="385"/>
+      <c r="AA78" s="378"/>
+      <c r="AB78" s="379"/>
+      <c r="AC78" s="379"/>
+      <c r="AD78" s="380"/>
+      <c r="AE78" s="375"/>
+      <c r="AF78" s="376"/>
+      <c r="AG78" s="376"/>
+      <c r="AH78" s="376"/>
+      <c r="AI78" s="377"/>
+      <c r="AJ78" s="378"/>
+      <c r="AK78" s="379"/>
+      <c r="AL78" s="379"/>
+      <c r="AM78" s="380"/>
+      <c r="AN78" s="375"/>
+      <c r="AO78" s="376"/>
+      <c r="AP78" s="376"/>
+      <c r="AQ78" s="376"/>
+      <c r="AR78" s="377"/>
+      <c r="AS78" s="378"/>
+      <c r="AT78" s="379"/>
+      <c r="AU78" s="379"/>
+      <c r="AV78" s="380"/>
       <c r="AW78" s="189"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1">
@@ -21505,192 +21523,192 @@
       <c r="AW80" s="190"/>
     </row>
     <row r="81" spans="1:50" s="22" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
-      <c r="A81" s="266" t="s">
+      <c r="A81" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="267"/>
-      <c r="C81" s="267"/>
-      <c r="D81" s="267"/>
-      <c r="E81" s="267"/>
-      <c r="F81" s="267"/>
-      <c r="G81" s="267"/>
-      <c r="H81" s="267"/>
-      <c r="I81" s="268"/>
-      <c r="J81" s="275" t="s">
+      <c r="B81" s="247"/>
+      <c r="C81" s="247"/>
+      <c r="D81" s="247"/>
+      <c r="E81" s="247"/>
+      <c r="F81" s="247"/>
+      <c r="G81" s="247"/>
+      <c r="H81" s="247"/>
+      <c r="I81" s="248"/>
+      <c r="J81" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="K81" s="267"/>
-      <c r="L81" s="267"/>
-      <c r="M81" s="267"/>
-      <c r="N81" s="267"/>
-      <c r="O81" s="268"/>
-      <c r="P81" s="275" t="s">
+      <c r="K81" s="247"/>
+      <c r="L81" s="247"/>
+      <c r="M81" s="247"/>
+      <c r="N81" s="247"/>
+      <c r="O81" s="248"/>
+      <c r="P81" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="Q81" s="267"/>
-      <c r="R81" s="267"/>
-      <c r="S81" s="267"/>
-      <c r="T81" s="267"/>
-      <c r="U81" s="268"/>
-      <c r="V81" s="281" t="s">
+      <c r="Q81" s="247"/>
+      <c r="R81" s="247"/>
+      <c r="S81" s="247"/>
+      <c r="T81" s="247"/>
+      <c r="U81" s="248"/>
+      <c r="V81" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="W81" s="282"/>
-      <c r="X81" s="282"/>
-      <c r="Y81" s="282"/>
-      <c r="Z81" s="283"/>
-      <c r="AA81" s="287" t="str">
+      <c r="W81" s="263"/>
+      <c r="X81" s="263"/>
+      <c r="Y81" s="263"/>
+      <c r="Z81" s="264"/>
+      <c r="AA81" s="374" t="str">
         <f>AA41</f>
         <v>Đọc truyện tiểu thuyết</v>
       </c>
-      <c r="AB81" s="267"/>
-      <c r="AC81" s="267"/>
-      <c r="AD81" s="267"/>
-      <c r="AE81" s="267"/>
-      <c r="AF81" s="267"/>
-      <c r="AG81" s="267"/>
-      <c r="AH81" s="267"/>
-      <c r="AI81" s="267"/>
-      <c r="AJ81" s="267"/>
-      <c r="AK81" s="267"/>
-      <c r="AL81" s="268"/>
-      <c r="AM81" s="276" t="s">
+      <c r="AB81" s="247"/>
+      <c r="AC81" s="247"/>
+      <c r="AD81" s="247"/>
+      <c r="AE81" s="247"/>
+      <c r="AF81" s="247"/>
+      <c r="AG81" s="247"/>
+      <c r="AH81" s="247"/>
+      <c r="AI81" s="247"/>
+      <c r="AJ81" s="247"/>
+      <c r="AK81" s="247"/>
+      <c r="AL81" s="248"/>
+      <c r="AM81" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AN81" s="277"/>
-      <c r="AO81" s="289" t="str">
+      <c r="AN81" s="283"/>
+      <c r="AO81" s="290" t="str">
         <f>AO41</f>
         <v>Bùi Phi Long</v>
       </c>
-      <c r="AP81" s="290"/>
-      <c r="AQ81" s="291"/>
-      <c r="AR81" s="276" t="s">
+      <c r="AP81" s="291"/>
+      <c r="AQ81" s="292"/>
+      <c r="AR81" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="AS81" s="277"/>
-      <c r="AT81" s="278">
+      <c r="AS81" s="283"/>
+      <c r="AT81" s="301">
         <f>AT41</f>
         <v>45240</v>
       </c>
-      <c r="AU81" s="279"/>
-      <c r="AV81" s="279"/>
-      <c r="AW81" s="280"/>
+      <c r="AU81" s="302"/>
+      <c r="AV81" s="302"/>
+      <c r="AW81" s="303"/>
     </row>
     <row r="82" spans="1:50" s="22" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A82" s="269"/>
-      <c r="B82" s="270"/>
-      <c r="C82" s="270"/>
-      <c r="D82" s="270"/>
-      <c r="E82" s="270"/>
-      <c r="F82" s="270"/>
-      <c r="G82" s="270"/>
-      <c r="H82" s="270"/>
-      <c r="I82" s="271"/>
-      <c r="J82" s="269"/>
-      <c r="K82" s="270"/>
-      <c r="L82" s="270"/>
-      <c r="M82" s="270"/>
-      <c r="N82" s="270"/>
-      <c r="O82" s="271"/>
-      <c r="P82" s="269"/>
-      <c r="Q82" s="270"/>
-      <c r="R82" s="270"/>
-      <c r="S82" s="270"/>
-      <c r="T82" s="270"/>
-      <c r="U82" s="271"/>
-      <c r="V82" s="284"/>
-      <c r="W82" s="285"/>
-      <c r="X82" s="285"/>
-      <c r="Y82" s="285"/>
-      <c r="Z82" s="286"/>
-      <c r="AA82" s="288"/>
-      <c r="AB82" s="270"/>
-      <c r="AC82" s="270"/>
-      <c r="AD82" s="270"/>
-      <c r="AE82" s="270"/>
-      <c r="AF82" s="270"/>
-      <c r="AG82" s="270"/>
-      <c r="AH82" s="270"/>
-      <c r="AI82" s="270"/>
-      <c r="AJ82" s="270"/>
-      <c r="AK82" s="270"/>
-      <c r="AL82" s="271"/>
-      <c r="AM82" s="304" t="s">
+      <c r="A82" s="249"/>
+      <c r="B82" s="250"/>
+      <c r="C82" s="250"/>
+      <c r="D82" s="250"/>
+      <c r="E82" s="250"/>
+      <c r="F82" s="250"/>
+      <c r="G82" s="250"/>
+      <c r="H82" s="250"/>
+      <c r="I82" s="251"/>
+      <c r="J82" s="249"/>
+      <c r="K82" s="250"/>
+      <c r="L82" s="250"/>
+      <c r="M82" s="250"/>
+      <c r="N82" s="250"/>
+      <c r="O82" s="251"/>
+      <c r="P82" s="249"/>
+      <c r="Q82" s="250"/>
+      <c r="R82" s="250"/>
+      <c r="S82" s="250"/>
+      <c r="T82" s="250"/>
+      <c r="U82" s="251"/>
+      <c r="V82" s="265"/>
+      <c r="W82" s="266"/>
+      <c r="X82" s="266"/>
+      <c r="Y82" s="266"/>
+      <c r="Z82" s="267"/>
+      <c r="AA82" s="269"/>
+      <c r="AB82" s="250"/>
+      <c r="AC82" s="250"/>
+      <c r="AD82" s="250"/>
+      <c r="AE82" s="250"/>
+      <c r="AF82" s="250"/>
+      <c r="AG82" s="250"/>
+      <c r="AH82" s="250"/>
+      <c r="AI82" s="250"/>
+      <c r="AJ82" s="250"/>
+      <c r="AK82" s="250"/>
+      <c r="AL82" s="251"/>
+      <c r="AM82" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AN82" s="305"/>
-      <c r="AO82" s="306"/>
-      <c r="AP82" s="307"/>
-      <c r="AQ82" s="308"/>
-      <c r="AR82" s="304" t="s">
+      <c r="AN82" s="294"/>
+      <c r="AO82" s="295"/>
+      <c r="AP82" s="296"/>
+      <c r="AQ82" s="297"/>
+      <c r="AR82" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AS82" s="305"/>
-      <c r="AT82" s="309"/>
-      <c r="AU82" s="310"/>
-      <c r="AV82" s="310"/>
-      <c r="AW82" s="311"/>
+      <c r="AS82" s="294"/>
+      <c r="AT82" s="298"/>
+      <c r="AU82" s="299"/>
+      <c r="AV82" s="299"/>
+      <c r="AW82" s="300"/>
     </row>
     <row r="83" spans="1:50" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A83" s="272"/>
-      <c r="B83" s="273"/>
-      <c r="C83" s="273"/>
-      <c r="D83" s="273"/>
-      <c r="E83" s="273"/>
-      <c r="F83" s="273"/>
-      <c r="G83" s="273"/>
-      <c r="H83" s="273"/>
-      <c r="I83" s="274"/>
-      <c r="J83" s="272"/>
-      <c r="K83" s="273"/>
-      <c r="L83" s="273"/>
-      <c r="M83" s="273"/>
-      <c r="N83" s="273"/>
-      <c r="O83" s="274"/>
-      <c r="P83" s="272"/>
-      <c r="Q83" s="273"/>
-      <c r="R83" s="273"/>
-      <c r="S83" s="273"/>
-      <c r="T83" s="273"/>
-      <c r="U83" s="274"/>
-      <c r="V83" s="292" t="s">
+      <c r="A83" s="252"/>
+      <c r="B83" s="253"/>
+      <c r="C83" s="253"/>
+      <c r="D83" s="253"/>
+      <c r="E83" s="253"/>
+      <c r="F83" s="253"/>
+      <c r="G83" s="253"/>
+      <c r="H83" s="253"/>
+      <c r="I83" s="254"/>
+      <c r="J83" s="252"/>
+      <c r="K83" s="253"/>
+      <c r="L83" s="253"/>
+      <c r="M83" s="253"/>
+      <c r="N83" s="253"/>
+      <c r="O83" s="254"/>
+      <c r="P83" s="252"/>
+      <c r="Q83" s="253"/>
+      <c r="R83" s="253"/>
+      <c r="S83" s="253"/>
+      <c r="T83" s="253"/>
+      <c r="U83" s="254"/>
+      <c r="V83" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="W83" s="293"/>
-      <c r="X83" s="293"/>
-      <c r="Y83" s="293"/>
-      <c r="Z83" s="294"/>
-      <c r="AA83" s="295" t="str">
+      <c r="W83" s="260"/>
+      <c r="X83" s="260"/>
+      <c r="Y83" s="260"/>
+      <c r="Z83" s="261"/>
+      <c r="AA83" s="256" t="str">
         <f>AA43</f>
         <v>NovelCreate</v>
       </c>
-      <c r="AB83" s="296"/>
-      <c r="AC83" s="296"/>
-      <c r="AD83" s="296"/>
-      <c r="AE83" s="296"/>
-      <c r="AF83" s="296"/>
-      <c r="AG83" s="297"/>
-      <c r="AH83" s="298" t="s">
+      <c r="AB83" s="257"/>
+      <c r="AC83" s="257"/>
+      <c r="AD83" s="257"/>
+      <c r="AE83" s="257"/>
+      <c r="AF83" s="257"/>
+      <c r="AG83" s="258"/>
+      <c r="AH83" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="AI83" s="299"/>
-      <c r="AJ83" s="299"/>
-      <c r="AK83" s="299"/>
-      <c r="AL83" s="300"/>
-      <c r="AM83" s="301" t="str">
+      <c r="AI83" s="285"/>
+      <c r="AJ83" s="285"/>
+      <c r="AK83" s="285"/>
+      <c r="AL83" s="286"/>
+      <c r="AM83" s="287" t="str">
         <f>AM43</f>
         <v>Màn hình đăng tiểu thuyết</v>
       </c>
-      <c r="AN83" s="302"/>
-      <c r="AO83" s="302"/>
-      <c r="AP83" s="302"/>
-      <c r="AQ83" s="302"/>
-      <c r="AR83" s="302"/>
-      <c r="AS83" s="302"/>
-      <c r="AT83" s="302"/>
-      <c r="AU83" s="302"/>
-      <c r="AV83" s="302"/>
-      <c r="AW83" s="303"/>
+      <c r="AN83" s="288"/>
+      <c r="AO83" s="288"/>
+      <c r="AP83" s="288"/>
+      <c r="AQ83" s="288"/>
+      <c r="AR83" s="288"/>
+      <c r="AS83" s="288"/>
+      <c r="AT83" s="288"/>
+      <c r="AU83" s="288"/>
+      <c r="AV83" s="288"/>
+      <c r="AW83" s="289"/>
     </row>
     <row r="84" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="24"/>
@@ -23626,192 +23644,192 @@
       <c r="AW120" s="188"/>
     </row>
     <row r="121" spans="1:50" s="22" customFormat="1" ht="21" customHeight="1" thickTop="1">
-      <c r="A121" s="266" t="s">
+      <c r="A121" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="B121" s="267"/>
-      <c r="C121" s="267"/>
-      <c r="D121" s="267"/>
-      <c r="E121" s="267"/>
-      <c r="F121" s="267"/>
-      <c r="G121" s="267"/>
-      <c r="H121" s="267"/>
-      <c r="I121" s="268"/>
-      <c r="J121" s="275" t="s">
+      <c r="B121" s="247"/>
+      <c r="C121" s="247"/>
+      <c r="D121" s="247"/>
+      <c r="E121" s="247"/>
+      <c r="F121" s="247"/>
+      <c r="G121" s="247"/>
+      <c r="H121" s="247"/>
+      <c r="I121" s="248"/>
+      <c r="J121" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="K121" s="267"/>
-      <c r="L121" s="267"/>
-      <c r="M121" s="267"/>
-      <c r="N121" s="267"/>
-      <c r="O121" s="268"/>
-      <c r="P121" s="275" t="s">
+      <c r="K121" s="247"/>
+      <c r="L121" s="247"/>
+      <c r="M121" s="247"/>
+      <c r="N121" s="247"/>
+      <c r="O121" s="248"/>
+      <c r="P121" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="Q121" s="267"/>
-      <c r="R121" s="267"/>
-      <c r="S121" s="267"/>
-      <c r="T121" s="267"/>
-      <c r="U121" s="268"/>
-      <c r="V121" s="281" t="s">
+      <c r="Q121" s="247"/>
+      <c r="R121" s="247"/>
+      <c r="S121" s="247"/>
+      <c r="T121" s="247"/>
+      <c r="U121" s="248"/>
+      <c r="V121" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="W121" s="282"/>
-      <c r="X121" s="282"/>
-      <c r="Y121" s="282"/>
-      <c r="Z121" s="283"/>
-      <c r="AA121" s="287" t="str">
+      <c r="W121" s="263"/>
+      <c r="X121" s="263"/>
+      <c r="Y121" s="263"/>
+      <c r="Z121" s="264"/>
+      <c r="AA121" s="374" t="str">
         <f>AA81</f>
         <v>Đọc truyện tiểu thuyết</v>
       </c>
-      <c r="AB121" s="267"/>
-      <c r="AC121" s="267"/>
-      <c r="AD121" s="267"/>
-      <c r="AE121" s="267"/>
-      <c r="AF121" s="267"/>
-      <c r="AG121" s="267"/>
-      <c r="AH121" s="267"/>
-      <c r="AI121" s="267"/>
-      <c r="AJ121" s="267"/>
-      <c r="AK121" s="267"/>
-      <c r="AL121" s="268"/>
-      <c r="AM121" s="276" t="s">
+      <c r="AB121" s="247"/>
+      <c r="AC121" s="247"/>
+      <c r="AD121" s="247"/>
+      <c r="AE121" s="247"/>
+      <c r="AF121" s="247"/>
+      <c r="AG121" s="247"/>
+      <c r="AH121" s="247"/>
+      <c r="AI121" s="247"/>
+      <c r="AJ121" s="247"/>
+      <c r="AK121" s="247"/>
+      <c r="AL121" s="248"/>
+      <c r="AM121" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AN121" s="277"/>
-      <c r="AO121" s="289" t="str">
+      <c r="AN121" s="283"/>
+      <c r="AO121" s="290" t="str">
         <f>AO81</f>
         <v>Bùi Phi Long</v>
       </c>
-      <c r="AP121" s="290"/>
-      <c r="AQ121" s="291"/>
-      <c r="AR121" s="276" t="s">
+      <c r="AP121" s="291"/>
+      <c r="AQ121" s="292"/>
+      <c r="AR121" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="AS121" s="277"/>
-      <c r="AT121" s="278">
+      <c r="AS121" s="283"/>
+      <c r="AT121" s="301">
         <f>AT81</f>
         <v>45240</v>
       </c>
-      <c r="AU121" s="279"/>
-      <c r="AV121" s="279"/>
-      <c r="AW121" s="280"/>
+      <c r="AU121" s="302"/>
+      <c r="AV121" s="302"/>
+      <c r="AW121" s="303"/>
     </row>
     <row r="122" spans="1:50" s="22" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="269"/>
-      <c r="B122" s="270"/>
-      <c r="C122" s="270"/>
-      <c r="D122" s="270"/>
-      <c r="E122" s="270"/>
-      <c r="F122" s="270"/>
-      <c r="G122" s="270"/>
-      <c r="H122" s="270"/>
-      <c r="I122" s="271"/>
-      <c r="J122" s="269"/>
-      <c r="K122" s="270"/>
-      <c r="L122" s="270"/>
-      <c r="M122" s="270"/>
-      <c r="N122" s="270"/>
-      <c r="O122" s="271"/>
-      <c r="P122" s="269"/>
-      <c r="Q122" s="270"/>
-      <c r="R122" s="270"/>
-      <c r="S122" s="270"/>
-      <c r="T122" s="270"/>
-      <c r="U122" s="271"/>
-      <c r="V122" s="284"/>
-      <c r="W122" s="285"/>
-      <c r="X122" s="285"/>
-      <c r="Y122" s="285"/>
-      <c r="Z122" s="286"/>
-      <c r="AA122" s="288"/>
-      <c r="AB122" s="270"/>
-      <c r="AC122" s="270"/>
-      <c r="AD122" s="270"/>
-      <c r="AE122" s="270"/>
-      <c r="AF122" s="270"/>
-      <c r="AG122" s="270"/>
-      <c r="AH122" s="270"/>
-      <c r="AI122" s="270"/>
-      <c r="AJ122" s="270"/>
-      <c r="AK122" s="270"/>
-      <c r="AL122" s="271"/>
-      <c r="AM122" s="304" t="s">
+      <c r="A122" s="249"/>
+      <c r="B122" s="250"/>
+      <c r="C122" s="250"/>
+      <c r="D122" s="250"/>
+      <c r="E122" s="250"/>
+      <c r="F122" s="250"/>
+      <c r="G122" s="250"/>
+      <c r="H122" s="250"/>
+      <c r="I122" s="251"/>
+      <c r="J122" s="249"/>
+      <c r="K122" s="250"/>
+      <c r="L122" s="250"/>
+      <c r="M122" s="250"/>
+      <c r="N122" s="250"/>
+      <c r="O122" s="251"/>
+      <c r="P122" s="249"/>
+      <c r="Q122" s="250"/>
+      <c r="R122" s="250"/>
+      <c r="S122" s="250"/>
+      <c r="T122" s="250"/>
+      <c r="U122" s="251"/>
+      <c r="V122" s="265"/>
+      <c r="W122" s="266"/>
+      <c r="X122" s="266"/>
+      <c r="Y122" s="266"/>
+      <c r="Z122" s="267"/>
+      <c r="AA122" s="269"/>
+      <c r="AB122" s="250"/>
+      <c r="AC122" s="250"/>
+      <c r="AD122" s="250"/>
+      <c r="AE122" s="250"/>
+      <c r="AF122" s="250"/>
+      <c r="AG122" s="250"/>
+      <c r="AH122" s="250"/>
+      <c r="AI122" s="250"/>
+      <c r="AJ122" s="250"/>
+      <c r="AK122" s="250"/>
+      <c r="AL122" s="251"/>
+      <c r="AM122" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AN122" s="305"/>
-      <c r="AO122" s="306"/>
-      <c r="AP122" s="307"/>
-      <c r="AQ122" s="308"/>
-      <c r="AR122" s="304" t="s">
+      <c r="AN122" s="294"/>
+      <c r="AO122" s="295"/>
+      <c r="AP122" s="296"/>
+      <c r="AQ122" s="297"/>
+      <c r="AR122" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AS122" s="305"/>
-      <c r="AT122" s="309"/>
-      <c r="AU122" s="310"/>
-      <c r="AV122" s="310"/>
-      <c r="AW122" s="311"/>
+      <c r="AS122" s="294"/>
+      <c r="AT122" s="298"/>
+      <c r="AU122" s="299"/>
+      <c r="AV122" s="299"/>
+      <c r="AW122" s="300"/>
     </row>
     <row r="123" spans="1:50" ht="21" customHeight="1" thickBot="1">
-      <c r="A123" s="272"/>
-      <c r="B123" s="273"/>
-      <c r="C123" s="273"/>
-      <c r="D123" s="273"/>
-      <c r="E123" s="273"/>
-      <c r="F123" s="273"/>
-      <c r="G123" s="273"/>
-      <c r="H123" s="273"/>
-      <c r="I123" s="274"/>
-      <c r="J123" s="272"/>
-      <c r="K123" s="273"/>
-      <c r="L123" s="273"/>
-      <c r="M123" s="273"/>
-      <c r="N123" s="273"/>
-      <c r="O123" s="274"/>
-      <c r="P123" s="272"/>
-      <c r="Q123" s="273"/>
-      <c r="R123" s="273"/>
-      <c r="S123" s="273"/>
-      <c r="T123" s="273"/>
-      <c r="U123" s="274"/>
-      <c r="V123" s="292" t="s">
+      <c r="A123" s="252"/>
+      <c r="B123" s="253"/>
+      <c r="C123" s="253"/>
+      <c r="D123" s="253"/>
+      <c r="E123" s="253"/>
+      <c r="F123" s="253"/>
+      <c r="G123" s="253"/>
+      <c r="H123" s="253"/>
+      <c r="I123" s="254"/>
+      <c r="J123" s="252"/>
+      <c r="K123" s="253"/>
+      <c r="L123" s="253"/>
+      <c r="M123" s="253"/>
+      <c r="N123" s="253"/>
+      <c r="O123" s="254"/>
+      <c r="P123" s="252"/>
+      <c r="Q123" s="253"/>
+      <c r="R123" s="253"/>
+      <c r="S123" s="253"/>
+      <c r="T123" s="253"/>
+      <c r="U123" s="254"/>
+      <c r="V123" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="W123" s="293"/>
-      <c r="X123" s="293"/>
-      <c r="Y123" s="293"/>
-      <c r="Z123" s="294"/>
-      <c r="AA123" s="295" t="str">
+      <c r="W123" s="260"/>
+      <c r="X123" s="260"/>
+      <c r="Y123" s="260"/>
+      <c r="Z123" s="261"/>
+      <c r="AA123" s="256" t="str">
         <f>AA83</f>
         <v>NovelCreate</v>
       </c>
-      <c r="AB123" s="296"/>
-      <c r="AC123" s="296"/>
-      <c r="AD123" s="296"/>
-      <c r="AE123" s="296"/>
-      <c r="AF123" s="296"/>
-      <c r="AG123" s="297"/>
-      <c r="AH123" s="298" t="s">
+      <c r="AB123" s="257"/>
+      <c r="AC123" s="257"/>
+      <c r="AD123" s="257"/>
+      <c r="AE123" s="257"/>
+      <c r="AF123" s="257"/>
+      <c r="AG123" s="258"/>
+      <c r="AH123" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="AI123" s="299"/>
-      <c r="AJ123" s="299"/>
-      <c r="AK123" s="299"/>
-      <c r="AL123" s="300"/>
-      <c r="AM123" s="301" t="str">
+      <c r="AI123" s="285"/>
+      <c r="AJ123" s="285"/>
+      <c r="AK123" s="285"/>
+      <c r="AL123" s="286"/>
+      <c r="AM123" s="287" t="str">
         <f>AM83</f>
         <v>Màn hình đăng tiểu thuyết</v>
       </c>
-      <c r="AN123" s="302"/>
-      <c r="AO123" s="302"/>
-      <c r="AP123" s="302"/>
-      <c r="AQ123" s="302"/>
-      <c r="AR123" s="302"/>
-      <c r="AS123" s="302"/>
-      <c r="AT123" s="302"/>
-      <c r="AU123" s="302"/>
-      <c r="AV123" s="302"/>
-      <c r="AW123" s="303"/>
+      <c r="AN123" s="288"/>
+      <c r="AO123" s="288"/>
+      <c r="AP123" s="288"/>
+      <c r="AQ123" s="288"/>
+      <c r="AR123" s="288"/>
+      <c r="AS123" s="288"/>
+      <c r="AT123" s="288"/>
+      <c r="AU123" s="288"/>
+      <c r="AV123" s="288"/>
+      <c r="AW123" s="289"/>
     </row>
     <row r="124" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A124" s="24"/>
@@ -25761,6 +25779,182 @@
     <row r="161" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="200">
+    <mergeCell ref="AE77:AI78"/>
+    <mergeCell ref="AJ77:AM78"/>
+    <mergeCell ref="AN77:AR78"/>
+    <mergeCell ref="AS77:AV78"/>
+    <mergeCell ref="AJ71:AM72"/>
+    <mergeCell ref="AN71:AR72"/>
+    <mergeCell ref="AS71:AV72"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:H64"/>
+    <mergeCell ref="I63:Z64"/>
+    <mergeCell ref="B77:C78"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:Z78"/>
+    <mergeCell ref="AA77:AD78"/>
+    <mergeCell ref="AE75:AI76"/>
+    <mergeCell ref="AJ75:AM76"/>
+    <mergeCell ref="AN75:AR76"/>
+    <mergeCell ref="AS75:AV76"/>
+    <mergeCell ref="B75:C76"/>
+    <mergeCell ref="D75:H76"/>
+    <mergeCell ref="I75:Z76"/>
+    <mergeCell ref="AA75:AD76"/>
+    <mergeCell ref="AJ63:AM64"/>
+    <mergeCell ref="AN63:AR64"/>
+    <mergeCell ref="A121:I123"/>
+    <mergeCell ref="J121:O123"/>
+    <mergeCell ref="P121:U123"/>
+    <mergeCell ref="AR121:AS121"/>
+    <mergeCell ref="AT121:AW121"/>
+    <mergeCell ref="V121:Z122"/>
+    <mergeCell ref="AA121:AL122"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="AO121:AQ121"/>
+    <mergeCell ref="V123:Z123"/>
+    <mergeCell ref="AA123:AG123"/>
+    <mergeCell ref="AH123:AL123"/>
+    <mergeCell ref="AM123:AW123"/>
+    <mergeCell ref="AM122:AN122"/>
+    <mergeCell ref="AO122:AQ122"/>
+    <mergeCell ref="AR122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AA83:AG83"/>
+    <mergeCell ref="AH83:AL83"/>
+    <mergeCell ref="AM83:AW83"/>
+    <mergeCell ref="AA81:AL82"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AM82:AN82"/>
+    <mergeCell ref="AO82:AQ82"/>
+    <mergeCell ref="AR82:AS82"/>
+    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="AO81:AQ81"/>
+    <mergeCell ref="AR81:AS81"/>
+    <mergeCell ref="AT41:AW41"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AT42:AW42"/>
+    <mergeCell ref="AA41:AL42"/>
+    <mergeCell ref="AA43:AG43"/>
+    <mergeCell ref="AH43:AL43"/>
+    <mergeCell ref="AM43:AW43"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="A81:I83"/>
+    <mergeCell ref="J81:O83"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:Z52"/>
+    <mergeCell ref="P81:U83"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="V83:Z83"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="D67:H68"/>
+    <mergeCell ref="I67:Z68"/>
+    <mergeCell ref="AJ51:AM52"/>
+    <mergeCell ref="AN51:AR52"/>
+    <mergeCell ref="AE73:AI74"/>
+    <mergeCell ref="AJ73:AM74"/>
+    <mergeCell ref="AN73:AR74"/>
+    <mergeCell ref="AS73:AV74"/>
+    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="D73:H74"/>
+    <mergeCell ref="I73:Z74"/>
+    <mergeCell ref="AA73:AD74"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:Z70"/>
+    <mergeCell ref="AA69:AD70"/>
+    <mergeCell ref="AE69:AI70"/>
+    <mergeCell ref="AJ69:AM70"/>
+    <mergeCell ref="AN69:AR70"/>
+    <mergeCell ref="AS69:AV70"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:H72"/>
+    <mergeCell ref="I71:Z72"/>
+    <mergeCell ref="AA71:AD72"/>
+    <mergeCell ref="AE71:AI72"/>
+    <mergeCell ref="AS63:AV64"/>
+    <mergeCell ref="AA67:AD68"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:H66"/>
+    <mergeCell ref="I65:Z66"/>
+    <mergeCell ref="AA65:AD66"/>
+    <mergeCell ref="AJ67:AM68"/>
+    <mergeCell ref="AN67:AR68"/>
+    <mergeCell ref="AS67:AV68"/>
+    <mergeCell ref="AJ65:AM66"/>
+    <mergeCell ref="AN65:AR66"/>
+    <mergeCell ref="AS65:AV66"/>
+    <mergeCell ref="AE67:AI68"/>
+    <mergeCell ref="AJ57:AM58"/>
+    <mergeCell ref="AN57:AR58"/>
+    <mergeCell ref="AS57:AV58"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:H62"/>
+    <mergeCell ref="I61:Z62"/>
+    <mergeCell ref="AA61:AD62"/>
+    <mergeCell ref="AE61:AI62"/>
+    <mergeCell ref="AJ61:AM62"/>
+    <mergeCell ref="AN61:AR62"/>
+    <mergeCell ref="AS61:AV62"/>
+    <mergeCell ref="D59:H60"/>
+    <mergeCell ref="I59:Z60"/>
+    <mergeCell ref="AA59:AD60"/>
+    <mergeCell ref="AE59:AI60"/>
+    <mergeCell ref="AJ59:AM60"/>
+    <mergeCell ref="AN59:AR60"/>
+    <mergeCell ref="AS59:AV60"/>
+    <mergeCell ref="AA47:AD48"/>
+    <mergeCell ref="AE47:AM47"/>
+    <mergeCell ref="AN47:AV47"/>
+    <mergeCell ref="D53:H54"/>
+    <mergeCell ref="I53:Z54"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="AE48:AI48"/>
+    <mergeCell ref="AJ48:AM48"/>
+    <mergeCell ref="AN48:AR48"/>
+    <mergeCell ref="AS48:AV48"/>
+    <mergeCell ref="AS55:AV56"/>
+    <mergeCell ref="AA53:AD54"/>
+    <mergeCell ref="AJ53:AM54"/>
+    <mergeCell ref="AN53:AR54"/>
+    <mergeCell ref="AS53:AV54"/>
+    <mergeCell ref="AJ55:AM56"/>
+    <mergeCell ref="AN55:AR56"/>
+    <mergeCell ref="AS51:AV52"/>
+    <mergeCell ref="AS49:AV50"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:H56"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:H50"/>
+    <mergeCell ref="I49:Z50"/>
+    <mergeCell ref="AA49:AD50"/>
+    <mergeCell ref="AE49:AI50"/>
+    <mergeCell ref="AE65:AI66"/>
+    <mergeCell ref="AE53:AI54"/>
+    <mergeCell ref="AE55:AI56"/>
+    <mergeCell ref="AE57:AI58"/>
+    <mergeCell ref="AA55:AD56"/>
+    <mergeCell ref="I55:Z56"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="D57:H58"/>
+    <mergeCell ref="I57:Z58"/>
+    <mergeCell ref="AA57:AD58"/>
+    <mergeCell ref="AA63:AD64"/>
+    <mergeCell ref="AE63:AI64"/>
+    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="AA51:AD52"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -25785,182 +25979,6 @@
     <mergeCell ref="B47:C48"/>
     <mergeCell ref="D47:H48"/>
     <mergeCell ref="I47:Z48"/>
-    <mergeCell ref="AA49:AD50"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="AE65:AI66"/>
-    <mergeCell ref="AE53:AI54"/>
-    <mergeCell ref="AE55:AI56"/>
-    <mergeCell ref="AE57:AI58"/>
-    <mergeCell ref="AA55:AD56"/>
-    <mergeCell ref="I55:Z56"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="D57:H58"/>
-    <mergeCell ref="I57:Z58"/>
-    <mergeCell ref="AA57:AD58"/>
-    <mergeCell ref="AA63:AD64"/>
-    <mergeCell ref="AE63:AI64"/>
-    <mergeCell ref="AE51:AI52"/>
-    <mergeCell ref="AA51:AD52"/>
-    <mergeCell ref="AA47:AD48"/>
-    <mergeCell ref="AE47:AM47"/>
-    <mergeCell ref="AN47:AV47"/>
-    <mergeCell ref="D53:H54"/>
-    <mergeCell ref="I53:Z54"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="AE48:AI48"/>
-    <mergeCell ref="AJ48:AM48"/>
-    <mergeCell ref="AN48:AR48"/>
-    <mergeCell ref="AS48:AV48"/>
-    <mergeCell ref="AS55:AV56"/>
-    <mergeCell ref="AA53:AD54"/>
-    <mergeCell ref="AJ53:AM54"/>
-    <mergeCell ref="AN53:AR54"/>
-    <mergeCell ref="AS53:AV54"/>
-    <mergeCell ref="AJ55:AM56"/>
-    <mergeCell ref="AN55:AR56"/>
-    <mergeCell ref="AS51:AV52"/>
-    <mergeCell ref="AS49:AV50"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="D55:H56"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:H50"/>
-    <mergeCell ref="I49:Z50"/>
-    <mergeCell ref="AJ57:AM58"/>
-    <mergeCell ref="AN57:AR58"/>
-    <mergeCell ref="AS57:AV58"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:H62"/>
-    <mergeCell ref="I61:Z62"/>
-    <mergeCell ref="AA61:AD62"/>
-    <mergeCell ref="AE61:AI62"/>
-    <mergeCell ref="AJ61:AM62"/>
-    <mergeCell ref="AN61:AR62"/>
-    <mergeCell ref="AS61:AV62"/>
-    <mergeCell ref="D59:H60"/>
-    <mergeCell ref="I59:Z60"/>
-    <mergeCell ref="AA59:AD60"/>
-    <mergeCell ref="AE59:AI60"/>
-    <mergeCell ref="AJ59:AM60"/>
-    <mergeCell ref="AN59:AR60"/>
-    <mergeCell ref="AS59:AV60"/>
-    <mergeCell ref="AA67:AD68"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:H66"/>
-    <mergeCell ref="I65:Z66"/>
-    <mergeCell ref="AA65:AD66"/>
-    <mergeCell ref="AJ67:AM68"/>
-    <mergeCell ref="AN67:AR68"/>
-    <mergeCell ref="AS67:AV68"/>
-    <mergeCell ref="AJ65:AM66"/>
-    <mergeCell ref="AN65:AR66"/>
-    <mergeCell ref="AS65:AV66"/>
-    <mergeCell ref="AE67:AI68"/>
-    <mergeCell ref="AJ51:AM52"/>
-    <mergeCell ref="AN51:AR52"/>
-    <mergeCell ref="AE73:AI74"/>
-    <mergeCell ref="AJ73:AM74"/>
-    <mergeCell ref="AN73:AR74"/>
-    <mergeCell ref="AS73:AV74"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="D73:H74"/>
-    <mergeCell ref="I73:Z74"/>
-    <mergeCell ref="AA73:AD74"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:Z70"/>
-    <mergeCell ref="AA69:AD70"/>
-    <mergeCell ref="AE69:AI70"/>
-    <mergeCell ref="AJ69:AM70"/>
-    <mergeCell ref="AN69:AR70"/>
-    <mergeCell ref="AS69:AV70"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:H72"/>
-    <mergeCell ref="I71:Z72"/>
-    <mergeCell ref="AA71:AD72"/>
-    <mergeCell ref="AE71:AI72"/>
-    <mergeCell ref="AS63:AV64"/>
-    <mergeCell ref="A81:I83"/>
-    <mergeCell ref="J81:O83"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:Z52"/>
-    <mergeCell ref="P81:U83"/>
-    <mergeCell ref="V81:Z82"/>
-    <mergeCell ref="V83:Z83"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="D67:H68"/>
-    <mergeCell ref="I67:Z68"/>
-    <mergeCell ref="AT41:AW41"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="AH43:AL43"/>
-    <mergeCell ref="AM43:AW43"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AA83:AG83"/>
-    <mergeCell ref="AH83:AL83"/>
-    <mergeCell ref="AM83:AW83"/>
-    <mergeCell ref="AA81:AL82"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AM82:AN82"/>
-    <mergeCell ref="AO82:AQ82"/>
-    <mergeCell ref="AR82:AS82"/>
-    <mergeCell ref="AT82:AW82"/>
-    <mergeCell ref="AO81:AQ81"/>
-    <mergeCell ref="AR81:AS81"/>
-    <mergeCell ref="A121:I123"/>
-    <mergeCell ref="J121:O123"/>
-    <mergeCell ref="P121:U123"/>
-    <mergeCell ref="AR121:AS121"/>
-    <mergeCell ref="AT121:AW121"/>
-    <mergeCell ref="V121:Z122"/>
-    <mergeCell ref="AA121:AL122"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="AO121:AQ121"/>
-    <mergeCell ref="V123:Z123"/>
-    <mergeCell ref="AA123:AG123"/>
-    <mergeCell ref="AH123:AL123"/>
-    <mergeCell ref="AM123:AW123"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AO122:AQ122"/>
-    <mergeCell ref="AR122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AE77:AI78"/>
-    <mergeCell ref="AJ77:AM78"/>
-    <mergeCell ref="AN77:AR78"/>
-    <mergeCell ref="AS77:AV78"/>
-    <mergeCell ref="AJ71:AM72"/>
-    <mergeCell ref="AN71:AR72"/>
-    <mergeCell ref="AS71:AV72"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:H64"/>
-    <mergeCell ref="I63:Z64"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:Z78"/>
-    <mergeCell ref="AA77:AD78"/>
-    <mergeCell ref="AE75:AI76"/>
-    <mergeCell ref="AJ75:AM76"/>
-    <mergeCell ref="AN75:AR76"/>
-    <mergeCell ref="AS75:AV76"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="D75:H76"/>
-    <mergeCell ref="I75:Z76"/>
-    <mergeCell ref="AA75:AD76"/>
-    <mergeCell ref="AJ63:AM64"/>
-    <mergeCell ref="AN63:AR64"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -25980,8 +25998,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:BJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A115" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z159" sqref="Z159"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A136" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ169" sqref="AJ169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -25994,192 +26012,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="275" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="275" t="s">
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="267"/>
-      <c r="R1" s="267"/>
-      <c r="S1" s="267"/>
-      <c r="T1" s="267"/>
-      <c r="U1" s="268"/>
-      <c r="V1" s="281" t="s">
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
-      <c r="Z1" s="283"/>
-      <c r="AA1" s="374" t="str">
+      <c r="W1" s="263"/>
+      <c r="X1" s="263"/>
+      <c r="Y1" s="263"/>
+      <c r="Z1" s="264"/>
+      <c r="AA1" s="268" t="str">
         <f>Trang_bìa!AA1</f>
         <v>Đọc truyện tiểu thuyết</v>
       </c>
-      <c r="AB1" s="267"/>
-      <c r="AC1" s="267"/>
-      <c r="AD1" s="267"/>
-      <c r="AE1" s="267"/>
-      <c r="AF1" s="267"/>
-      <c r="AG1" s="267"/>
-      <c r="AH1" s="267"/>
-      <c r="AI1" s="267"/>
-      <c r="AJ1" s="267"/>
-      <c r="AK1" s="267"/>
-      <c r="AL1" s="268"/>
-      <c r="AM1" s="276" t="s">
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="247"/>
+      <c r="AD1" s="247"/>
+      <c r="AE1" s="247"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="247"/>
+      <c r="AH1" s="247"/>
+      <c r="AI1" s="247"/>
+      <c r="AJ1" s="247"/>
+      <c r="AK1" s="247"/>
+      <c r="AL1" s="248"/>
+      <c r="AM1" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AN1" s="277"/>
-      <c r="AO1" s="289" t="str">
+      <c r="AN1" s="283"/>
+      <c r="AO1" s="290" t="str">
         <f>Trang_bìa!AO1</f>
         <v>Bùi Phi Long</v>
       </c>
-      <c r="AP1" s="290"/>
-      <c r="AQ1" s="291"/>
-      <c r="AR1" s="276" t="s">
+      <c r="AP1" s="291"/>
+      <c r="AQ1" s="292"/>
+      <c r="AR1" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="AS1" s="277"/>
-      <c r="AT1" s="278">
+      <c r="AS1" s="283"/>
+      <c r="AT1" s="301">
         <f>Trang_bìa!AT1</f>
         <v>45240</v>
       </c>
-      <c r="AU1" s="279"/>
-      <c r="AV1" s="279"/>
-      <c r="AW1" s="280"/>
+      <c r="AU1" s="302"/>
+      <c r="AV1" s="302"/>
+      <c r="AW1" s="303"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="269"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="270"/>
-      <c r="U2" s="271"/>
-      <c r="V2" s="284"/>
-      <c r="W2" s="285"/>
-      <c r="X2" s="285"/>
-      <c r="Y2" s="285"/>
-      <c r="Z2" s="286"/>
-      <c r="AA2" s="288"/>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="270"/>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="270"/>
-      <c r="AH2" s="270"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="270"/>
-      <c r="AK2" s="270"/>
-      <c r="AL2" s="271"/>
-      <c r="AM2" s="304" t="s">
+      <c r="A2" s="249"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="266"/>
+      <c r="X2" s="266"/>
+      <c r="Y2" s="266"/>
+      <c r="Z2" s="267"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="250"/>
+      <c r="AC2" s="250"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="250"/>
+      <c r="AH2" s="250"/>
+      <c r="AI2" s="250"/>
+      <c r="AJ2" s="250"/>
+      <c r="AK2" s="250"/>
+      <c r="AL2" s="251"/>
+      <c r="AM2" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="305"/>
-      <c r="AO2" s="306"/>
-      <c r="AP2" s="307"/>
-      <c r="AQ2" s="308"/>
-      <c r="AR2" s="304" t="s">
+      <c r="AN2" s="294"/>
+      <c r="AO2" s="295"/>
+      <c r="AP2" s="296"/>
+      <c r="AQ2" s="297"/>
+      <c r="AR2" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="305"/>
-      <c r="AT2" s="309"/>
-      <c r="AU2" s="310"/>
-      <c r="AV2" s="310"/>
-      <c r="AW2" s="311"/>
+      <c r="AS2" s="294"/>
+      <c r="AT2" s="298"/>
+      <c r="AU2" s="299"/>
+      <c r="AV2" s="299"/>
+      <c r="AW2" s="300"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="272"/>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="274"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="292" t="s">
+      <c r="A3" s="252"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="253"/>
+      <c r="U3" s="254"/>
+      <c r="V3" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="293"/>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="293"/>
-      <c r="Z3" s="294"/>
-      <c r="AA3" s="295" t="str">
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="256" t="str">
         <f>Trang_bìa!AA3</f>
         <v>NoveCreate</v>
       </c>
-      <c r="AB3" s="296"/>
-      <c r="AC3" s="296"/>
-      <c r="AD3" s="296"/>
-      <c r="AE3" s="296"/>
-      <c r="AF3" s="296"/>
-      <c r="AG3" s="297"/>
-      <c r="AH3" s="298" t="s">
+      <c r="AB3" s="257"/>
+      <c r="AC3" s="257"/>
+      <c r="AD3" s="257"/>
+      <c r="AE3" s="257"/>
+      <c r="AF3" s="257"/>
+      <c r="AG3" s="258"/>
+      <c r="AH3" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="299"/>
-      <c r="AJ3" s="299"/>
-      <c r="AK3" s="299"/>
-      <c r="AL3" s="300"/>
-      <c r="AM3" s="301" t="str">
+      <c r="AI3" s="285"/>
+      <c r="AJ3" s="285"/>
+      <c r="AK3" s="285"/>
+      <c r="AL3" s="286"/>
+      <c r="AM3" s="287" t="str">
         <f>Trang_bìa!AM3</f>
         <v>Màn hình đăng tiểu thuyết</v>
       </c>
-      <c r="AN3" s="302"/>
-      <c r="AO3" s="302"/>
-      <c r="AP3" s="302"/>
-      <c r="AQ3" s="302"/>
-      <c r="AR3" s="302"/>
-      <c r="AS3" s="302"/>
-      <c r="AT3" s="302"/>
-      <c r="AU3" s="302"/>
-      <c r="AV3" s="302"/>
-      <c r="AW3" s="303"/>
+      <c r="AN3" s="288"/>
+      <c r="AO3" s="288"/>
+      <c r="AP3" s="288"/>
+      <c r="AQ3" s="288"/>
+      <c r="AR3" s="288"/>
+      <c r="AS3" s="288"/>
+      <c r="AT3" s="288"/>
+      <c r="AU3" s="288"/>
+      <c r="AV3" s="288"/>
+      <c r="AW3" s="289"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="24"/>
@@ -28311,192 +28329,192 @@
       <c r="AW40" s="183"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="266" t="s">
+      <c r="A41" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="267"/>
-      <c r="C41" s="267"/>
-      <c r="D41" s="267"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="267"/>
-      <c r="G41" s="267"/>
-      <c r="H41" s="267"/>
-      <c r="I41" s="268"/>
-      <c r="J41" s="275" t="s">
+      <c r="B41" s="247"/>
+      <c r="C41" s="247"/>
+      <c r="D41" s="247"/>
+      <c r="E41" s="247"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="247"/>
+      <c r="H41" s="247"/>
+      <c r="I41" s="248"/>
+      <c r="J41" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="267"/>
-      <c r="L41" s="267"/>
-      <c r="M41" s="267"/>
-      <c r="N41" s="267"/>
-      <c r="O41" s="268"/>
-      <c r="P41" s="275" t="s">
+      <c r="K41" s="247"/>
+      <c r="L41" s="247"/>
+      <c r="M41" s="247"/>
+      <c r="N41" s="247"/>
+      <c r="O41" s="248"/>
+      <c r="P41" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="267"/>
-      <c r="R41" s="267"/>
-      <c r="S41" s="267"/>
-      <c r="T41" s="267"/>
-      <c r="U41" s="268"/>
-      <c r="V41" s="281" t="s">
+      <c r="Q41" s="247"/>
+      <c r="R41" s="247"/>
+      <c r="S41" s="247"/>
+      <c r="T41" s="247"/>
+      <c r="U41" s="248"/>
+      <c r="V41" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="282"/>
-      <c r="X41" s="282"/>
-      <c r="Y41" s="282"/>
-      <c r="Z41" s="283"/>
-      <c r="AA41" s="374" t="str">
+      <c r="W41" s="263"/>
+      <c r="X41" s="263"/>
+      <c r="Y41" s="263"/>
+      <c r="Z41" s="264"/>
+      <c r="AA41" s="268" t="str">
         <f>Trang_bìa!AA1</f>
         <v>Đọc truyện tiểu thuyết</v>
       </c>
-      <c r="AB41" s="267"/>
-      <c r="AC41" s="267"/>
-      <c r="AD41" s="267"/>
-      <c r="AE41" s="267"/>
-      <c r="AF41" s="267"/>
-      <c r="AG41" s="267"/>
-      <c r="AH41" s="267"/>
-      <c r="AI41" s="267"/>
-      <c r="AJ41" s="267"/>
-      <c r="AK41" s="267"/>
-      <c r="AL41" s="268"/>
-      <c r="AM41" s="276" t="s">
+      <c r="AB41" s="247"/>
+      <c r="AC41" s="247"/>
+      <c r="AD41" s="247"/>
+      <c r="AE41" s="247"/>
+      <c r="AF41" s="247"/>
+      <c r="AG41" s="247"/>
+      <c r="AH41" s="247"/>
+      <c r="AI41" s="247"/>
+      <c r="AJ41" s="247"/>
+      <c r="AK41" s="247"/>
+      <c r="AL41" s="248"/>
+      <c r="AM41" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AN41" s="277"/>
-      <c r="AO41" s="289" t="str">
+      <c r="AN41" s="283"/>
+      <c r="AO41" s="290" t="str">
         <f>Trang_bìa!AO1</f>
         <v>Bùi Phi Long</v>
       </c>
-      <c r="AP41" s="290"/>
-      <c r="AQ41" s="291"/>
-      <c r="AR41" s="276" t="s">
+      <c r="AP41" s="291"/>
+      <c r="AQ41" s="292"/>
+      <c r="AR41" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="AS41" s="277"/>
-      <c r="AT41" s="278">
+      <c r="AS41" s="283"/>
+      <c r="AT41" s="301">
         <f>Trang_bìa!AT1</f>
         <v>45240</v>
       </c>
-      <c r="AU41" s="279"/>
-      <c r="AV41" s="279"/>
-      <c r="AW41" s="280"/>
+      <c r="AU41" s="302"/>
+      <c r="AV41" s="302"/>
+      <c r="AW41" s="303"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="269"/>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="270"/>
-      <c r="E42" s="270"/>
-      <c r="F42" s="270"/>
-      <c r="G42" s="270"/>
-      <c r="H42" s="270"/>
-      <c r="I42" s="271"/>
-      <c r="J42" s="269"/>
-      <c r="K42" s="270"/>
-      <c r="L42" s="270"/>
-      <c r="M42" s="270"/>
-      <c r="N42" s="270"/>
-      <c r="O42" s="271"/>
-      <c r="P42" s="269"/>
-      <c r="Q42" s="270"/>
-      <c r="R42" s="270"/>
-      <c r="S42" s="270"/>
-      <c r="T42" s="270"/>
-      <c r="U42" s="271"/>
-      <c r="V42" s="284"/>
-      <c r="W42" s="285"/>
-      <c r="X42" s="285"/>
-      <c r="Y42" s="285"/>
-      <c r="Z42" s="286"/>
-      <c r="AA42" s="288"/>
-      <c r="AB42" s="270"/>
-      <c r="AC42" s="270"/>
-      <c r="AD42" s="270"/>
-      <c r="AE42" s="270"/>
-      <c r="AF42" s="270"/>
-      <c r="AG42" s="270"/>
-      <c r="AH42" s="270"/>
-      <c r="AI42" s="270"/>
-      <c r="AJ42" s="270"/>
-      <c r="AK42" s="270"/>
-      <c r="AL42" s="271"/>
-      <c r="AM42" s="304" t="s">
+      <c r="A42" s="249"/>
+      <c r="B42" s="250"/>
+      <c r="C42" s="250"/>
+      <c r="D42" s="250"/>
+      <c r="E42" s="250"/>
+      <c r="F42" s="250"/>
+      <c r="G42" s="250"/>
+      <c r="H42" s="250"/>
+      <c r="I42" s="251"/>
+      <c r="J42" s="249"/>
+      <c r="K42" s="250"/>
+      <c r="L42" s="250"/>
+      <c r="M42" s="250"/>
+      <c r="N42" s="250"/>
+      <c r="O42" s="251"/>
+      <c r="P42" s="249"/>
+      <c r="Q42" s="250"/>
+      <c r="R42" s="250"/>
+      <c r="S42" s="250"/>
+      <c r="T42" s="250"/>
+      <c r="U42" s="251"/>
+      <c r="V42" s="265"/>
+      <c r="W42" s="266"/>
+      <c r="X42" s="266"/>
+      <c r="Y42" s="266"/>
+      <c r="Z42" s="267"/>
+      <c r="AA42" s="269"/>
+      <c r="AB42" s="250"/>
+      <c r="AC42" s="250"/>
+      <c r="AD42" s="250"/>
+      <c r="AE42" s="250"/>
+      <c r="AF42" s="250"/>
+      <c r="AG42" s="250"/>
+      <c r="AH42" s="250"/>
+      <c r="AI42" s="250"/>
+      <c r="AJ42" s="250"/>
+      <c r="AK42" s="250"/>
+      <c r="AL42" s="251"/>
+      <c r="AM42" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AN42" s="305"/>
-      <c r="AO42" s="306"/>
-      <c r="AP42" s="307"/>
-      <c r="AQ42" s="308"/>
-      <c r="AR42" s="304" t="s">
+      <c r="AN42" s="294"/>
+      <c r="AO42" s="295"/>
+      <c r="AP42" s="296"/>
+      <c r="AQ42" s="297"/>
+      <c r="AR42" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AS42" s="305"/>
-      <c r="AT42" s="309"/>
-      <c r="AU42" s="310"/>
-      <c r="AV42" s="310"/>
-      <c r="AW42" s="311"/>
+      <c r="AS42" s="294"/>
+      <c r="AT42" s="298"/>
+      <c r="AU42" s="299"/>
+      <c r="AV42" s="299"/>
+      <c r="AW42" s="300"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="272"/>
-      <c r="B43" s="273"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="273"/>
-      <c r="E43" s="273"/>
-      <c r="F43" s="273"/>
-      <c r="G43" s="273"/>
-      <c r="H43" s="273"/>
-      <c r="I43" s="274"/>
-      <c r="J43" s="272"/>
-      <c r="K43" s="273"/>
-      <c r="L43" s="273"/>
-      <c r="M43" s="273"/>
-      <c r="N43" s="273"/>
-      <c r="O43" s="274"/>
-      <c r="P43" s="272"/>
-      <c r="Q43" s="273"/>
-      <c r="R43" s="273"/>
-      <c r="S43" s="273"/>
-      <c r="T43" s="273"/>
-      <c r="U43" s="274"/>
-      <c r="V43" s="292" t="s">
+      <c r="A43" s="252"/>
+      <c r="B43" s="253"/>
+      <c r="C43" s="253"/>
+      <c r="D43" s="253"/>
+      <c r="E43" s="253"/>
+      <c r="F43" s="253"/>
+      <c r="G43" s="253"/>
+      <c r="H43" s="253"/>
+      <c r="I43" s="254"/>
+      <c r="J43" s="252"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="253"/>
+      <c r="M43" s="253"/>
+      <c r="N43" s="253"/>
+      <c r="O43" s="254"/>
+      <c r="P43" s="252"/>
+      <c r="Q43" s="253"/>
+      <c r="R43" s="253"/>
+      <c r="S43" s="253"/>
+      <c r="T43" s="253"/>
+      <c r="U43" s="254"/>
+      <c r="V43" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="W43" s="293"/>
-      <c r="X43" s="293"/>
-      <c r="Y43" s="293"/>
-      <c r="Z43" s="294"/>
-      <c r="AA43" s="295" t="str">
+      <c r="W43" s="260"/>
+      <c r="X43" s="260"/>
+      <c r="Y43" s="260"/>
+      <c r="Z43" s="261"/>
+      <c r="AA43" s="256" t="str">
         <f>Trang_bìa!AA3</f>
         <v>NoveCreate</v>
       </c>
-      <c r="AB43" s="296"/>
-      <c r="AC43" s="296"/>
-      <c r="AD43" s="296"/>
-      <c r="AE43" s="296"/>
-      <c r="AF43" s="296"/>
-      <c r="AG43" s="297"/>
-      <c r="AH43" s="298" t="s">
+      <c r="AB43" s="257"/>
+      <c r="AC43" s="257"/>
+      <c r="AD43" s="257"/>
+      <c r="AE43" s="257"/>
+      <c r="AF43" s="257"/>
+      <c r="AG43" s="258"/>
+      <c r="AH43" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="AI43" s="299"/>
-      <c r="AJ43" s="299"/>
-      <c r="AK43" s="299"/>
-      <c r="AL43" s="300"/>
-      <c r="AM43" s="301" t="str">
+      <c r="AI43" s="285"/>
+      <c r="AJ43" s="285"/>
+      <c r="AK43" s="285"/>
+      <c r="AL43" s="286"/>
+      <c r="AM43" s="287" t="str">
         <f>Trang_bìa!AM3</f>
         <v>Màn hình đăng tiểu thuyết</v>
       </c>
-      <c r="AN43" s="302"/>
-      <c r="AO43" s="302"/>
-      <c r="AP43" s="302"/>
-      <c r="AQ43" s="302"/>
-      <c r="AR43" s="302"/>
-      <c r="AS43" s="302"/>
-      <c r="AT43" s="302"/>
-      <c r="AU43" s="302"/>
-      <c r="AV43" s="302"/>
-      <c r="AW43" s="303"/>
+      <c r="AN43" s="288"/>
+      <c r="AO43" s="288"/>
+      <c r="AP43" s="288"/>
+      <c r="AQ43" s="288"/>
+      <c r="AR43" s="288"/>
+      <c r="AS43" s="288"/>
+      <c r="AT43" s="288"/>
+      <c r="AU43" s="288"/>
+      <c r="AV43" s="288"/>
+      <c r="AW43" s="289"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="36"/>
@@ -30487,192 +30505,192 @@
       <c r="AW80" s="183"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A81" s="266" t="s">
+      <c r="A81" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="267"/>
-      <c r="C81" s="267"/>
-      <c r="D81" s="267"/>
-      <c r="E81" s="267"/>
-      <c r="F81" s="267"/>
-      <c r="G81" s="267"/>
-      <c r="H81" s="267"/>
-      <c r="I81" s="268"/>
-      <c r="J81" s="275" t="s">
+      <c r="B81" s="247"/>
+      <c r="C81" s="247"/>
+      <c r="D81" s="247"/>
+      <c r="E81" s="247"/>
+      <c r="F81" s="247"/>
+      <c r="G81" s="247"/>
+      <c r="H81" s="247"/>
+      <c r="I81" s="248"/>
+      <c r="J81" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="K81" s="267"/>
-      <c r="L81" s="267"/>
-      <c r="M81" s="267"/>
-      <c r="N81" s="267"/>
-      <c r="O81" s="268"/>
-      <c r="P81" s="275" t="s">
+      <c r="K81" s="247"/>
+      <c r="L81" s="247"/>
+      <c r="M81" s="247"/>
+      <c r="N81" s="247"/>
+      <c r="O81" s="248"/>
+      <c r="P81" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="Q81" s="267"/>
-      <c r="R81" s="267"/>
-      <c r="S81" s="267"/>
-      <c r="T81" s="267"/>
-      <c r="U81" s="268"/>
-      <c r="V81" s="281" t="s">
+      <c r="Q81" s="247"/>
+      <c r="R81" s="247"/>
+      <c r="S81" s="247"/>
+      <c r="T81" s="247"/>
+      <c r="U81" s="248"/>
+      <c r="V81" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="W81" s="282"/>
-      <c r="X81" s="282"/>
-      <c r="Y81" s="282"/>
-      <c r="Z81" s="283"/>
-      <c r="AA81" s="374" t="str">
+      <c r="W81" s="263"/>
+      <c r="X81" s="263"/>
+      <c r="Y81" s="263"/>
+      <c r="Z81" s="264"/>
+      <c r="AA81" s="268" t="str">
         <f>Trang_bìa!AA1</f>
         <v>Đọc truyện tiểu thuyết</v>
       </c>
-      <c r="AB81" s="267"/>
-      <c r="AC81" s="267"/>
-      <c r="AD81" s="267"/>
-      <c r="AE81" s="267"/>
-      <c r="AF81" s="267"/>
-      <c r="AG81" s="267"/>
-      <c r="AH81" s="267"/>
-      <c r="AI81" s="267"/>
-      <c r="AJ81" s="267"/>
-      <c r="AK81" s="267"/>
-      <c r="AL81" s="268"/>
-      <c r="AM81" s="276" t="s">
+      <c r="AB81" s="247"/>
+      <c r="AC81" s="247"/>
+      <c r="AD81" s="247"/>
+      <c r="AE81" s="247"/>
+      <c r="AF81" s="247"/>
+      <c r="AG81" s="247"/>
+      <c r="AH81" s="247"/>
+      <c r="AI81" s="247"/>
+      <c r="AJ81" s="247"/>
+      <c r="AK81" s="247"/>
+      <c r="AL81" s="248"/>
+      <c r="AM81" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AN81" s="277"/>
-      <c r="AO81" s="289" t="str">
+      <c r="AN81" s="283"/>
+      <c r="AO81" s="290" t="str">
         <f>Trang_bìa!AO1</f>
         <v>Bùi Phi Long</v>
       </c>
-      <c r="AP81" s="290"/>
-      <c r="AQ81" s="291"/>
-      <c r="AR81" s="276" t="s">
+      <c r="AP81" s="291"/>
+      <c r="AQ81" s="292"/>
+      <c r="AR81" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="AS81" s="277"/>
-      <c r="AT81" s="278">
+      <c r="AS81" s="283"/>
+      <c r="AT81" s="301">
         <f>Trang_bìa!AT1</f>
         <v>45240</v>
       </c>
-      <c r="AU81" s="279"/>
-      <c r="AV81" s="279"/>
-      <c r="AW81" s="280"/>
+      <c r="AU81" s="302"/>
+      <c r="AV81" s="302"/>
+      <c r="AW81" s="303"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A82" s="269"/>
-      <c r="B82" s="270"/>
-      <c r="C82" s="270"/>
-      <c r="D82" s="270"/>
-      <c r="E82" s="270"/>
-      <c r="F82" s="270"/>
-      <c r="G82" s="270"/>
-      <c r="H82" s="270"/>
-      <c r="I82" s="271"/>
-      <c r="J82" s="269"/>
-      <c r="K82" s="270"/>
-      <c r="L82" s="270"/>
-      <c r="M82" s="270"/>
-      <c r="N82" s="270"/>
-      <c r="O82" s="271"/>
-      <c r="P82" s="269"/>
-      <c r="Q82" s="270"/>
-      <c r="R82" s="270"/>
-      <c r="S82" s="270"/>
-      <c r="T82" s="270"/>
-      <c r="U82" s="271"/>
-      <c r="V82" s="284"/>
-      <c r="W82" s="285"/>
-      <c r="X82" s="285"/>
-      <c r="Y82" s="285"/>
-      <c r="Z82" s="286"/>
-      <c r="AA82" s="288"/>
-      <c r="AB82" s="270"/>
-      <c r="AC82" s="270"/>
-      <c r="AD82" s="270"/>
-      <c r="AE82" s="270"/>
-      <c r="AF82" s="270"/>
-      <c r="AG82" s="270"/>
-      <c r="AH82" s="270"/>
-      <c r="AI82" s="270"/>
-      <c r="AJ82" s="270"/>
-      <c r="AK82" s="270"/>
-      <c r="AL82" s="271"/>
-      <c r="AM82" s="304" t="s">
+      <c r="A82" s="249"/>
+      <c r="B82" s="250"/>
+      <c r="C82" s="250"/>
+      <c r="D82" s="250"/>
+      <c r="E82" s="250"/>
+      <c r="F82" s="250"/>
+      <c r="G82" s="250"/>
+      <c r="H82" s="250"/>
+      <c r="I82" s="251"/>
+      <c r="J82" s="249"/>
+      <c r="K82" s="250"/>
+      <c r="L82" s="250"/>
+      <c r="M82" s="250"/>
+      <c r="N82" s="250"/>
+      <c r="O82" s="251"/>
+      <c r="P82" s="249"/>
+      <c r="Q82" s="250"/>
+      <c r="R82" s="250"/>
+      <c r="S82" s="250"/>
+      <c r="T82" s="250"/>
+      <c r="U82" s="251"/>
+      <c r="V82" s="265"/>
+      <c r="W82" s="266"/>
+      <c r="X82" s="266"/>
+      <c r="Y82" s="266"/>
+      <c r="Z82" s="267"/>
+      <c r="AA82" s="269"/>
+      <c r="AB82" s="250"/>
+      <c r="AC82" s="250"/>
+      <c r="AD82" s="250"/>
+      <c r="AE82" s="250"/>
+      <c r="AF82" s="250"/>
+      <c r="AG82" s="250"/>
+      <c r="AH82" s="250"/>
+      <c r="AI82" s="250"/>
+      <c r="AJ82" s="250"/>
+      <c r="AK82" s="250"/>
+      <c r="AL82" s="251"/>
+      <c r="AM82" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AN82" s="305"/>
-      <c r="AO82" s="306"/>
-      <c r="AP82" s="307"/>
-      <c r="AQ82" s="308"/>
-      <c r="AR82" s="304" t="s">
+      <c r="AN82" s="294"/>
+      <c r="AO82" s="295"/>
+      <c r="AP82" s="296"/>
+      <c r="AQ82" s="297"/>
+      <c r="AR82" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AS82" s="305"/>
-      <c r="AT82" s="309"/>
-      <c r="AU82" s="310"/>
-      <c r="AV82" s="310"/>
-      <c r="AW82" s="311"/>
+      <c r="AS82" s="294"/>
+      <c r="AT82" s="298"/>
+      <c r="AU82" s="299"/>
+      <c r="AV82" s="299"/>
+      <c r="AW82" s="300"/>
     </row>
     <row r="83" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A83" s="272"/>
-      <c r="B83" s="273"/>
-      <c r="C83" s="273"/>
-      <c r="D83" s="273"/>
-      <c r="E83" s="273"/>
-      <c r="F83" s="273"/>
-      <c r="G83" s="273"/>
-      <c r="H83" s="273"/>
-      <c r="I83" s="274"/>
-      <c r="J83" s="272"/>
-      <c r="K83" s="273"/>
-      <c r="L83" s="273"/>
-      <c r="M83" s="273"/>
-      <c r="N83" s="273"/>
-      <c r="O83" s="274"/>
-      <c r="P83" s="272"/>
-      <c r="Q83" s="273"/>
-      <c r="R83" s="273"/>
-      <c r="S83" s="273"/>
-      <c r="T83" s="273"/>
-      <c r="U83" s="274"/>
-      <c r="V83" s="292" t="s">
+      <c r="A83" s="252"/>
+      <c r="B83" s="253"/>
+      <c r="C83" s="253"/>
+      <c r="D83" s="253"/>
+      <c r="E83" s="253"/>
+      <c r="F83" s="253"/>
+      <c r="G83" s="253"/>
+      <c r="H83" s="253"/>
+      <c r="I83" s="254"/>
+      <c r="J83" s="252"/>
+      <c r="K83" s="253"/>
+      <c r="L83" s="253"/>
+      <c r="M83" s="253"/>
+      <c r="N83" s="253"/>
+      <c r="O83" s="254"/>
+      <c r="P83" s="252"/>
+      <c r="Q83" s="253"/>
+      <c r="R83" s="253"/>
+      <c r="S83" s="253"/>
+      <c r="T83" s="253"/>
+      <c r="U83" s="254"/>
+      <c r="V83" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="W83" s="293"/>
-      <c r="X83" s="293"/>
-      <c r="Y83" s="293"/>
-      <c r="Z83" s="294"/>
-      <c r="AA83" s="295" t="str">
+      <c r="W83" s="260"/>
+      <c r="X83" s="260"/>
+      <c r="Y83" s="260"/>
+      <c r="Z83" s="261"/>
+      <c r="AA83" s="256" t="str">
         <f>Trang_bìa!AA3</f>
         <v>NoveCreate</v>
       </c>
-      <c r="AB83" s="296"/>
-      <c r="AC83" s="296"/>
-      <c r="AD83" s="296"/>
-      <c r="AE83" s="296"/>
-      <c r="AF83" s="296"/>
-      <c r="AG83" s="297"/>
-      <c r="AH83" s="298" t="s">
+      <c r="AB83" s="257"/>
+      <c r="AC83" s="257"/>
+      <c r="AD83" s="257"/>
+      <c r="AE83" s="257"/>
+      <c r="AF83" s="257"/>
+      <c r="AG83" s="258"/>
+      <c r="AH83" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="AI83" s="299"/>
-      <c r="AJ83" s="299"/>
-      <c r="AK83" s="299"/>
-      <c r="AL83" s="300"/>
-      <c r="AM83" s="301" t="str">
+      <c r="AI83" s="285"/>
+      <c r="AJ83" s="285"/>
+      <c r="AK83" s="285"/>
+      <c r="AL83" s="286"/>
+      <c r="AM83" s="287" t="str">
         <f>Trang_bìa!AM3</f>
         <v>Màn hình đăng tiểu thuyết</v>
       </c>
-      <c r="AN83" s="302"/>
-      <c r="AO83" s="302"/>
-      <c r="AP83" s="302"/>
-      <c r="AQ83" s="302"/>
-      <c r="AR83" s="302"/>
-      <c r="AS83" s="302"/>
-      <c r="AT83" s="302"/>
-      <c r="AU83" s="302"/>
-      <c r="AV83" s="302"/>
-      <c r="AW83" s="303"/>
+      <c r="AN83" s="288"/>
+      <c r="AO83" s="288"/>
+      <c r="AP83" s="288"/>
+      <c r="AQ83" s="288"/>
+      <c r="AR83" s="288"/>
+      <c r="AS83" s="288"/>
+      <c r="AT83" s="288"/>
+      <c r="AU83" s="288"/>
+      <c r="AV83" s="288"/>
+      <c r="AW83" s="289"/>
     </row>
     <row r="84" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="36"/>
@@ -32682,192 +32700,192 @@
       <c r="AW122" s="183"/>
     </row>
     <row r="123" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A123" s="266" t="s">
+      <c r="A123" s="246" t="s">
         <v>90</v>
       </c>
-      <c r="B123" s="267"/>
-      <c r="C123" s="267"/>
-      <c r="D123" s="267"/>
-      <c r="E123" s="267"/>
-      <c r="F123" s="267"/>
-      <c r="G123" s="267"/>
-      <c r="H123" s="267"/>
-      <c r="I123" s="268"/>
-      <c r="J123" s="275" t="s">
+      <c r="B123" s="247"/>
+      <c r="C123" s="247"/>
+      <c r="D123" s="247"/>
+      <c r="E123" s="247"/>
+      <c r="F123" s="247"/>
+      <c r="G123" s="247"/>
+      <c r="H123" s="247"/>
+      <c r="I123" s="248"/>
+      <c r="J123" s="255" t="s">
         <v>18</v>
       </c>
-      <c r="K123" s="267"/>
-      <c r="L123" s="267"/>
-      <c r="M123" s="267"/>
-      <c r="N123" s="267"/>
-      <c r="O123" s="268"/>
-      <c r="P123" s="275" t="s">
+      <c r="K123" s="247"/>
+      <c r="L123" s="247"/>
+      <c r="M123" s="247"/>
+      <c r="N123" s="247"/>
+      <c r="O123" s="248"/>
+      <c r="P123" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="Q123" s="267"/>
-      <c r="R123" s="267"/>
-      <c r="S123" s="267"/>
-      <c r="T123" s="267"/>
-      <c r="U123" s="268"/>
-      <c r="V123" s="281" t="s">
+      <c r="Q123" s="247"/>
+      <c r="R123" s="247"/>
+      <c r="S123" s="247"/>
+      <c r="T123" s="247"/>
+      <c r="U123" s="248"/>
+      <c r="V123" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="W123" s="282"/>
-      <c r="X123" s="282"/>
-      <c r="Y123" s="282"/>
-      <c r="Z123" s="283"/>
-      <c r="AA123" s="374" t="str">
+      <c r="W123" s="263"/>
+      <c r="X123" s="263"/>
+      <c r="Y123" s="263"/>
+      <c r="Z123" s="264"/>
+      <c r="AA123" s="268" t="str">
         <f>Trang_bìa!AA1</f>
         <v>Đọc truyện tiểu thuyết</v>
       </c>
-      <c r="AB123" s="267"/>
-      <c r="AC123" s="267"/>
-      <c r="AD123" s="267"/>
-      <c r="AE123" s="267"/>
-      <c r="AF123" s="267"/>
-      <c r="AG123" s="267"/>
-      <c r="AH123" s="267"/>
-      <c r="AI123" s="267"/>
-      <c r="AJ123" s="267"/>
-      <c r="AK123" s="267"/>
-      <c r="AL123" s="268"/>
-      <c r="AM123" s="276" t="s">
+      <c r="AB123" s="247"/>
+      <c r="AC123" s="247"/>
+      <c r="AD123" s="247"/>
+      <c r="AE123" s="247"/>
+      <c r="AF123" s="247"/>
+      <c r="AG123" s="247"/>
+      <c r="AH123" s="247"/>
+      <c r="AI123" s="247"/>
+      <c r="AJ123" s="247"/>
+      <c r="AK123" s="247"/>
+      <c r="AL123" s="248"/>
+      <c r="AM123" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="AN123" s="277"/>
-      <c r="AO123" s="289" t="str">
+      <c r="AN123" s="283"/>
+      <c r="AO123" s="290" t="str">
         <f>Trang_bìa!AO1</f>
         <v>Bùi Phi Long</v>
       </c>
-      <c r="AP123" s="290"/>
-      <c r="AQ123" s="291"/>
-      <c r="AR123" s="276" t="s">
+      <c r="AP123" s="291"/>
+      <c r="AQ123" s="292"/>
+      <c r="AR123" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="AS123" s="277"/>
-      <c r="AT123" s="278">
+      <c r="AS123" s="283"/>
+      <c r="AT123" s="301">
         <f>Trang_bìa!AT1</f>
         <v>45240</v>
       </c>
-      <c r="AU123" s="279"/>
-      <c r="AV123" s="279"/>
-      <c r="AW123" s="280"/>
+      <c r="AU123" s="302"/>
+      <c r="AV123" s="302"/>
+      <c r="AW123" s="303"/>
     </row>
     <row r="124" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A124" s="269"/>
-      <c r="B124" s="270"/>
-      <c r="C124" s="270"/>
-      <c r="D124" s="270"/>
-      <c r="E124" s="270"/>
-      <c r="F124" s="270"/>
-      <c r="G124" s="270"/>
-      <c r="H124" s="270"/>
-      <c r="I124" s="271"/>
-      <c r="J124" s="269"/>
-      <c r="K124" s="270"/>
-      <c r="L124" s="270"/>
-      <c r="M124" s="270"/>
-      <c r="N124" s="270"/>
-      <c r="O124" s="271"/>
-      <c r="P124" s="269"/>
-      <c r="Q124" s="270"/>
-      <c r="R124" s="270"/>
-      <c r="S124" s="270"/>
-      <c r="T124" s="270"/>
-      <c r="U124" s="271"/>
-      <c r="V124" s="284"/>
-      <c r="W124" s="285"/>
-      <c r="X124" s="285"/>
-      <c r="Y124" s="285"/>
-      <c r="Z124" s="286"/>
-      <c r="AA124" s="288"/>
-      <c r="AB124" s="270"/>
-      <c r="AC124" s="270"/>
-      <c r="AD124" s="270"/>
-      <c r="AE124" s="270"/>
-      <c r="AF124" s="270"/>
-      <c r="AG124" s="270"/>
-      <c r="AH124" s="270"/>
-      <c r="AI124" s="270"/>
-      <c r="AJ124" s="270"/>
-      <c r="AK124" s="270"/>
-      <c r="AL124" s="271"/>
-      <c r="AM124" s="304" t="s">
+      <c r="A124" s="249"/>
+      <c r="B124" s="250"/>
+      <c r="C124" s="250"/>
+      <c r="D124" s="250"/>
+      <c r="E124" s="250"/>
+      <c r="F124" s="250"/>
+      <c r="G124" s="250"/>
+      <c r="H124" s="250"/>
+      <c r="I124" s="251"/>
+      <c r="J124" s="249"/>
+      <c r="K124" s="250"/>
+      <c r="L124" s="250"/>
+      <c r="M124" s="250"/>
+      <c r="N124" s="250"/>
+      <c r="O124" s="251"/>
+      <c r="P124" s="249"/>
+      <c r="Q124" s="250"/>
+      <c r="R124" s="250"/>
+      <c r="S124" s="250"/>
+      <c r="T124" s="250"/>
+      <c r="U124" s="251"/>
+      <c r="V124" s="265"/>
+      <c r="W124" s="266"/>
+      <c r="X124" s="266"/>
+      <c r="Y124" s="266"/>
+      <c r="Z124" s="267"/>
+      <c r="AA124" s="269"/>
+      <c r="AB124" s="250"/>
+      <c r="AC124" s="250"/>
+      <c r="AD124" s="250"/>
+      <c r="AE124" s="250"/>
+      <c r="AF124" s="250"/>
+      <c r="AG124" s="250"/>
+      <c r="AH124" s="250"/>
+      <c r="AI124" s="250"/>
+      <c r="AJ124" s="250"/>
+      <c r="AK124" s="250"/>
+      <c r="AL124" s="251"/>
+      <c r="AM124" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AN124" s="305"/>
-      <c r="AO124" s="306"/>
-      <c r="AP124" s="307"/>
-      <c r="AQ124" s="308"/>
-      <c r="AR124" s="304" t="s">
+      <c r="AN124" s="294"/>
+      <c r="AO124" s="295"/>
+      <c r="AP124" s="296"/>
+      <c r="AQ124" s="297"/>
+      <c r="AR124" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AS124" s="305"/>
-      <c r="AT124" s="309"/>
-      <c r="AU124" s="310"/>
-      <c r="AV124" s="310"/>
-      <c r="AW124" s="311"/>
+      <c r="AS124" s="294"/>
+      <c r="AT124" s="298"/>
+      <c r="AU124" s="299"/>
+      <c r="AV124" s="299"/>
+      <c r="AW124" s="300"/>
     </row>
     <row r="125" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A125" s="272"/>
-      <c r="B125" s="273"/>
-      <c r="C125" s="273"/>
-      <c r="D125" s="273"/>
-      <c r="E125" s="273"/>
-      <c r="F125" s="273"/>
-      <c r="G125" s="273"/>
-      <c r="H125" s="273"/>
-      <c r="I125" s="274"/>
-      <c r="J125" s="272"/>
-      <c r="K125" s="273"/>
-      <c r="L125" s="273"/>
-      <c r="M125" s="273"/>
-      <c r="N125" s="273"/>
-      <c r="O125" s="274"/>
-      <c r="P125" s="272"/>
-      <c r="Q125" s="273"/>
-      <c r="R125" s="273"/>
-      <c r="S125" s="273"/>
-      <c r="T125" s="273"/>
-      <c r="U125" s="274"/>
-      <c r="V125" s="292" t="s">
+      <c r="A125" s="252"/>
+      <c r="B125" s="253"/>
+      <c r="C125" s="253"/>
+      <c r="D125" s="253"/>
+      <c r="E125" s="253"/>
+      <c r="F125" s="253"/>
+      <c r="G125" s="253"/>
+      <c r="H125" s="253"/>
+      <c r="I125" s="254"/>
+      <c r="J125" s="252"/>
+      <c r="K125" s="253"/>
+      <c r="L125" s="253"/>
+      <c r="M125" s="253"/>
+      <c r="N125" s="253"/>
+      <c r="O125" s="254"/>
+      <c r="P125" s="252"/>
+      <c r="Q125" s="253"/>
+      <c r="R125" s="253"/>
+      <c r="S125" s="253"/>
+      <c r="T125" s="253"/>
+      <c r="U125" s="254"/>
+      <c r="V125" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="W125" s="293"/>
-      <c r="X125" s="293"/>
-      <c r="Y125" s="293"/>
-      <c r="Z125" s="294"/>
-      <c r="AA125" s="295" t="str">
+      <c r="W125" s="260"/>
+      <c r="X125" s="260"/>
+      <c r="Y125" s="260"/>
+      <c r="Z125" s="261"/>
+      <c r="AA125" s="256" t="str">
         <f>Trang_bìa!AA3</f>
         <v>NoveCreate</v>
       </c>
-      <c r="AB125" s="296"/>
-      <c r="AC125" s="296"/>
-      <c r="AD125" s="296"/>
-      <c r="AE125" s="296"/>
-      <c r="AF125" s="296"/>
-      <c r="AG125" s="297"/>
-      <c r="AH125" s="298" t="s">
+      <c r="AB125" s="257"/>
+      <c r="AC125" s="257"/>
+      <c r="AD125" s="257"/>
+      <c r="AE125" s="257"/>
+      <c r="AF125" s="257"/>
+      <c r="AG125" s="258"/>
+      <c r="AH125" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="AI125" s="299"/>
-      <c r="AJ125" s="299"/>
-      <c r="AK125" s="299"/>
-      <c r="AL125" s="300"/>
-      <c r="AM125" s="301" t="str">
+      <c r="AI125" s="285"/>
+      <c r="AJ125" s="285"/>
+      <c r="AK125" s="285"/>
+      <c r="AL125" s="286"/>
+      <c r="AM125" s="287" t="str">
         <f>Trang_bìa!AM3</f>
         <v>Màn hình đăng tiểu thuyết</v>
       </c>
-      <c r="AN125" s="302"/>
-      <c r="AO125" s="302"/>
-      <c r="AP125" s="302"/>
-      <c r="AQ125" s="302"/>
-      <c r="AR125" s="302"/>
-      <c r="AS125" s="302"/>
-      <c r="AT125" s="302"/>
-      <c r="AU125" s="302"/>
-      <c r="AV125" s="302"/>
-      <c r="AW125" s="303"/>
+      <c r="AN125" s="288"/>
+      <c r="AO125" s="288"/>
+      <c r="AP125" s="288"/>
+      <c r="AQ125" s="288"/>
+      <c r="AR125" s="288"/>
+      <c r="AS125" s="288"/>
+      <c r="AT125" s="288"/>
+      <c r="AU125" s="288"/>
+      <c r="AV125" s="288"/>
+      <c r="AW125" s="289"/>
     </row>
     <row r="126" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A126" s="36"/>
@@ -33871,7 +33889,7 @@
       </c>
       <c r="AM143" s="127"/>
       <c r="AN143" s="128"/>
-      <c r="AO143" s="442" t="s">
+      <c r="AO143" s="244" t="s">
         <v>173</v>
       </c>
       <c r="AP143" s="127"/>
@@ -33934,7 +33952,7 @@
       </c>
       <c r="AM144" s="134"/>
       <c r="AN144" s="135"/>
-      <c r="AO144" s="443" t="s">
+      <c r="AO144" s="245" t="s">
         <v>172</v>
       </c>
       <c r="AP144" s="134"/>
@@ -34311,7 +34329,7 @@
       <c r="AH151" s="166"/>
       <c r="AI151" s="171"/>
       <c r="AJ151" s="197" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AK151" s="167"/>
       <c r="AL151" s="167"/>
@@ -34373,7 +34391,7 @@
       <c r="AH152" s="159"/>
       <c r="AI152" s="172"/>
       <c r="AJ152" s="198" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="AK152" s="160"/>
       <c r="AL152" s="160"/>
@@ -34435,7 +34453,7 @@
       <c r="AH153" s="159"/>
       <c r="AI153" s="172"/>
       <c r="AJ153" s="198" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AK153" s="160"/>
       <c r="AL153" s="160"/>
@@ -34497,7 +34515,7 @@
       <c r="AH154" s="236"/>
       <c r="AI154" s="237"/>
       <c r="AJ154" s="200" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="AK154" s="201"/>
       <c r="AL154" s="201"/>
@@ -34570,7 +34588,7 @@
       <c r="AH155" s="233"/>
       <c r="AI155" s="239"/>
       <c r="AJ155" s="235" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AK155" s="222"/>
       <c r="AL155" s="222"/>
@@ -34629,7 +34647,7 @@
       <c r="AH156" s="233"/>
       <c r="AI156" s="239"/>
       <c r="AJ156" s="240" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AK156" s="222"/>
       <c r="AL156" s="222"/>
@@ -34688,7 +34706,7 @@
       <c r="AH157" s="226"/>
       <c r="AI157" s="241"/>
       <c r="AJ157" s="240" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AK157" s="222"/>
       <c r="AL157" s="222"/>
@@ -34813,53 +34831,53 @@
       <c r="B160" s="37"/>
       <c r="C160" s="38"/>
       <c r="D160" s="39"/>
-      <c r="E160" s="384" t="s">
+      <c r="E160" s="386" t="s">
         <v>97</v>
       </c>
-      <c r="F160" s="385"/>
-      <c r="G160" s="385"/>
-      <c r="H160" s="385"/>
-      <c r="I160" s="385"/>
-      <c r="J160" s="385"/>
-      <c r="K160" s="386"/>
-      <c r="L160" s="393" t="s">
+      <c r="F160" s="387"/>
+      <c r="G160" s="387"/>
+      <c r="H160" s="387"/>
+      <c r="I160" s="387"/>
+      <c r="J160" s="387"/>
+      <c r="K160" s="388"/>
+      <c r="L160" s="395" t="s">
         <v>98</v>
       </c>
-      <c r="M160" s="394"/>
-      <c r="N160" s="394"/>
-      <c r="O160" s="394"/>
-      <c r="P160" s="394"/>
-      <c r="Q160" s="394"/>
-      <c r="R160" s="394"/>
-      <c r="S160" s="394"/>
-      <c r="T160" s="394"/>
-      <c r="U160" s="394"/>
-      <c r="V160" s="394"/>
-      <c r="W160" s="394"/>
-      <c r="X160" s="394"/>
-      <c r="Y160" s="394"/>
-      <c r="Z160" s="394"/>
-      <c r="AA160" s="394"/>
-      <c r="AB160" s="394"/>
-      <c r="AC160" s="394"/>
-      <c r="AD160" s="394"/>
-      <c r="AE160" s="394"/>
-      <c r="AF160" s="394"/>
-      <c r="AG160" s="394"/>
-      <c r="AH160" s="394"/>
-      <c r="AI160" s="394"/>
-      <c r="AJ160" s="394"/>
-      <c r="AK160" s="394"/>
-      <c r="AL160" s="394"/>
-      <c r="AM160" s="394"/>
-      <c r="AN160" s="394"/>
-      <c r="AO160" s="394"/>
-      <c r="AP160" s="394"/>
-      <c r="AQ160" s="394"/>
-      <c r="AR160" s="394"/>
-      <c r="AS160" s="394"/>
-      <c r="AT160" s="394"/>
-      <c r="AU160" s="395"/>
+      <c r="M160" s="396"/>
+      <c r="N160" s="396"/>
+      <c r="O160" s="396"/>
+      <c r="P160" s="396"/>
+      <c r="Q160" s="396"/>
+      <c r="R160" s="396"/>
+      <c r="S160" s="396"/>
+      <c r="T160" s="396"/>
+      <c r="U160" s="396"/>
+      <c r="V160" s="396"/>
+      <c r="W160" s="396"/>
+      <c r="X160" s="396"/>
+      <c r="Y160" s="396"/>
+      <c r="Z160" s="396"/>
+      <c r="AA160" s="396"/>
+      <c r="AB160" s="396"/>
+      <c r="AC160" s="396"/>
+      <c r="AD160" s="396"/>
+      <c r="AE160" s="396"/>
+      <c r="AF160" s="396"/>
+      <c r="AG160" s="396"/>
+      <c r="AH160" s="396"/>
+      <c r="AI160" s="396"/>
+      <c r="AJ160" s="396"/>
+      <c r="AK160" s="396"/>
+      <c r="AL160" s="396"/>
+      <c r="AM160" s="396"/>
+      <c r="AN160" s="396"/>
+      <c r="AO160" s="396"/>
+      <c r="AP160" s="396"/>
+      <c r="AQ160" s="396"/>
+      <c r="AR160" s="396"/>
+      <c r="AS160" s="396"/>
+      <c r="AT160" s="396"/>
+      <c r="AU160" s="397"/>
       <c r="AV160" s="39"/>
       <c r="AW160" s="183"/>
     </row>
@@ -34868,15 +34886,15 @@
       <c r="B161" s="37"/>
       <c r="C161" s="38"/>
       <c r="D161" s="39"/>
-      <c r="E161" s="396" t="s">
+      <c r="E161" s="398" t="s">
         <v>140</v>
       </c>
-      <c r="F161" s="397"/>
-      <c r="G161" s="397"/>
-      <c r="H161" s="397"/>
-      <c r="I161" s="397"/>
-      <c r="J161" s="397"/>
-      <c r="K161" s="398"/>
+      <c r="F161" s="399"/>
+      <c r="G161" s="399"/>
+      <c r="H161" s="399"/>
+      <c r="I161" s="399"/>
+      <c r="J161" s="399"/>
+      <c r="K161" s="400"/>
       <c r="L161" s="177"/>
       <c r="M161" s="164"/>
       <c r="N161" s="164" t="s">
@@ -34927,13 +34945,13 @@
       <c r="B162" s="37"/>
       <c r="C162" s="38"/>
       <c r="D162" s="39"/>
-      <c r="E162" s="399"/>
-      <c r="F162" s="400"/>
-      <c r="G162" s="400"/>
-      <c r="H162" s="400"/>
-      <c r="I162" s="400"/>
-      <c r="J162" s="400"/>
-      <c r="K162" s="401"/>
+      <c r="E162" s="401"/>
+      <c r="F162" s="402"/>
+      <c r="G162" s="402"/>
+      <c r="H162" s="402"/>
+      <c r="I162" s="402"/>
+      <c r="J162" s="402"/>
+      <c r="K162" s="403"/>
       <c r="L162" s="178"/>
       <c r="M162" s="179"/>
       <c r="N162" s="179" t="s">
@@ -34984,13 +35002,13 @@
       <c r="B163" s="37"/>
       <c r="C163" s="38"/>
       <c r="D163" s="39"/>
-      <c r="E163" s="399"/>
-      <c r="F163" s="400"/>
-      <c r="G163" s="400"/>
-      <c r="H163" s="400"/>
-      <c r="I163" s="400"/>
-      <c r="J163" s="400"/>
-      <c r="K163" s="401"/>
+      <c r="E163" s="401"/>
+      <c r="F163" s="402"/>
+      <c r="G163" s="402"/>
+      <c r="H163" s="402"/>
+      <c r="I163" s="402"/>
+      <c r="J163" s="402"/>
+      <c r="K163" s="403"/>
       <c r="L163" s="178"/>
       <c r="M163" s="179"/>
       <c r="N163" s="179" t="s">
@@ -35041,13 +35059,13 @@
       <c r="B164" s="37"/>
       <c r="C164" s="38"/>
       <c r="D164" s="39"/>
-      <c r="E164" s="399"/>
-      <c r="F164" s="400"/>
-      <c r="G164" s="400"/>
-      <c r="H164" s="400"/>
-      <c r="I164" s="400"/>
-      <c r="J164" s="400"/>
-      <c r="K164" s="401"/>
+      <c r="E164" s="401"/>
+      <c r="F164" s="402"/>
+      <c r="G164" s="402"/>
+      <c r="H164" s="402"/>
+      <c r="I164" s="402"/>
+      <c r="J164" s="402"/>
+      <c r="K164" s="403"/>
       <c r="L164" s="178"/>
       <c r="M164" s="179"/>
       <c r="N164" s="179" t="s">
@@ -35098,13 +35116,13 @@
       <c r="B165" s="37"/>
       <c r="C165" s="38"/>
       <c r="D165" s="39"/>
-      <c r="E165" s="399"/>
-      <c r="F165" s="400"/>
-      <c r="G165" s="400"/>
-      <c r="H165" s="400"/>
-      <c r="I165" s="400"/>
-      <c r="J165" s="400"/>
-      <c r="K165" s="401"/>
+      <c r="E165" s="401"/>
+      <c r="F165" s="402"/>
+      <c r="G165" s="402"/>
+      <c r="H165" s="402"/>
+      <c r="I165" s="402"/>
+      <c r="J165" s="402"/>
+      <c r="K165" s="403"/>
       <c r="L165" s="178"/>
       <c r="M165" s="179"/>
       <c r="N165" s="179" t="s">
@@ -35155,13 +35173,13 @@
       <c r="B166" s="37"/>
       <c r="C166" s="38"/>
       <c r="D166" s="39"/>
-      <c r="E166" s="402"/>
-      <c r="F166" s="403"/>
-      <c r="G166" s="403"/>
-      <c r="H166" s="403"/>
-      <c r="I166" s="403"/>
-      <c r="J166" s="403"/>
-      <c r="K166" s="404"/>
+      <c r="E166" s="404"/>
+      <c r="F166" s="405"/>
+      <c r="G166" s="405"/>
+      <c r="H166" s="405"/>
+      <c r="I166" s="405"/>
+      <c r="J166" s="405"/>
+      <c r="K166" s="406"/>
       <c r="L166" s="178"/>
       <c r="M166" s="179"/>
       <c r="N166" s="179" t="s">
@@ -35269,48 +35287,48 @@
       <c r="F168" s="203"/>
       <c r="G168" s="203"/>
       <c r="H168" s="204"/>
-      <c r="I168" s="384" t="s">
+      <c r="I168" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="J168" s="385"/>
-      <c r="K168" s="385"/>
-      <c r="L168" s="385"/>
-      <c r="M168" s="385"/>
-      <c r="N168" s="385"/>
-      <c r="O168" s="385"/>
-      <c r="P168" s="385"/>
-      <c r="Q168" s="385"/>
-      <c r="R168" s="385"/>
-      <c r="S168" s="385"/>
-      <c r="T168" s="385"/>
-      <c r="U168" s="385"/>
-      <c r="V168" s="385"/>
-      <c r="W168" s="385"/>
-      <c r="X168" s="385"/>
-      <c r="Y168" s="385"/>
-      <c r="Z168" s="385"/>
-      <c r="AA168" s="385"/>
-      <c r="AB168" s="385"/>
-      <c r="AC168" s="385"/>
-      <c r="AD168" s="385"/>
-      <c r="AE168" s="385"/>
-      <c r="AF168" s="385"/>
-      <c r="AG168" s="385"/>
-      <c r="AH168" s="385"/>
-      <c r="AI168" s="386"/>
-      <c r="AJ168" s="384" t="s">
+      <c r="J168" s="387"/>
+      <c r="K168" s="387"/>
+      <c r="L168" s="387"/>
+      <c r="M168" s="387"/>
+      <c r="N168" s="387"/>
+      <c r="O168" s="387"/>
+      <c r="P168" s="387"/>
+      <c r="Q168" s="387"/>
+      <c r="R168" s="387"/>
+      <c r="S168" s="387"/>
+      <c r="T168" s="387"/>
+      <c r="U168" s="387"/>
+      <c r="V168" s="387"/>
+      <c r="W168" s="387"/>
+      <c r="X168" s="387"/>
+      <c r="Y168" s="387"/>
+      <c r="Z168" s="387"/>
+      <c r="AA168" s="387"/>
+      <c r="AB168" s="387"/>
+      <c r="AC168" s="387"/>
+      <c r="AD168" s="387"/>
+      <c r="AE168" s="387"/>
+      <c r="AF168" s="387"/>
+      <c r="AG168" s="387"/>
+      <c r="AH168" s="387"/>
+      <c r="AI168" s="388"/>
+      <c r="AJ168" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="AK168" s="385"/>
-      <c r="AL168" s="385"/>
-      <c r="AM168" s="385"/>
-      <c r="AN168" s="385"/>
-      <c r="AO168" s="385"/>
-      <c r="AP168" s="385"/>
-      <c r="AQ168" s="385"/>
-      <c r="AR168" s="385"/>
-      <c r="AS168" s="385"/>
-      <c r="AT168" s="386"/>
+      <c r="AK168" s="387"/>
+      <c r="AL168" s="387"/>
+      <c r="AM168" s="387"/>
+      <c r="AN168" s="387"/>
+      <c r="AO168" s="387"/>
+      <c r="AP168" s="387"/>
+      <c r="AQ168" s="387"/>
+      <c r="AR168" s="387"/>
+      <c r="AS168" s="387"/>
+      <c r="AT168" s="388"/>
       <c r="AU168" s="12"/>
       <c r="AV168" s="39"/>
       <c r="AW168" s="183"/>
@@ -35320,12 +35338,12 @@
       <c r="B169" s="37"/>
       <c r="C169" s="38"/>
       <c r="D169" s="149"/>
-      <c r="E169" s="387" t="s">
+      <c r="E169" s="389" t="s">
         <v>103</v>
       </c>
-      <c r="F169" s="388"/>
-      <c r="G169" s="388"/>
-      <c r="H169" s="389"/>
+      <c r="F169" s="390"/>
+      <c r="G169" s="390"/>
+      <c r="H169" s="391"/>
       <c r="I169" s="206" t="s">
         <v>168</v>
       </c>
@@ -35377,12 +35395,12 @@
       <c r="B170" s="37"/>
       <c r="C170" s="38"/>
       <c r="D170" s="149"/>
-      <c r="E170" s="390" t="s">
+      <c r="E170" s="392" t="s">
         <v>104</v>
       </c>
-      <c r="F170" s="391"/>
-      <c r="G170" s="391"/>
-      <c r="H170" s="392"/>
+      <c r="F170" s="393"/>
+      <c r="G170" s="393"/>
+      <c r="H170" s="394"/>
       <c r="I170" s="210" t="s">
         <v>169</v>
       </c>
@@ -35930,32 +35948,39 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="I168:AI168"/>
-    <mergeCell ref="AJ168:AT168"/>
-    <mergeCell ref="E169:H169"/>
-    <mergeCell ref="E170:H170"/>
-    <mergeCell ref="E160:K160"/>
-    <mergeCell ref="L160:AU160"/>
-    <mergeCell ref="E161:K166"/>
-    <mergeCell ref="AM125:AW125"/>
-    <mergeCell ref="AH83:AL83"/>
-    <mergeCell ref="AM83:AW83"/>
-    <mergeCell ref="AM123:AN123"/>
-    <mergeCell ref="AO123:AQ123"/>
-    <mergeCell ref="AR123:AS123"/>
-    <mergeCell ref="AT123:AW123"/>
-    <mergeCell ref="AM124:AN124"/>
-    <mergeCell ref="AO124:AQ124"/>
-    <mergeCell ref="AR124:AS124"/>
-    <mergeCell ref="AT124:AW124"/>
-    <mergeCell ref="A123:I125"/>
-    <mergeCell ref="J123:O125"/>
-    <mergeCell ref="P123:U125"/>
-    <mergeCell ref="V123:Z124"/>
-    <mergeCell ref="AA123:AL124"/>
-    <mergeCell ref="V125:Z125"/>
-    <mergeCell ref="AA125:AG125"/>
-    <mergeCell ref="AH125:AL125"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AA41:AL42"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="AA43:AG43"/>
+    <mergeCell ref="AH43:AL43"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AT41:AW41"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AT42:AW42"/>
     <mergeCell ref="AM43:AW43"/>
     <mergeCell ref="A81:I83"/>
     <mergeCell ref="J81:O83"/>
@@ -35972,39 +35997,32 @@
     <mergeCell ref="AT82:AW82"/>
     <mergeCell ref="V83:Z83"/>
     <mergeCell ref="AA83:AG83"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AT41:AW41"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="AH43:AL43"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="A123:I125"/>
+    <mergeCell ref="J123:O125"/>
+    <mergeCell ref="P123:U125"/>
+    <mergeCell ref="V123:Z124"/>
+    <mergeCell ref="AA123:AL124"/>
+    <mergeCell ref="V125:Z125"/>
+    <mergeCell ref="AA125:AG125"/>
+    <mergeCell ref="AH125:AL125"/>
+    <mergeCell ref="AM125:AW125"/>
+    <mergeCell ref="AH83:AL83"/>
+    <mergeCell ref="AM83:AW83"/>
+    <mergeCell ref="AM123:AN123"/>
+    <mergeCell ref="AO123:AQ123"/>
+    <mergeCell ref="AR123:AS123"/>
+    <mergeCell ref="AT123:AW123"/>
+    <mergeCell ref="AM124:AN124"/>
+    <mergeCell ref="AO124:AQ124"/>
+    <mergeCell ref="AR124:AS124"/>
+    <mergeCell ref="AT124:AW124"/>
+    <mergeCell ref="I168:AI168"/>
+    <mergeCell ref="AJ168:AT168"/>
+    <mergeCell ref="E169:H169"/>
+    <mergeCell ref="E170:H170"/>
+    <mergeCell ref="E160:K160"/>
+    <mergeCell ref="L160:AU160"/>
+    <mergeCell ref="E161:K166"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -36031,130 +36049,130 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="405"/>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="411" t="s">
+      <c r="A1" s="407"/>
+      <c r="B1" s="408"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="409"/>
+      <c r="J1" s="413" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
-      <c r="N1" s="412"/>
-      <c r="O1" s="413"/>
-      <c r="P1" s="411" t="s">
+      <c r="K1" s="414"/>
+      <c r="L1" s="414"/>
+      <c r="M1" s="414"/>
+      <c r="N1" s="414"/>
+      <c r="O1" s="415"/>
+      <c r="P1" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="412"/>
-      <c r="S1" s="412"/>
-      <c r="T1" s="412"/>
-      <c r="U1" s="413"/>
-      <c r="V1" s="417" t="s">
+      <c r="Q1" s="414"/>
+      <c r="R1" s="414"/>
+      <c r="S1" s="414"/>
+      <c r="T1" s="414"/>
+      <c r="U1" s="415"/>
+      <c r="V1" s="419" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="418"/>
-      <c r="X1" s="418"/>
-      <c r="Y1" s="418"/>
-      <c r="Z1" s="419"/>
-      <c r="AA1" s="434" t="s">
+      <c r="W1" s="420"/>
+      <c r="X1" s="420"/>
+      <c r="Y1" s="420"/>
+      <c r="Z1" s="421"/>
+      <c r="AA1" s="436" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="412"/>
-      <c r="AC1" s="412"/>
-      <c r="AD1" s="412"/>
-      <c r="AE1" s="412"/>
-      <c r="AF1" s="412"/>
-      <c r="AG1" s="412"/>
-      <c r="AH1" s="412"/>
-      <c r="AI1" s="412"/>
-      <c r="AJ1" s="412"/>
-      <c r="AK1" s="412"/>
-      <c r="AL1" s="413"/>
-      <c r="AM1" s="436" t="s">
+      <c r="AB1" s="414"/>
+      <c r="AC1" s="414"/>
+      <c r="AD1" s="414"/>
+      <c r="AE1" s="414"/>
+      <c r="AF1" s="414"/>
+      <c r="AG1" s="414"/>
+      <c r="AH1" s="414"/>
+      <c r="AI1" s="414"/>
+      <c r="AJ1" s="414"/>
+      <c r="AK1" s="414"/>
+      <c r="AL1" s="415"/>
+      <c r="AM1" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="437"/>
-      <c r="AO1" s="438" t="s">
+      <c r="AN1" s="439"/>
+      <c r="AO1" s="440" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="439"/>
-      <c r="AQ1" s="440"/>
-      <c r="AR1" s="441" t="s">
+      <c r="AP1" s="441"/>
+      <c r="AQ1" s="442"/>
+      <c r="AR1" s="443" t="s">
         <v>1</v>
       </c>
-      <c r="AS1" s="437"/>
-      <c r="AT1" s="423" t="s">
+      <c r="AS1" s="439"/>
+      <c r="AT1" s="425" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="424"/>
-      <c r="AV1" s="424"/>
-      <c r="AW1" s="425"/>
+      <c r="AU1" s="426"/>
+      <c r="AV1" s="426"/>
+      <c r="AW1" s="427"/>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="408"/>
-      <c r="B2" s="409"/>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
-      <c r="H2" s="409"/>
-      <c r="I2" s="410"/>
-      <c r="J2" s="414"/>
-      <c r="K2" s="415"/>
-      <c r="L2" s="415"/>
-      <c r="M2" s="415"/>
-      <c r="N2" s="415"/>
-      <c r="O2" s="416"/>
-      <c r="P2" s="414"/>
-      <c r="Q2" s="415"/>
-      <c r="R2" s="415"/>
-      <c r="S2" s="415"/>
-      <c r="T2" s="415"/>
-      <c r="U2" s="416"/>
-      <c r="V2" s="420"/>
-      <c r="W2" s="421"/>
-      <c r="X2" s="421"/>
-      <c r="Y2" s="421"/>
-      <c r="Z2" s="422"/>
-      <c r="AA2" s="435"/>
-      <c r="AB2" s="415"/>
-      <c r="AC2" s="415"/>
-      <c r="AD2" s="415"/>
-      <c r="AE2" s="415"/>
-      <c r="AF2" s="415"/>
-      <c r="AG2" s="415"/>
-      <c r="AH2" s="415"/>
-      <c r="AI2" s="415"/>
-      <c r="AJ2" s="415"/>
-      <c r="AK2" s="415"/>
-      <c r="AL2" s="416"/>
-      <c r="AM2" s="426" t="s">
+      <c r="A2" s="410"/>
+      <c r="B2" s="411"/>
+      <c r="C2" s="411"/>
+      <c r="D2" s="411"/>
+      <c r="E2" s="411"/>
+      <c r="F2" s="411"/>
+      <c r="G2" s="411"/>
+      <c r="H2" s="411"/>
+      <c r="I2" s="412"/>
+      <c r="J2" s="416"/>
+      <c r="K2" s="417"/>
+      <c r="L2" s="417"/>
+      <c r="M2" s="417"/>
+      <c r="N2" s="417"/>
+      <c r="O2" s="418"/>
+      <c r="P2" s="416"/>
+      <c r="Q2" s="417"/>
+      <c r="R2" s="417"/>
+      <c r="S2" s="417"/>
+      <c r="T2" s="417"/>
+      <c r="U2" s="418"/>
+      <c r="V2" s="422"/>
+      <c r="W2" s="423"/>
+      <c r="X2" s="423"/>
+      <c r="Y2" s="423"/>
+      <c r="Z2" s="424"/>
+      <c r="AA2" s="437"/>
+      <c r="AB2" s="417"/>
+      <c r="AC2" s="417"/>
+      <c r="AD2" s="417"/>
+      <c r="AE2" s="417"/>
+      <c r="AF2" s="417"/>
+      <c r="AG2" s="417"/>
+      <c r="AH2" s="417"/>
+      <c r="AI2" s="417"/>
+      <c r="AJ2" s="417"/>
+      <c r="AK2" s="417"/>
+      <c r="AL2" s="418"/>
+      <c r="AM2" s="428" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="427"/>
-      <c r="AO2" s="428" t="s">
+      <c r="AN2" s="429"/>
+      <c r="AO2" s="430" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="429"/>
-      <c r="AQ2" s="430"/>
-      <c r="AR2" s="426" t="s">
+      <c r="AP2" s="431"/>
+      <c r="AQ2" s="432"/>
+      <c r="AR2" s="428" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="427"/>
-      <c r="AT2" s="431" t="s">
+      <c r="AS2" s="429"/>
+      <c r="AT2" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="432"/>
-      <c r="AV2" s="432"/>
-      <c r="AW2" s="433"/>
+      <c r="AU2" s="434"/>
+      <c r="AV2" s="434"/>
+      <c r="AW2" s="435"/>
     </row>
     <row r="3" spans="1:49" s="5" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
       <c r="A3" s="2"/>
